--- a/outputs/ML_Results/dist_LR/Montpellier.xlsx
+++ b/outputs/ML_Results/dist_LR/Montpellier.xlsx
@@ -7,56 +7,56 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ13166453" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ13295036" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ13412517" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ13545357" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ13679235" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ13812751" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ13943594" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ14075580" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ14209033" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ14339929" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ14472900" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ14604332" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ14733288" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ14864391" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ14981063" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ15114444" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="summ15256068" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="summ15385944" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="summ15520172" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="summ15654047" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="summ15783771" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="summ15915192" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="summ16050002" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="summ16182854" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="summ16313084" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="summ16448763" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="summ16576559" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="summ16708368" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="summ16841819" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="summ16972144" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="summ17106603" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="summ17241729" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="summ17372611" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="summ17507683" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="summ17636559" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="summ17767532" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="summ17897498" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="summ18027565" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="summ18145714" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="summ18279684" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="summ18413874" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="summ18545192" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="summ18679157" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="summ18811572" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="summ18944604" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="summ19100882" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="summ19335283" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="summ19468322" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="summ19602815" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="summ19734712" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="summ52872080" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ52999940" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ53128037" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ53351661" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ53542786" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ53701851" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ53864273" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ54022303" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ54197243" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ54356758" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ54530042" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ54691586" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ54866966" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ55039183" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ55205730" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ55367770" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ55542811" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="summ55707113" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="summ55883178" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="summ56059730" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="summ56232843" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="summ56420408" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="summ56667161" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="summ56844182" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="summ57025947" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="summ57202976" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="summ57390216" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="summ57565246" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="summ57752042" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="summ57928112" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="summ58093648" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="summ58260130" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="summ58424693" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="summ58608795" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="summ58780965" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="summ58954066" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="summ59123133" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="summ59369222" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="summ59519693" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="summ59689338" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="summ59863357" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="summ00036420" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="summ00329226" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="summ00487617" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="summ00656059" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="summ00824608" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="summ00986849" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="summ01139917" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="summ01307365" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="summ01469393" sheetId="50" state="visible" r:id="rId50"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/outputs/ML_Results/dist_LR/Montpellier.xlsx
+++ b/outputs/ML_Results/dist_LR/Montpellier.xlsx
@@ -7,56 +7,56 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ52872080" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ52999940" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ53128037" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ53351661" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ53542786" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ53701851" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ53864273" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ54022303" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ54197243" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ54356758" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ54530042" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ54691586" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ54866966" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ55039183" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ55205730" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ55367770" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="summ55542811" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="summ55707113" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="summ55883178" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="summ56059730" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="summ56232843" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="summ56420408" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="summ56667161" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="summ56844182" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="summ57025947" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="summ57202976" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="summ57390216" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="summ57565246" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="summ57752042" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="summ57928112" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="summ58093648" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="summ58260130" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="summ58424693" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="summ58608795" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="summ58780965" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="summ58954066" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="summ59123133" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="summ59369222" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="summ59519693" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="summ59689338" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="summ59863357" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="summ00036420" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="summ00329226" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="summ00487617" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="summ00656059" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="summ00824608" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="summ00986849" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="summ01139917" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="summ01307365" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="summ01469393" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="summ03988220" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ04131696" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ04271506" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ04431031" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ04568291" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ04697189" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ04826539" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ04950227" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ05082255" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ05294023" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ05504929" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ05706532" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ05893386" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ06068135" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ06263919" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ06475118" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ06696383" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="summ06900048" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="summ07094163" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="summ07295015" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="summ07509060" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="summ07712055" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="summ07925785" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="summ08138267" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="summ08346646" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="summ08514299" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="summ08692457" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="summ08897098" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="summ09074210" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="summ09259796" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="summ09433473" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="summ09598599" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="summ09771359" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="summ09945539" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="summ10110330" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="summ10281141" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="summ10452940" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="summ10734856" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="summ10910958" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="summ11083621" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="summ11257638" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="summ11425680" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="summ11590390" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="summ11768170" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="summ11947682" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="summ12129484" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="summ12308998" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="summ12479282" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="summ12646496" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="summ12794028" sheetId="50" state="visible" r:id="rId50"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -475,7 +475,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,10 +507,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1868.755551613049</v>
+        <v>1695.182382455214</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1583702310720565</v>
+        <v>0.1769691572890482</v>
       </c>
     </row>
     <row r="3">
@@ -520,10 +520,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>37.72986324509017</v>
+        <v>36.56673413707068</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5481636557140673</v>
+        <v>0.5572881365454095</v>
       </c>
     </row>
     <row r="4">
@@ -533,10 +533,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>161.7263848283721</v>
+        <v>163.8154705338961</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001909654291551112</v>
+        <v>0.001487809858425574</v>
       </c>
     </row>
     <row r="5">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0456586356978006</v>
+        <v>-0.04802521020866117</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2203109717284924</v>
+        <v>0.1898460940823355</v>
       </c>
     </row>
     <row r="6">
@@ -559,10 +559,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-8.770231168840075e-05</v>
+        <v>-7.500576567633141e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2317110367775819</v>
+        <v>0.2630736864213165</v>
       </c>
     </row>
     <row r="7">
@@ -572,10 +572,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.19253374287581</v>
+        <v>2.202190461231694</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6883889860561299</v>
+        <v>0.7716883476384102</v>
       </c>
     </row>
     <row r="8">
@@ -585,10 +585,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>17.45361714982591</v>
+        <v>17.63855332468888</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0239334738233891</v>
+        <v>0.02137082236540831</v>
       </c>
     </row>
     <row r="9">
@@ -598,10 +598,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-321.9300811650613</v>
+        <v>-473.439457978667</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8061178779834187</v>
+        <v>0.7068000704239519</v>
       </c>
     </row>
     <row r="10">
@@ -611,49 +611,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>334.7230375833667</v>
+        <v>344.0753363164231</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6042564821595291</v>
+        <v>0.5912951997967086</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-3134.158511488316</v>
+        <v>8008.050843300833</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6537690324608729</v>
+        <v>0.0006618352246006256</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7889.513415994979</v>
+        <v>-32.91863017265517</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0009214206467463532</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-35.9568038067601</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.06218146472870011</v>
+        <v>0.06540258678133554</v>
       </c>
     </row>
   </sheetData>
@@ -667,7 +654,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -699,10 +686,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>522.7130172644133</v>
+        <v>522.4088961192242</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6920940750379181</v>
+        <v>0.6783372248646471</v>
       </c>
     </row>
     <row r="3">
@@ -712,10 +699,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>45.24781307116901</v>
+        <v>45.25194759392674</v>
       </c>
       <c r="C3" t="n">
-        <v>0.534882528862535</v>
+        <v>0.5302167342380322</v>
       </c>
     </row>
     <row r="4">
@@ -725,10 +712,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>202.676878920742</v>
+        <v>202.681746002172</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0005804321564174987</v>
+        <v>0.000485797105925386</v>
       </c>
     </row>
     <row r="5">
@@ -738,10 +725,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02213190627141465</v>
+        <v>-0.02213497162351555</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5549841617272903</v>
+        <v>0.5494915956961585</v>
       </c>
     </row>
     <row r="6">
@@ -751,10 +738,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6.455568957904315e-05</v>
+        <v>-6.453458649748845e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3501958037503782</v>
+        <v>0.3129964410594386</v>
       </c>
     </row>
     <row r="7">
@@ -764,10 +751,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.897353795156082</v>
+        <v>2.895547800924355</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7214799791530531</v>
+        <v>0.709670750196552</v>
       </c>
     </row>
     <row r="8">
@@ -777,10 +764,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11.07825313081517</v>
+        <v>11.07886338978459</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1382457209670538</v>
+        <v>0.1328804928322585</v>
       </c>
     </row>
     <row r="9">
@@ -790,10 +777,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>323.3614703300186</v>
+        <v>323.241974563748</v>
       </c>
       <c r="C9" t="n">
-        <v>0.807864384279634</v>
+        <v>0.8051576713998667</v>
       </c>
     </row>
     <row r="10">
@@ -803,49 +790,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>116.9978050836903</v>
+        <v>117.1101572144667</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8694499354689692</v>
+        <v>0.8658605660780426</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-6.588083215765437</v>
+        <v>9380.760847082176</v>
       </c>
       <c r="C11" t="n">
-        <v>0.999317620188094</v>
+        <v>0.0001503287543444313</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9380.636307381261</v>
+        <v>-6.81241602507648</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0001769879445411958</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-6.815030543977478</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.6890120119725447</v>
+        <v>0.6815399897600982</v>
       </c>
     </row>
   </sheetData>
@@ -859,7 +833,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -891,10 +865,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>294.2514557660741</v>
+        <v>346.564110826354</v>
       </c>
       <c r="C2" t="n">
-        <v>0.822814563426852</v>
+        <v>0.7850499035454008</v>
       </c>
     </row>
     <row r="3">
@@ -904,10 +878,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21.93835612054059</v>
+        <v>21.87129305124591</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7702701376554772</v>
+        <v>0.7689481225172595</v>
       </c>
     </row>
     <row r="4">
@@ -917,10 +891,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>192.500828614907</v>
+        <v>191.3366059175155</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0003688645395224737</v>
+        <v>0.0003184045695528923</v>
       </c>
     </row>
     <row r="5">
@@ -930,10 +904,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03339300043258969</v>
+        <v>-0.03201815080440554</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4085236232289221</v>
+        <v>0.4154801707204934</v>
       </c>
     </row>
     <row r="6">
@@ -943,10 +917,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6.347112542882035e-05</v>
+        <v>-6.853581458610307e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4137618091674181</v>
+        <v>0.340178505904206</v>
       </c>
     </row>
     <row r="7">
@@ -956,10 +930,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.328377524171099</v>
+        <v>1.666994978506686</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8722646650501584</v>
+        <v>0.8344630527084324</v>
       </c>
     </row>
     <row r="8">
@@ -969,10 +943,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>23.69034075185877</v>
+        <v>23.57046697039426</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0036136812114091</v>
+        <v>0.003365107867005289</v>
       </c>
     </row>
     <row r="9">
@@ -982,10 +956,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-414.6182428565246</v>
+        <v>-359.9883516211727</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7638003918759924</v>
+        <v>0.787319939197055</v>
       </c>
     </row>
     <row r="10">
@@ -995,49 +969,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>396.5688357521935</v>
+        <v>374.7651804821646</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6152650167019937</v>
+        <v>0.6277170392478716</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1126.792595744599</v>
+        <v>7574.992426096237</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8562043875079205</v>
+        <v>0.001049680344377206</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7592.719000483938</v>
+        <v>-16.19706036824977</v>
       </c>
       <c r="C12" t="n">
-        <v>0.001147567681074705</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-15.69276208706478</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.3732471995571098</v>
+        <v>0.3478159874545864</v>
       </c>
     </row>
   </sheetData>
@@ -1051,7 +1012,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1083,10 +1044,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1305.946786041575</v>
+        <v>1297.028053232577</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2540391669801316</v>
+        <v>0.2469626306373603</v>
       </c>
     </row>
     <row r="3">
@@ -1096,10 +1057,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>54.4433892824797</v>
+        <v>54.57737405434659</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3303828134022297</v>
+        <v>0.3241726360838508</v>
       </c>
     </row>
     <row r="4">
@@ -1109,10 +1070,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>203.6385100331115</v>
+        <v>203.6722671846666</v>
       </c>
       <c r="C4" t="n">
-        <v>1.835031081472749e-05</v>
+        <v>1.526143230138452e-05</v>
       </c>
     </row>
     <row r="5">
@@ -1122,10 +1083,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02322518529934393</v>
+        <v>-0.02344712268934156</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4557078668700167</v>
+        <v>0.4425044560958852</v>
       </c>
     </row>
     <row r="6">
@@ -1135,10 +1096,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5.798100741696624e-05</v>
+        <v>-5.683955528873943e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3065964598517107</v>
+        <v>0.2683401740676158</v>
       </c>
     </row>
     <row r="7">
@@ -1148,10 +1109,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.200540069354961</v>
+        <v>2.088895447179492</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7623443240052821</v>
+        <v>0.7606257258706778</v>
       </c>
     </row>
     <row r="8">
@@ -1161,10 +1122,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.7647489951578272</v>
+        <v>-0.7428498126449661</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9116363290647871</v>
+        <v>0.9131856841099056</v>
       </c>
     </row>
     <row r="9">
@@ -1174,10 +1135,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>570.5595563237775</v>
+        <v>550.574590131916</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6049600459884461</v>
+        <v>0.5883744959631632</v>
       </c>
     </row>
     <row r="10">
@@ -1187,49 +1148,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-101.2079732141106</v>
+        <v>-98.76060674598511</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8602819328665445</v>
+        <v>0.8618695554989724</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-371.2292935519981</v>
+        <v>6854.971833366129</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9604150701471207</v>
+        <v>0.001028328607081377</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6851.395306632812</v>
+        <v>7.954185884730595</v>
       </c>
       <c r="C12" t="n">
-        <v>0.001157976354755038</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>7.807512138640398</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.5894430295973838</v>
+        <v>0.5708486253391332</v>
       </c>
     </row>
   </sheetData>
@@ -1243,7 +1191,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1275,10 +1223,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>535.4371045917474</v>
+        <v>550.64542616772</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6949990659305351</v>
+        <v>0.6677677670681499</v>
       </c>
     </row>
     <row r="3">
@@ -1288,10 +1236,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>74.90324096986502</v>
+        <v>74.98102047999231</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2784632730027825</v>
+        <v>0.2732821444026158</v>
       </c>
     </row>
     <row r="4">
@@ -1301,10 +1249,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.0983683176061</v>
+        <v>187.887542901611</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001164499701430196</v>
+        <v>0.0009942383829832106</v>
       </c>
     </row>
     <row r="5">
@@ -1314,10 +1262,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03103455200273879</v>
+        <v>-0.03089116826927426</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4234981805515676</v>
+        <v>0.4187389051089566</v>
       </c>
     </row>
     <row r="6">
@@ -1327,10 +1275,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5.175576529450253e-05</v>
+        <v>-5.274587863600661e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.491959960784384</v>
+        <v>0.4457509055840293</v>
       </c>
     </row>
     <row r="7">
@@ -1340,10 +1288,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.5386812824511402</v>
+        <v>-0.4656275459965826</v>
       </c>
       <c r="C7" t="n">
-        <v>0.952130756665643</v>
+        <v>0.9570571517145009</v>
       </c>
     </row>
     <row r="8">
@@ -1353,10 +1301,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10.52510165479256</v>
+        <v>10.49670721868506</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1770146914980397</v>
+        <v>0.1718328092793841</v>
       </c>
     </row>
     <row r="9">
@@ -1366,10 +1314,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1602.044744419101</v>
+        <v>1612.971566971946</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2459776148895363</v>
+        <v>0.2262337722805614</v>
       </c>
     </row>
     <row r="10">
@@ -1379,49 +1327,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>392.3623784660347</v>
+        <v>390.7295102031591</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5844768164983778</v>
+        <v>0.5817633643722777</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>237.2994323476796</v>
+        <v>9599.879401321066</v>
       </c>
       <c r="C11" t="n">
-        <v>0.97205736478436</v>
+        <v>6.448691548267749e-05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9607.33176050538</v>
+        <v>-10.39901055650675</v>
       </c>
       <c r="C12" t="n">
-        <v>7.934100083933186e-05</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-10.1824104141428</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.60900386775931</v>
+        <v>0.5791445992399712</v>
       </c>
     </row>
   </sheetData>
@@ -1435,7 +1370,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1467,10 +1402,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-130.8356909861091</v>
+        <v>10.85637298503616</v>
       </c>
       <c r="C2" t="n">
-        <v>0.922648339728542</v>
+        <v>0.9932047887668374</v>
       </c>
     </row>
     <row r="3">
@@ -1480,10 +1415,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>83.67805470804402</v>
+        <v>82.7248246585735</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1892835918744927</v>
+        <v>0.1903352255903217</v>
       </c>
     </row>
     <row r="4">
@@ -1493,10 +1428,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147.8474385497375</v>
+        <v>146.1962137356196</v>
       </c>
       <c r="C4" t="n">
-        <v>0.007562486690366126</v>
+        <v>0.007492192478542912</v>
       </c>
     </row>
     <row r="5">
@@ -1506,10 +1441,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03231835224988237</v>
+        <v>-0.0309289108675728</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3364048601545183</v>
+        <v>0.3501867639835361</v>
       </c>
     </row>
     <row r="6">
@@ -1519,10 +1454,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4.135845051300486e-05</v>
+        <v>-4.931342105611205e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4993602347313122</v>
+        <v>0.3822824668489126</v>
       </c>
     </row>
     <row r="7">
@@ -1532,10 +1467,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.04167001240274626</v>
+        <v>0.5052159645320362</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9954363471265544</v>
+        <v>0.9429427241649844</v>
       </c>
     </row>
     <row r="8">
@@ -1545,10 +1480,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.75368353995248</v>
+        <v>15.42833886816225</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02060058283455806</v>
+        <v>0.02090544597994153</v>
       </c>
     </row>
     <row r="9">
@@ -1558,10 +1493,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>13.92360093920752</v>
+        <v>82.5034501460857</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9909611136682085</v>
+        <v>0.9453528432316092</v>
       </c>
     </row>
     <row r="10">
@@ -1571,49 +1506,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>521.8130178353791</v>
+        <v>487.8252889906993</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4014735927487542</v>
+        <v>0.4232411583533126</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2061.648959485455</v>
+        <v>9932.687830506602</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7269270352664672</v>
+        <v>2.022758950450597e-05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10027.34526877409</v>
+        <v>-0.2659690032179185</v>
       </c>
       <c r="C12" t="n">
-        <v>2.29677406302116e-05</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>1.171085389477653</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.9471447531255152</v>
+        <v>0.9875490380645653</v>
       </c>
     </row>
   </sheetData>
@@ -1627,7 +1549,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1659,10 +1581,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>444.1964424495832</v>
+        <v>421.0811085394303</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7293984362722843</v>
+        <v>0.7327640834970578</v>
       </c>
     </row>
     <row r="3">
@@ -1672,10 +1594,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14.69903566496149</v>
+        <v>15.05447448938932</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8458978365342784</v>
+        <v>0.8404812282359331</v>
       </c>
     </row>
     <row r="4">
@@ -1685,10 +1607,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>214.9485026612562</v>
+        <v>215.2712485474341</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0002475921263263886</v>
+        <v>0.0002043655223762243</v>
       </c>
     </row>
     <row r="5">
@@ -1698,10 +1620,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.002310575371216497</v>
+        <v>-0.002663717249566627</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9708774762918038</v>
+        <v>0.9660250835857248</v>
       </c>
     </row>
     <row r="6">
@@ -1711,10 +1633,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4.271799518800262e-05</v>
+        <v>-4.134370861800024e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5911209307365877</v>
+        <v>0.589177725914253</v>
       </c>
     </row>
     <row r="7">
@@ -1724,10 +1646,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2.108234284724706</v>
+        <v>-2.248490823275883</v>
       </c>
       <c r="C7" t="n">
-        <v>0.820977840878185</v>
+        <v>0.8034634898149882</v>
       </c>
     </row>
     <row r="8">
@@ -1737,10 +1659,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.340111324562816</v>
+        <v>9.386793729787858</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2122307553121385</v>
+        <v>0.2042202142408682</v>
       </c>
     </row>
     <row r="9">
@@ -1750,10 +1672,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>300.3897918007051</v>
+        <v>303.7519152583304</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8494044889440167</v>
+        <v>0.8463100066377556</v>
       </c>
     </row>
     <row r="10">
@@ -1763,49 +1685,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>268.1528542147848</v>
+        <v>272.6635946074891</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7225775192184882</v>
+        <v>0.7147510899468867</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-539.8256965987421</v>
+        <v>11304.98004574083</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9417645584386809</v>
+        <v>1.260171762072857e-05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>11313.22887867812</v>
+        <v>-2.3356546100419</v>
       </c>
       <c r="C12" t="n">
-        <v>1.517203385286337e-05</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-2.610834141271337</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.8801128100822853</v>
+        <v>0.8890545791379496</v>
       </c>
     </row>
   </sheetData>
@@ -1819,7 +1728,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1851,10 +1760,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>102.4962386969028</v>
+        <v>49.35525323411366</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9426190976772821</v>
+        <v>0.9713459634368857</v>
       </c>
     </row>
     <row r="3">
@@ -1864,10 +1773,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>57.64753691138702</v>
+        <v>58.05781955903382</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4215919672724192</v>
+        <v>0.4138304310283517</v>
       </c>
     </row>
     <row r="4">
@@ -1877,10 +1786,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>209.0730242848557</v>
+        <v>209.4993331302609</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0001979483478543239</v>
+        <v>0.0001657383362925065</v>
       </c>
     </row>
     <row r="5">
@@ -1890,10 +1799,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.003910054166811727</v>
+        <v>-0.004648412634284366</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9198751178156481</v>
+        <v>0.9033054985161977</v>
       </c>
     </row>
     <row r="6">
@@ -1903,10 +1812,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0001091179625331973</v>
+        <v>-0.0001053973414179734</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1721667527099103</v>
+        <v>0.1648777197258298</v>
       </c>
     </row>
     <row r="7">
@@ -1916,10 +1825,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.766412991135571</v>
+        <v>3.397646591282021</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6457596678780686</v>
+        <v>0.6633690543364603</v>
       </c>
     </row>
     <row r="8">
@@ -1929,10 +1838,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.60363056412131</v>
+        <v>8.716032530163496</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2554588891977608</v>
+        <v>0.2431666955249264</v>
       </c>
     </row>
     <row r="9">
@@ -1942,10 +1851,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>775.7318118930482</v>
+        <v>752.7867158360093</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5572435520849223</v>
+        <v>0.5632309449917046</v>
       </c>
     </row>
     <row r="10">
@@ -1955,49 +1864,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>104.1476361837931</v>
+        <v>117.851066942651</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8823107428223405</v>
+        <v>0.8648214165105292</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1117.416050389176</v>
+        <v>10812.51773061505</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8699931173763543</v>
+        <v>1.551500303677474e-05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10810.60942836732</v>
+        <v>2.254365026736323</v>
       </c>
       <c r="C12" t="n">
-        <v>1.855090611836383e-05</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>1.45269484249151</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.9438308900940868</v>
+        <v>0.9095763586459982</v>
       </c>
     </row>
   </sheetData>
@@ -2011,7 +1907,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2043,10 +1939,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1428.11161709645</v>
+        <v>-1343.053278446981</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2715404690931145</v>
+        <v>0.267949217319024</v>
       </c>
     </row>
     <row r="3">
@@ -2056,10 +1952,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-10.71313782092056</v>
+        <v>-10.69244995997389</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8634970841540677</v>
+        <v>0.86255187893263</v>
       </c>
     </row>
     <row r="4">
@@ -2069,10 +1965,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>265.0264345797658</v>
+        <v>263.345131363618</v>
       </c>
       <c r="C4" t="n">
-        <v>2.246014715553827e-06</v>
+        <v>1.544300260499771e-06</v>
       </c>
     </row>
     <row r="5">
@@ -2082,10 +1978,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0003264381997476334</v>
+        <v>-7.330536682726568e-05</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9922991628368649</v>
+        <v>0.9982539287971919</v>
       </c>
     </row>
     <row r="6">
@@ -2095,10 +1991,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6.870099140836543e-05</v>
+        <v>-7.251554047023777e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2444974321166296</v>
+        <v>0.1895571764387648</v>
       </c>
     </row>
     <row r="7">
@@ -2108,10 +2004,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9.665761648723306</v>
+        <v>9.91401461729223</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2007289125818023</v>
+        <v>0.179409424885814</v>
       </c>
     </row>
     <row r="8">
@@ -2121,10 +2017,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18.85600136681504</v>
+        <v>18.65312942557175</v>
       </c>
       <c r="C8" t="n">
-        <v>0.007906280389017032</v>
+        <v>0.007327543629319409</v>
       </c>
     </row>
     <row r="9">
@@ -2134,10 +2030,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1070.883287455773</v>
+        <v>1097.363467194529</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3953326889631128</v>
+        <v>0.3768329559415556</v>
       </c>
     </row>
     <row r="10">
@@ -2147,49 +2043,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-840.1792301602165</v>
+        <v>-851.4861035532763</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2272308772546259</v>
+        <v>0.2154330012862844</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1349.193597440635</v>
+        <v>8672.537986341275</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8447389916394071</v>
+        <v>0.0001006092860335037</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8722.163746617902</v>
+        <v>14.93547337720525</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0001184636848467972</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>15.67229631467865</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.3279159223418183</v>
+        <v>0.3329739303102672</v>
       </c>
     </row>
   </sheetData>
@@ -2203,7 +2086,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2235,10 +2118,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1838.32591953847</v>
+        <v>1888.330561087754</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1255873335374361</v>
+        <v>0.1010745395012835</v>
       </c>
     </row>
     <row r="3">
@@ -2248,10 +2131,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>81.60477351203551</v>
+        <v>80.93356105772494</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1691663556097341</v>
+        <v>0.1677863703738513</v>
       </c>
     </row>
     <row r="4">
@@ -2261,10 +2144,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>122.7134261280656</v>
+        <v>122.0387651055191</v>
       </c>
       <c r="C4" t="n">
-        <v>0.007298427206928711</v>
+        <v>0.006848734847010263</v>
       </c>
     </row>
     <row r="5">
@@ -2274,10 +2157,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.06229967064051289</v>
+        <v>-0.0615280287253684</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0620936576805129</v>
+        <v>0.06032393994095615</v>
       </c>
     </row>
     <row r="6">
@@ -2287,10 +2170,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.960350378733449e-05</v>
+        <v>-4.394975033531855e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5092922296028966</v>
+        <v>0.4112089750707459</v>
       </c>
     </row>
     <row r="7">
@@ -2300,10 +2183,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2.912191469689462</v>
+        <v>-2.585147721810428</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6979797879015774</v>
+        <v>0.7185395182530826</v>
       </c>
     </row>
     <row r="8">
@@ -2313,10 +2196,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12.65544903210652</v>
+        <v>12.5593792947003</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1321352642479652</v>
+        <v>0.1306125728081184</v>
       </c>
     </row>
     <row r="9">
@@ -2326,10 +2209,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-819.6527236290312</v>
+        <v>-778.5471686349606</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4829413416982909</v>
+        <v>0.4912138586428192</v>
       </c>
     </row>
     <row r="10">
@@ -2339,49 +2222,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>741.6383059161076</v>
+        <v>726.5192825727772</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2173580557987645</v>
+        <v>0.2171611868682619</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>919.4211101651945</v>
+        <v>8474.817606180875</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8688215339460863</v>
+        <v>5.193803909135404e-05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8500.813158474019</v>
+        <v>-23.969118060658</v>
       </c>
       <c r="C12" t="n">
-        <v>6.077809771236503e-05</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-23.42896339331429</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1330307659772641</v>
+        <v>0.1129066833108778</v>
       </c>
     </row>
   </sheetData>
@@ -2395,7 +2265,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2427,10 +2297,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>198.3435885890426</v>
+        <v>184.2481185976212</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8710015903708138</v>
+        <v>0.8755028157452924</v>
       </c>
     </row>
     <row r="3">
@@ -2440,10 +2310,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>63.94838970431529</v>
+        <v>63.78607292326316</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3809729880652112</v>
+        <v>0.377357284819013</v>
       </c>
     </row>
     <row r="4">
@@ -2453,10 +2323,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9695977618875</v>
+        <v>190.1968221494662</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0005711646986168745</v>
+        <v>0.0004783278681372799</v>
       </c>
     </row>
     <row r="5">
@@ -2466,10 +2336,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03281304853663741</v>
+        <v>-0.03307693561182297</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3936254588560641</v>
+        <v>0.3808000618354103</v>
       </c>
     </row>
     <row r="6">
@@ -2479,10 +2349,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5.047379363741316e-05</v>
+        <v>-4.930717392849068e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4845022046096054</v>
+        <v>0.465095804480686</v>
       </c>
     </row>
     <row r="7">
@@ -2492,10 +2362,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.719214080910699</v>
+        <v>1.633168271429565</v>
       </c>
       <c r="C7" t="n">
-        <v>0.838701785114095</v>
+        <v>0.8418448648826806</v>
       </c>
     </row>
     <row r="8">
@@ -2505,10 +2375,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10.70109976053267</v>
+        <v>10.74353686475905</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1414557434913873</v>
+        <v>0.1335319931833542</v>
       </c>
     </row>
     <row r="9">
@@ -2518,10 +2388,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>912.7863020565619</v>
+        <v>898.5962930479884</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4914891832814079</v>
+        <v>0.4836047451182003</v>
       </c>
     </row>
     <row r="10">
@@ -2531,49 +2401,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>696.9018352532066</v>
+        <v>700.0902697354754</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3555968655617854</v>
+        <v>0.347232298618314</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-308.526072941695</v>
+        <v>8249.084597482954</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9611042726879717</v>
+        <v>0.0004731753926889078</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8243.920852376392</v>
+        <v>1.027092164403868</v>
       </c>
       <c r="C12" t="n">
-        <v>0.000543064967904931</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0.8633021118495492</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.9597645180546908</v>
+        <v>0.9507473172620899</v>
       </c>
     </row>
   </sheetData>
@@ -2587,7 +2444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2619,10 +2476,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1165.728070075541</v>
+        <v>-915.9098572174389</v>
       </c>
       <c r="C2" t="n">
-        <v>0.407053191414385</v>
+        <v>0.4884834627849393</v>
       </c>
     </row>
     <row r="3">
@@ -2632,10 +2489,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>28.77449462028787</v>
+        <v>30.80969638180139</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6947473574906508</v>
+        <v>0.6720425679188329</v>
       </c>
     </row>
     <row r="4">
@@ -2645,10 +2502,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>221.5861516647217</v>
+        <v>214.6692279394677</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0001595856811416505</v>
+        <v>0.0001547669049354077</v>
       </c>
     </row>
     <row r="5">
@@ -2658,10 +2515,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01512674011889814</v>
+        <v>-0.01408058070436388</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7188509867334336</v>
+        <v>0.7356601758381343</v>
       </c>
     </row>
     <row r="6">
@@ -2671,10 +2528,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6.7257640974436e-05</v>
+        <v>-7.901477923760112e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3726095713493427</v>
+        <v>0.2728832959700762</v>
       </c>
     </row>
     <row r="7">
@@ -2684,10 +2541,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.236481334877766</v>
+        <v>6.807220922339091</v>
       </c>
       <c r="C7" t="n">
-        <v>0.474943917230095</v>
+        <v>0.429557809745862</v>
       </c>
     </row>
     <row r="8">
@@ -2697,10 +2554,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18.37089543551764</v>
+        <v>17.8297539211216</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01474327279968886</v>
+        <v>0.01612005164970891</v>
       </c>
     </row>
     <row r="9">
@@ -2710,10 +2567,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1107.95207583407</v>
+        <v>1200.802727967663</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4812013999463409</v>
+        <v>0.4399159455523921</v>
       </c>
     </row>
     <row r="10">
@@ -2723,49 +2580,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-226.0046115750793</v>
+        <v>-227.8776473561024</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7989024373904436</v>
+        <v>0.7960038818210653</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3848.479854142295</v>
+        <v>8633.616530531061</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5783456389334416</v>
+        <v>0.0003569139199193135</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8800.47937735917</v>
+        <v>9.868995257466732</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0003434341293077751</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>11.98123626257427</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.4984881354004135</v>
+        <v>0.5653722337296695</v>
       </c>
     </row>
   </sheetData>
@@ -2779,7 +2623,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2811,10 +2655,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>187.2937564849526</v>
+        <v>258.3603087276676</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8910237514590135</v>
+        <v>0.8440921522592992</v>
       </c>
     </row>
     <row r="3">
@@ -2824,10 +2668,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>67.06984737961422</v>
+        <v>66.83590620974955</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3418785012313924</v>
+        <v>0.3392995973694596</v>
       </c>
     </row>
     <row r="4">
@@ -2837,10 +2681,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>174.2440475917679</v>
+        <v>173.4972830179582</v>
       </c>
       <c r="C4" t="n">
-        <v>0.002497729510287262</v>
+        <v>0.002336365555685188</v>
       </c>
     </row>
     <row r="5">
@@ -2850,10 +2694,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01141692587286183</v>
+        <v>0.01474917077986591</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8548521548030353</v>
+        <v>0.8054214028205336</v>
       </c>
     </row>
     <row r="6">
@@ -2863,10 +2707,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4.290396990129814e-05</v>
+        <v>-4.932942743415491e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.574221717528129</v>
+        <v>0.477784165002943</v>
       </c>
     </row>
     <row r="7">
@@ -2876,10 +2720,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-6.316194880078539</v>
+        <v>-5.983880572009999</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5185709809670191</v>
+        <v>0.5318682270130839</v>
       </c>
     </row>
     <row r="8">
@@ -2889,10 +2733,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13.56494985765072</v>
+        <v>13.45090227158404</v>
       </c>
       <c r="C8" t="n">
-        <v>0.06975017705753744</v>
+        <v>0.06888588680725342</v>
       </c>
     </row>
     <row r="9">
@@ -2902,10 +2746,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1017.296609997975</v>
+        <v>1112.067051761288</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4766903455859378</v>
+        <v>0.4088290032610283</v>
       </c>
     </row>
     <row r="10">
@@ -2915,49 +2759,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>484.6494636678225</v>
+        <v>474.3595222057979</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4970933987208822</v>
+        <v>0.5015383780935638</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1660.677748521906</v>
+        <v>10069.84328294278</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8325450141558279</v>
+        <v>6.048307027460871e-05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10085.57629920893</v>
+        <v>-2.682827919910029</v>
       </c>
       <c r="C12" t="n">
-        <v>6.899931343266381e-05</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-1.547059309254109</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.9330428790193922</v>
+        <v>0.8778955419160617</v>
       </c>
     </row>
   </sheetData>
@@ -2971,7 +2802,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3003,10 +2834,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>161.4303209981683</v>
+        <v>41.4873730654931</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9106636893940013</v>
+        <v>0.9755406910016633</v>
       </c>
     </row>
     <row r="3">
@@ -3016,10 +2847,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>70.78452075688612</v>
+        <v>71.03854285437404</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3584427690730702</v>
+        <v>0.3525511364174272</v>
       </c>
     </row>
     <row r="4">
@@ -3029,10 +2860,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>202.1377667236665</v>
+        <v>204.4430145928016</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001001849756302574</v>
+        <v>0.0007055572702682291</v>
       </c>
     </row>
     <row r="5">
@@ -3042,10 +2873,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02738325017585702</v>
+        <v>-0.02903631851124301</v>
       </c>
       <c r="C5" t="n">
-        <v>0.545827029419057</v>
+        <v>0.5142995713798186</v>
       </c>
     </row>
     <row r="6">
@@ -3055,10 +2886,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-7.830841576488718e-05</v>
+        <v>-7.095853849514892e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3559970321704891</v>
+        <v>0.3713550632840725</v>
       </c>
     </row>
     <row r="7">
@@ -3068,10 +2899,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.117877296564261</v>
+        <v>3.709942123933723</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6806644848439998</v>
+        <v>0.7049818582199224</v>
       </c>
     </row>
     <row r="8">
@@ -3081,10 +2912,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12.78212644635249</v>
+        <v>13.09075726595836</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1070645774085669</v>
+        <v>0.09253493882811263</v>
       </c>
     </row>
     <row r="9">
@@ -3094,10 +2925,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1826.073064988027</v>
+        <v>1731.941647909868</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2077432823245076</v>
+        <v>0.2133180727291154</v>
       </c>
     </row>
     <row r="10">
@@ -3107,49 +2938,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>175.2825962828733</v>
+        <v>217.7966028722067</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8603972080051068</v>
+        <v>0.8232713851740983</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1993.893626605197</v>
+        <v>9989.9437088617</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7921280871143357</v>
+        <v>5.230631349545227e-05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9926.223911658748</v>
+        <v>-10.25449487797733</v>
       </c>
       <c r="C12" t="n">
-        <v>7.213758153837134e-05</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-11.20262275346317</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.5600286864625292</v>
+        <v>0.5837564483386434</v>
       </c>
     </row>
   </sheetData>
@@ -3163,7 +2981,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3195,10 +3013,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-707.1696767528233</v>
+        <v>-488.8342007381402</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5795477055905758</v>
+        <v>0.6889633275992118</v>
       </c>
     </row>
     <row r="3">
@@ -3208,10 +3026,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>105.5161288306638</v>
+        <v>103.2716739757037</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1387966388041147</v>
+        <v>0.144471384394001</v>
       </c>
     </row>
     <row r="4">
@@ -3221,10 +3039,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>175.2206917154135</v>
+        <v>174.3226880407877</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001671266148338568</v>
+        <v>0.001645129188873392</v>
       </c>
     </row>
     <row r="5">
@@ -3234,10 +3052,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.04052243609431483</v>
+        <v>-0.03740519820684707</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2427778567595434</v>
+        <v>0.2729353936304534</v>
       </c>
     </row>
     <row r="6">
@@ -3247,10 +3065,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5.421172320368181e-06</v>
+        <v>-1.969087136309176e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9311839746104539</v>
+        <v>0.7355931040682151</v>
       </c>
     </row>
     <row r="7">
@@ -3260,10 +3078,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1.808496302618761</v>
+        <v>-0.5710012080574671</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8134784141331667</v>
+        <v>0.9382421953822271</v>
       </c>
     </row>
     <row r="8">
@@ -3273,10 +3091,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.35736607860514</v>
+        <v>14.72271283389958</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02927410917569003</v>
+        <v>0.03342726321142574</v>
       </c>
     </row>
     <row r="9">
@@ -3286,10 +3104,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>368.2447808272784</v>
+        <v>494.7500670045949</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7681152791135926</v>
+        <v>0.6866753745868193</v>
       </c>
     </row>
     <row r="10">
@@ -3299,49 +3117,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>860.892420033829</v>
+        <v>785.2991080563766</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1953370273745473</v>
+        <v>0.2266462587023981</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3868.946218250266</v>
+        <v>10642.79652062596</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5268599349211387</v>
+        <v>6.072595577285302e-06</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10703.02011146876</v>
+        <v>1.45191096599352</v>
       </c>
       <c r="C12" t="n">
-        <v>6.371640613197234e-06</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>3.937969721655477</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.823616953741826</v>
+        <v>0.9324468147977847</v>
       </c>
     </row>
   </sheetData>
@@ -3355,7 +3160,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3387,10 +3192,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>710.9987862074943</v>
+        <v>683.2430448055502</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5751376152816129</v>
+        <v>0.5735353791623783</v>
       </c>
     </row>
     <row r="3">
@@ -3400,10 +3205,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>38.86657261549907</v>
+        <v>38.92511328716542</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5279087725447974</v>
+        <v>0.5234563102613214</v>
       </c>
     </row>
     <row r="4">
@@ -3413,10 +3218,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.6875817065926</v>
+        <v>186.1001867042905</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0002093855267839331</v>
+        <v>0.0001651969379345207</v>
       </c>
     </row>
     <row r="5">
@@ -3426,10 +3231,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02397183085291374</v>
+        <v>-0.02431596433540989</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4916534776886718</v>
+        <v>0.4784469995344308</v>
       </c>
     </row>
     <row r="6">
@@ -3439,10 +3244,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6.885705445717376e-05</v>
+        <v>-6.679471005045552e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3064279885594441</v>
+        <v>0.2825127592956907</v>
       </c>
     </row>
     <row r="7">
@@ -3452,10 +3257,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.38024407559503</v>
+        <v>2.197112952665972</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7645747588662821</v>
+        <v>0.7718197253815522</v>
       </c>
     </row>
     <row r="8">
@@ -3465,10 +3270,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11.74796286972134</v>
+        <v>11.77591004181038</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1520052971280701</v>
+        <v>0.1469840101947091</v>
       </c>
     </row>
     <row r="9">
@@ -3478,10 +3283,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-84.65740646373069</v>
+        <v>-100.6853138344427</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9423676161537746</v>
+        <v>0.9299277519973659</v>
       </c>
     </row>
     <row r="10">
@@ -3491,49 +3296,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>180.7091077143953</v>
+        <v>186.0977848351226</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7664248761620391</v>
+        <v>0.7562265601722203</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-535.8933948817212</v>
+        <v>9145.945583160472</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9326530004126006</v>
+        <v>6.654397694744086e-05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9127.732262726244</v>
+        <v>-5.643795136321472</v>
       </c>
       <c r="C12" t="n">
-        <v>8.571000182482761e-05</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-6.048681520033</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.7426312843574127</v>
+        <v>0.7487685390157999</v>
       </c>
     </row>
   </sheetData>
@@ -3547,7 +3339,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3579,10 +3371,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1545.031050957792</v>
+        <v>1477.963524041192</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2095456055284977</v>
+        <v>0.2160764379096746</v>
       </c>
     </row>
     <row r="3">
@@ -3592,10 +3384,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>56.79017784732694</v>
+        <v>56.63982167706221</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3901336672073306</v>
+        <v>0.3873650175451087</v>
       </c>
     </row>
     <row r="4">
@@ -3605,10 +3397,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>169.549248060242</v>
+        <v>170.9302917524907</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001489603930882244</v>
+        <v>0.001183996783254901</v>
       </c>
     </row>
     <row r="5">
@@ -3618,10 +3410,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03614531032302082</v>
+        <v>-0.03723264127603749</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2986973320862125</v>
+        <v>0.2771997468253808</v>
       </c>
     </row>
     <row r="6">
@@ -3631,10 +3423,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-8.163475930727366e-05</v>
+        <v>-7.565352263138122e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2071888883456328</v>
+        <v>0.2087316862781231</v>
       </c>
     </row>
     <row r="7">
@@ -3644,10 +3436,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3224082274094773</v>
+        <v>-0.1516064523172247</v>
       </c>
       <c r="C7" t="n">
-        <v>0.965774233608661</v>
+        <v>0.9832979046688002</v>
       </c>
     </row>
     <row r="8">
@@ -3657,10 +3449,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.275861150765397</v>
+        <v>7.331413068535082</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3164818486010221</v>
+        <v>0.3085567345857344</v>
       </c>
     </row>
     <row r="9">
@@ -3670,10 +3462,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>629.0577738902718</v>
+        <v>546.9146088893799</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6159740751073548</v>
+        <v>0.6501129890549413</v>
       </c>
     </row>
     <row r="10">
@@ -3683,49 +3475,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>321.0964421598849</v>
+        <v>322.0953829956338</v>
       </c>
       <c r="C10" t="n">
-        <v>0.619682593031861</v>
+        <v>0.6156222775554336</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1820.638641917109</v>
+        <v>7782.5428506785</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7884594587561347</v>
+        <v>0.0007967896836368173</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7742.278835310904</v>
+        <v>-9.153106377600487</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0009560347234728734</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-10.23111240364207</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.51932381904589</v>
+        <v>0.547732339109523</v>
       </c>
     </row>
   </sheetData>
@@ -3739,7 +3518,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3771,10 +3550,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-305.2728562630109</v>
+        <v>-235.9319025920863</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8111352388079058</v>
+        <v>0.8488205896566181</v>
       </c>
     </row>
     <row r="3">
@@ -3784,10 +3563,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.7300039806350753</v>
+        <v>-1.868661378140771</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9917457621158228</v>
+        <v>0.9786503188611151</v>
       </c>
     </row>
     <row r="4">
@@ -3797,10 +3576,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>215.0150852623314</v>
+        <v>214.3292500650249</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0001492165959958169</v>
+        <v>0.0001342387112151687</v>
       </c>
     </row>
     <row r="5">
@@ -3810,10 +3589,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03518383457932486</v>
+        <v>0.03802440628366582</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5772322524480424</v>
+        <v>0.5371953743637594</v>
       </c>
     </row>
     <row r="6">
@@ -3823,10 +3602,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6.433795314290033e-05</v>
+        <v>-7.155128835306936e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4119079665595268</v>
+        <v>0.3243464016946195</v>
       </c>
     </row>
     <row r="7">
@@ -3836,10 +3615,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2.148650191914195</v>
+        <v>-1.725418780626971</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8080635748688713</v>
+        <v>0.841248539130538</v>
       </c>
     </row>
     <row r="8">
@@ -3849,10 +3628,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14.97272361376582</v>
+        <v>14.82184762037433</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03934751435168107</v>
+        <v>0.03894002949426843</v>
       </c>
     </row>
     <row r="9">
@@ -3862,10 +3641,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>257.266264598728</v>
+        <v>321.6252297916121</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8679823615329403</v>
+        <v>0.8318033990208237</v>
       </c>
     </row>
     <row r="10">
@@ -3875,49 +3654,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>17.11659256683743</v>
+        <v>5.494656635650244</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9798888475110927</v>
+        <v>0.9934737238571474</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1740.198922243835</v>
+        <v>9300.804934587872</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7982589206234878</v>
+        <v>0.0001820026233679025</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9275.832747318202</v>
+        <v>8.407893714033944</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0002162473858434012</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>9.322739826535084</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.5871285683243327</v>
+        <v>0.6134784061242271</v>
       </c>
     </row>
   </sheetData>
@@ -3931,7 +3697,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3963,10 +3729,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1561.120279740036</v>
+        <v>-1302.315100313295</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2880798696265544</v>
+        <v>0.3495777247157252</v>
       </c>
     </row>
     <row r="3">
@@ -3976,10 +3742,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.20303148775767</v>
+        <v>1.309039199479301</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9975790625665889</v>
+        <v>0.9842922335710056</v>
       </c>
     </row>
     <row r="4">
@@ -3989,10 +3755,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>265.2565597285996</v>
+        <v>259.9892081798035</v>
       </c>
       <c r="C4" t="n">
-        <v>1.640681982336581e-05</v>
+        <v>1.634576148456395e-05</v>
       </c>
     </row>
     <row r="5">
@@ -4002,10 +3768,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01004911189786434</v>
+        <v>-0.007836958866812918</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7851677820402587</v>
+        <v>0.8297703690495886</v>
       </c>
     </row>
     <row r="6">
@@ -4015,10 +3781,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5.907657555734893e-05</v>
+        <v>-7.222852562748372e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3827573339997661</v>
+        <v>0.2567019419246295</v>
       </c>
     </row>
     <row r="7">
@@ -4028,10 +3794,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.464625557012198</v>
+        <v>8.204150160687043</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3643797496724883</v>
+        <v>0.3106565147590277</v>
       </c>
     </row>
     <row r="8">
@@ -4041,10 +3807,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18.88311488043941</v>
+        <v>18.32350217209417</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01190107032611461</v>
+        <v>0.01315709057212494</v>
       </c>
     </row>
     <row r="9">
@@ -4054,10 +3820,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>799.7769894115349</v>
+        <v>910.9392718078238</v>
       </c>
       <c r="C9" t="n">
-        <v>0.513897541695155</v>
+        <v>0.4493729915635064</v>
       </c>
     </row>
     <row r="10">
@@ -4067,49 +3833,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>56.19975108678045</v>
+        <v>24.94425138449924</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9319258520333622</v>
+        <v>0.9694751639821648</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3678.06536821884</v>
+        <v>6899.439213483051</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5541443283266532</v>
+        <v>0.006795316431504615</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6948.885884000575</v>
+        <v>17.02389814492415</v>
       </c>
       <c r="C12" t="n">
-        <v>0.006798096726640347</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>20.01245834504093</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.305156135086072</v>
+        <v>0.3629575910333461</v>
       </c>
     </row>
   </sheetData>
@@ -4123,7 +3876,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4155,10 +3908,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>229.8522551552023</v>
+        <v>313.5555414663359</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8563273276567211</v>
+        <v>0.7984092167819827</v>
       </c>
     </row>
     <row r="3">
@@ -4168,10 +3921,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>68.55689561407365</v>
+        <v>67.87032635674687</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3310118558115732</v>
+        <v>0.331495213785522</v>
       </c>
     </row>
     <row r="4">
@@ -4181,10 +3934,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>172.4806444543237</v>
+        <v>171.2086343778372</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001481968934696592</v>
+        <v>0.001404303175320299</v>
       </c>
     </row>
     <row r="5">
@@ -4194,10 +3947,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03962829244060817</v>
+        <v>-0.03806166122558433</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3144711842092706</v>
+        <v>0.3253538321139542</v>
       </c>
     </row>
     <row r="6">
@@ -4207,10 +3960,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-9.204681755067465e-05</v>
+        <v>-9.898737454450212e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2940017943267764</v>
+        <v>0.2381218418217728</v>
       </c>
     </row>
     <row r="7">
@@ -4220,10 +3973,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-3.448652362412457</v>
+        <v>-2.676552036947879</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6864685823037342</v>
+        <v>0.7400760009406639</v>
       </c>
     </row>
     <row r="8">
@@ -4233,10 +3986,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12.82354999073826</v>
+        <v>12.7314750833961</v>
       </c>
       <c r="C8" t="n">
-        <v>0.07610664049989781</v>
+        <v>0.07541068977210602</v>
       </c>
     </row>
     <row r="9">
@@ -4246,10 +3999,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1973.33223230182</v>
+        <v>2019.545576351049</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1905121643462966</v>
+        <v>0.1745201167659548</v>
       </c>
     </row>
     <row r="10">
@@ -4259,49 +4012,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>456.9121581694599</v>
+        <v>432.9814392148046</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5200802325092827</v>
+        <v>0.5360420606816754</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2277.29091439167</v>
+        <v>10357.72144711452</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7664351386819641</v>
+        <v>8.615879328209205e-06</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10382.64571004247</v>
+        <v>-1.573013874078407</v>
       </c>
       <c r="C12" t="n">
-        <v>9.990147014751585e-06</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-0.2888601969838902</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.9864513219148674</v>
+        <v>0.9231891777277557</v>
       </c>
     </row>
   </sheetData>
@@ -4315,7 +4055,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4347,10 +4087,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>336.240919958228</v>
+        <v>414.3494886174685</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7711012240440183</v>
+        <v>0.7130022621997341</v>
       </c>
     </row>
     <row r="3">
@@ -4360,10 +4100,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>129.6084147978935</v>
+        <v>128.5998823845358</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0496912025293926</v>
+        <v>0.04936402583833922</v>
       </c>
     </row>
     <row r="4">
@@ -4373,10 +4113,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>154.483546578949</v>
+        <v>153.6777242383455</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001580336907314498</v>
+        <v>0.001506159234056321</v>
       </c>
     </row>
     <row r="5">
@@ -4386,10 +4126,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.008975720471927351</v>
+        <v>-0.005557197293626914</v>
       </c>
       <c r="C5" t="n">
-        <v>0.862304481980431</v>
+        <v>0.912317440803106</v>
       </c>
     </row>
     <row r="6">
@@ -4399,10 +4139,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.927054153611393e-05</v>
+        <v>-4.977229227892186e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5543301708258265</v>
+        <v>0.4013906508871471</v>
       </c>
     </row>
     <row r="7">
@@ -4412,10 +4152,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-4.071032225707963</v>
+        <v>-3.305606353675881</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6375704822659594</v>
+        <v>0.6907078111461298</v>
       </c>
     </row>
     <row r="8">
@@ -4425,10 +4165,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10.11419600595391</v>
+        <v>9.980215711955282</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1367771592196047</v>
+        <v>0.1381585788946602</v>
       </c>
     </row>
     <row r="9">
@@ -4438,10 +4178,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>305.3483487178837</v>
+        <v>495.3474266813555</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8190130808521656</v>
+        <v>0.6840606331647752</v>
       </c>
     </row>
     <row r="10">
@@ -4451,49 +4191,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>692.8975757854773</v>
+        <v>640.4137858629429</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3418211562772188</v>
+        <v>0.3657992807662812</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2462.44220658546</v>
+        <v>10214.31651923772</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7179923315803984</v>
+        <v>8.884883313985576e-06</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10322.04857622116</v>
+        <v>-3.697548519761781</v>
       </c>
       <c r="C12" t="n">
-        <v>1.040651368163204e-05</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-2.844515433334188</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.8495817962213655</v>
+        <v>0.8013325086280403</v>
       </c>
     </row>
   </sheetData>
@@ -4507,7 +4234,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4539,10 +4266,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>426.900720651834</v>
+        <v>277.5113577468539</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7470007719552415</v>
+        <v>0.8262532592895185</v>
       </c>
     </row>
     <row r="3">
@@ -4552,10 +4279,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>67.14885682376244</v>
+        <v>69.03765312056183</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3737625646816605</v>
+        <v>0.3561014505408578</v>
       </c>
     </row>
     <row r="4">
@@ -4565,10 +4292,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>203.1223757248164</v>
+        <v>203.0378090470618</v>
       </c>
       <c r="C4" t="n">
-        <v>0.000641140597239139</v>
+        <v>0.0005848934920207136</v>
       </c>
     </row>
     <row r="5">
@@ -4578,10 +4305,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02796828315099746</v>
+        <v>-0.03002987355867208</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4706612154328222</v>
+        <v>0.4315643960674663</v>
       </c>
     </row>
     <row r="6">
@@ -4591,10 +4318,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4.610744328078171e-05</v>
+        <v>-3.513665994825601e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.534552229525983</v>
+        <v>0.6098894923955158</v>
       </c>
     </row>
     <row r="7">
@@ -4604,10 +4331,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.489994675969307</v>
+        <v>1.40997045372643</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7652006298133278</v>
+        <v>0.8577233535434892</v>
       </c>
     </row>
     <row r="8">
@@ -4617,10 +4344,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10.06196971503802</v>
+        <v>10.58590248264044</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1931125587870578</v>
+        <v>0.1624560703692931</v>
       </c>
     </row>
     <row r="9">
@@ -4630,10 +4357,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>271.0758156693091</v>
+        <v>201.7670284027122</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8421859845130788</v>
+        <v>0.8804176724972486</v>
       </c>
     </row>
     <row r="10">
@@ -4643,49 +4370,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>516.6193006598264</v>
+        <v>560.8733705970808</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4790118879816299</v>
+        <v>0.4340531264600493</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2931.306540730093</v>
+        <v>10833.24843732606</v>
       </c>
       <c r="C11" t="n">
-        <v>0.676292384676185</v>
+        <v>1.404226488917796e-05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10828.23043256129</v>
+        <v>-10.6224715029557</v>
       </c>
       <c r="C12" t="n">
-        <v>1.647339141016559e-05</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-12.46628569246409</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.5166686515858432</v>
+        <v>0.5671031126007724</v>
       </c>
     </row>
   </sheetData>
@@ -4699,7 +4413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4731,10 +4445,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-699.148431299071</v>
+        <v>-650.627271784992</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5678941854577577</v>
+        <v>0.584341343183616</v>
       </c>
     </row>
     <row r="3">
@@ -4744,10 +4458,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>90.63467437664701</v>
+        <v>89.67954415155992</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1998489250582123</v>
+        <v>0.1995333665596319</v>
       </c>
     </row>
     <row r="4">
@@ -4757,10 +4471,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>171.3932175281365</v>
+        <v>171.410922666326</v>
       </c>
       <c r="C4" t="n">
-        <v>0.003689345101279883</v>
+        <v>0.003391484065091966</v>
       </c>
     </row>
     <row r="5">
@@ -4770,10 +4484,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02174231832042652</v>
+        <v>-0.02067990849667274</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5330257542481881</v>
+        <v>0.5449935826865365</v>
       </c>
     </row>
     <row r="6">
@@ -4783,10 +4497,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.529986181435391e-05</v>
+        <v>-3.992979242099077e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5778680528374316</v>
+        <v>0.4958486697737911</v>
       </c>
     </row>
     <row r="7">
@@ -4796,10 +4510,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7643640264958513</v>
+        <v>1.183678983091067</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9193690826555743</v>
+        <v>0.8693264929574174</v>
       </c>
     </row>
     <row r="8">
@@ -4809,10 +4523,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14.13026948152047</v>
+        <v>13.99549126485269</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04387213761760263</v>
+        <v>0.04298458289052523</v>
       </c>
     </row>
     <row r="9">
@@ -4822,10 +4536,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>355.9415868057681</v>
+        <v>409.1691874955045</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7773562840968407</v>
+        <v>0.7373446109952569</v>
       </c>
     </row>
     <row r="10">
@@ -4835,49 +4549,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>453.4459062217337</v>
+        <v>439.0651965158269</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4898290718833771</v>
+        <v>0.4972914366656153</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1221.361550282916</v>
+        <v>12062.77485181904</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8402894464958955</v>
+        <v>6.337379299739956e-07</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>12061.03790216838</v>
+        <v>4.639359332335438</v>
       </c>
       <c r="C12" t="n">
-        <v>7.988057514536135e-07</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>5.298279531632446</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.7596974280084084</v>
+        <v>0.7831621495757323</v>
       </c>
     </row>
   </sheetData>
@@ -4891,7 +4592,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4923,10 +4624,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2325.182254446923</v>
+        <v>2319.297079341156</v>
       </c>
       <c r="C2" t="n">
-        <v>0.06277060694054039</v>
+        <v>0.05082387370115348</v>
       </c>
     </row>
     <row r="3">
@@ -4936,10 +4637,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.493512770553892</v>
+        <v>2.490084277389826</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9669518769979953</v>
+        <v>0.9666959787676096</v>
       </c>
     </row>
     <row r="4">
@@ -4949,10 +4650,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>151.9328342040267</v>
+        <v>152.0346410956318</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001374694863846281</v>
+        <v>0.001120850489025867</v>
       </c>
     </row>
     <row r="5">
@@ -4962,10 +4663,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03670937577234781</v>
+        <v>-0.03675420651961964</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2588035236445181</v>
+        <v>0.2522755130003325</v>
       </c>
     </row>
     <row r="6">
@@ -4975,10 +4676,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5.475959425495984e-05</v>
+        <v>-5.444051378918085e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3522337168055775</v>
+        <v>0.3235996721077506</v>
       </c>
     </row>
     <row r="7">
@@ -4988,10 +4689,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-3.886006141431881</v>
+        <v>-3.904008592536552</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6059606836765099</v>
+        <v>0.5971999303817409</v>
       </c>
     </row>
     <row r="8">
@@ -5001,10 +4702,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.391169460459992</v>
+        <v>5.403125809256643</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5118995039927696</v>
+        <v>0.5054894518282689</v>
       </c>
     </row>
     <row r="9">
@@ -5014,10 +4715,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-280.796496771075</v>
+        <v>-283.6292260269702</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8055050268141366</v>
+        <v>0.7996335550131725</v>
       </c>
     </row>
     <row r="10">
@@ -5027,49 +4728,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>237.0940269706634</v>
+        <v>237.0882503749176</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7023155461931214</v>
+        <v>0.6997363077092413</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-94.45620623710238</v>
+        <v>7195.719672865937</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9867128687534555</v>
+        <v>0.0004258675722978205</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7193.600038502167</v>
+        <v>-8.602839519343334</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0004938826403169113</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-8.672560876921963</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.6046117622479485</v>
+        <v>0.592436528264531</v>
       </c>
     </row>
   </sheetData>
@@ -5083,7 +4771,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5115,10 +4803,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-195.4978800372096</v>
+        <v>-182.8673169764761</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8774360431274797</v>
+        <v>0.8799402685550148</v>
       </c>
     </row>
     <row r="3">
@@ -5128,10 +4816,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.936807178460697</v>
+        <v>4.798276636693629</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9470816346381994</v>
+        <v>0.9480230777325548</v>
       </c>
     </row>
     <row r="4">
@@ -5141,10 +4829,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>228.5112282513649</v>
+        <v>228.408212030165</v>
       </c>
       <c r="C4" t="n">
-        <v>3.980558792715514e-05</v>
+        <v>3.320588280960849e-05</v>
       </c>
     </row>
     <row r="5">
@@ -5154,10 +4842,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.005884225691369899</v>
+        <v>0.006424986865461141</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9274879527397755</v>
+        <v>0.9180493487691055</v>
       </c>
     </row>
     <row r="6">
@@ -5167,10 +4855,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5.407065408460864e-05</v>
+        <v>-5.512795994958333e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.443542625053602</v>
+        <v>0.3896562145429052</v>
       </c>
     </row>
     <row r="7">
@@ -5180,10 +4868,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.9655977037321701</v>
+        <v>-0.9223458115156671</v>
       </c>
       <c r="C7" t="n">
-        <v>0.919062643437268</v>
+        <v>0.9213789404975239</v>
       </c>
     </row>
     <row r="8">
@@ -5193,10 +4881,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14.17490447813898</v>
+        <v>14.13604802443719</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05733400867346444</v>
+        <v>0.05334287908448449</v>
       </c>
     </row>
     <row r="9">
@@ -5206,10 +4894,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1043.959819901958</v>
+        <v>1055.656768345895</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4287819565850242</v>
+        <v>0.4058852280180815</v>
       </c>
     </row>
     <row r="10">
@@ -5219,49 +4907,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>430.8731256817794</v>
+        <v>428.0256352146814</v>
       </c>
       <c r="C10" t="n">
-        <v>0.566509128908748</v>
+        <v>0.5634822744335586</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>264.2159262747246</v>
+        <v>7367.722627702267</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9701326498758676</v>
+        <v>0.002115142549666688</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7365.567933836172</v>
+        <v>6.078580897622821</v>
       </c>
       <c r="C12" t="n">
-        <v>0.002337632341759186</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>6.217797888124167</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.7220758471168265</v>
+        <v>0.7194603534105674</v>
       </c>
     </row>
   </sheetData>
@@ -5275,7 +4950,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5307,10 +4982,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>815.4734075861729</v>
+        <v>811.3040858998438</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5165587569918273</v>
+        <v>0.5048322078949958</v>
       </c>
     </row>
     <row r="3">
@@ -5320,10 +4995,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>88.67155733924626</v>
+        <v>88.68462829802392</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1657422211987898</v>
+        <v>0.1617442680311119</v>
       </c>
     </row>
     <row r="4">
@@ -5333,10 +5008,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>204.9446627928921</v>
+        <v>205.0366872006829</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0001041542567530765</v>
+        <v>8.02499279946132e-05</v>
       </c>
     </row>
     <row r="5">
@@ -5346,10 +5021,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02561644711865924</v>
+        <v>-0.02568710266139866</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4762250043125997</v>
+        <v>0.4672938733492984</v>
       </c>
     </row>
     <row r="6">
@@ -5359,10 +5034,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0001172119328745729</v>
+        <v>-0.0001168764697813585</v>
       </c>
       <c r="C6" t="n">
-        <v>0.09812713258632023</v>
+        <v>0.08031112825027573</v>
       </c>
     </row>
     <row r="7">
@@ -5372,10 +5047,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.309813635350853</v>
+        <v>8.283168487283548</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3154218295862044</v>
+        <v>0.301746097000871</v>
       </c>
     </row>
     <row r="8">
@@ -5385,10 +5060,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.46408335491496</v>
+        <v>9.471080468580391</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1933343995860071</v>
+        <v>0.1880454541856174</v>
       </c>
     </row>
     <row r="9">
@@ -5398,10 +5073,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1404.711364583767</v>
+        <v>1400.439931308087</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3194091481418672</v>
+        <v>0.3069140070599408</v>
       </c>
     </row>
     <row r="10">
@@ -5411,49 +5086,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-17.91321186603818</v>
+        <v>-16.59209037864593</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9785444946605688</v>
+        <v>0.9797743879055745</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-113.5170683028446</v>
+        <v>8271.434196048316</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9876741537481799</v>
+        <v>0.0004254805674319484</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8270.54238765642</v>
+        <v>-14.74287251507305</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0004831764135775285</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-14.7920439374946</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.3862904186839764</v>
+        <v>0.3750327508156635</v>
       </c>
     </row>
   </sheetData>
@@ -5467,7 +5129,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5499,10 +5161,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2763.235996046754</v>
+        <v>2642.486064364197</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04420988143736249</v>
+        <v>0.04319900092429362</v>
       </c>
     </row>
     <row r="3">
@@ -5512,10 +5174,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>69.8359489881928</v>
+        <v>70.54687293650727</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2905135181342358</v>
+        <v>0.2814041513853175</v>
       </c>
     </row>
     <row r="4">
@@ -5525,10 +5187,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>152.9234534131745</v>
+        <v>154.5564117290996</v>
       </c>
       <c r="C4" t="n">
-        <v>0.004907196491781263</v>
+        <v>0.004006955204178361</v>
       </c>
     </row>
     <row r="5">
@@ -5538,10 +5200,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03901085718255889</v>
+        <v>-0.04044219805914515</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2616609945544863</v>
+        <v>0.2369136084040431</v>
       </c>
     </row>
     <row r="6">
@@ -5551,10 +5213,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6.277993179349749e-05</v>
+        <v>-5.559537757070788e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.32692101257055</v>
+        <v>0.3492634393652944</v>
       </c>
     </row>
     <row r="7">
@@ -5564,10 +5226,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-7.280674740425969</v>
+        <v>-7.788288842575845</v>
       </c>
       <c r="C7" t="n">
-        <v>0.330165292662574</v>
+        <v>0.2827178433707982</v>
       </c>
     </row>
     <row r="8">
@@ -5577,10 +5239,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-4.093983197281716</v>
+        <v>-3.799537242375237</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6057287570386798</v>
+        <v>0.626659006520766</v>
       </c>
     </row>
     <row r="9">
@@ -5590,10 +5252,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>526.7351476947433</v>
+        <v>465.1456361894066</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6514239364427883</v>
+        <v>0.6832774598653779</v>
       </c>
     </row>
     <row r="10">
@@ -5603,49 +5265,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>440.1051960132418</v>
+        <v>469.9535174306623</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5009725792207778</v>
+        <v>0.4642337205302929</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1910.510240035526</v>
+        <v>9358.003509073975</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7495782708544947</v>
+        <v>2.884916711441384e-05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9288.645261262598</v>
+        <v>-9.905099556817973</v>
       </c>
       <c r="C12" t="n">
-        <v>4.100917553972713e-05</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-11.12833861240064</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.4990665176463753</v>
+        <v>0.5325693216234357</v>
       </c>
     </row>
   </sheetData>
@@ -5659,7 +5308,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5691,10 +5340,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-91.38860154347924</v>
+        <v>-91.56984736030108</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9417814592207512</v>
+        <v>0.9398936289504956</v>
       </c>
     </row>
     <row r="3">
@@ -5704,10 +5353,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.32001992642333</v>
+        <v>16.31843776218918</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8116696868215985</v>
+        <v>0.8099035824836798</v>
       </c>
     </row>
     <row r="4">
@@ -5717,10 +5366,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>172.9682232305486</v>
+        <v>172.9723766872188</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0007495168145859088</v>
+        <v>0.0006177886458880687</v>
       </c>
     </row>
     <row r="5">
@@ -5730,10 +5379,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02988774423323028</v>
+        <v>-0.0298897709796586</v>
       </c>
       <c r="C5" t="n">
-        <v>0.418213260695722</v>
+        <v>0.4125666764229862</v>
       </c>
     </row>
     <row r="6">
@@ -5743,10 +5392,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.032153356994707e-05</v>
+        <v>-3.03073537154197e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6594321289025226</v>
+        <v>0.6425288252961463</v>
       </c>
     </row>
     <row r="7">
@@ -5756,10 +5405,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.4734070369773438</v>
+        <v>-0.4746729344541607</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9548556251394427</v>
+        <v>0.9532664876268502</v>
       </c>
     </row>
     <row r="8">
@@ -5769,10 +5418,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.20876688386468</v>
+        <v>22.20899307421369</v>
       </c>
       <c r="C8" t="n">
-        <v>0.00301371892705372</v>
+        <v>0.002734358851763408</v>
       </c>
     </row>
     <row r="9">
@@ -5782,10 +5431,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-216.0275553765387</v>
+        <v>-216.1572839598994</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8616310159589938</v>
+        <v>0.8587955491780374</v>
       </c>
     </row>
     <row r="10">
@@ -5795,49 +5444,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>276.0115961080714</v>
+        <v>276.0406033493996</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6839826721421792</v>
+        <v>0.6806839900291837</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-4.407808263789775</v>
+        <v>9783.571714518544</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9994288274346017</v>
+        <v>3.51674585305614e-05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9783.488585548475</v>
+        <v>-7.016347268217061</v>
       </c>
       <c r="C12" t="n">
-        <v>4.225531978632662e-05</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-7.018785561724656</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.6920346424144094</v>
+        <v>0.6838855797962955</v>
       </c>
     </row>
   </sheetData>
@@ -5851,7 +5487,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5883,10 +5519,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-798.1656892926303</v>
+        <v>-453.7911176223324</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5460268663498957</v>
+        <v>0.715705474030282</v>
       </c>
     </row>
     <row r="3">
@@ -5896,10 +5532,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>48.50727540711075</v>
+        <v>45.23198754763585</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4704829450926064</v>
+        <v>0.4987000192183567</v>
       </c>
     </row>
     <row r="4">
@@ -5909,10 +5545,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>197.3347602872361</v>
+        <v>195.0262659227371</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0004246704492019971</v>
+        <v>0.0004565759269614741</v>
       </c>
     </row>
     <row r="5">
@@ -5922,10 +5558,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03414747670344935</v>
+        <v>-0.02912126295630216</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3666456415934926</v>
+        <v>0.4331473834587054</v>
       </c>
     </row>
     <row r="6">
@@ -5935,10 +5571,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.704895983031115e-07</v>
+        <v>-2.584532351456665e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9970991864226839</v>
+        <v>0.6990244747091257</v>
       </c>
     </row>
     <row r="7">
@@ -5948,10 +5584,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6671503398836673</v>
+        <v>2.632819499070395</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9344517271549778</v>
+        <v>0.733002465533092</v>
       </c>
     </row>
     <row r="8">
@@ -5961,10 +5597,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.36901030166997</v>
+        <v>14.51481971505522</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03076611932825525</v>
+        <v>0.03801759547564237</v>
       </c>
     </row>
     <row r="9">
@@ -5974,10 +5610,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-396.5118365528988</v>
+        <v>-138.6801767790894</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7745870167238745</v>
+        <v>0.9177310803426801</v>
       </c>
     </row>
     <row r="10">
@@ -5987,49 +5623,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>318.0098343099271</v>
+        <v>249.8030635845171</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6492940571836696</v>
+        <v>0.7180193406891454</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5449.752076932935</v>
+        <v>10569.74800356143</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4204915850958622</v>
+        <v>8.189503798946421e-06</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10773.72925412995</v>
+        <v>5.686660336395093</v>
       </c>
       <c r="C12" t="n">
-        <v>7.179793204479527e-06</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>9.856934536397731</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.5914606749359643</v>
+        <v>0.7459575426155864</v>
       </c>
     </row>
   </sheetData>
@@ -6043,7 +5666,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6075,10 +5698,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>568.8411251622938</v>
+        <v>438.1697249553736</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6593805967125188</v>
+        <v>0.7216335354241766</v>
       </c>
     </row>
     <row r="3">
@@ -6088,10 +5711,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-27.83832706003778</v>
+        <v>-26.37276464806979</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6701071142643344</v>
+        <v>0.6835526609997784</v>
       </c>
     </row>
     <row r="4">
@@ -6101,10 +5724,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>210.23236154564</v>
+        <v>211.7305649209167</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0002259232664607396</v>
+        <v>0.0001758505775355304</v>
       </c>
     </row>
     <row r="5">
@@ -6114,10 +5737,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.04186925018032764</v>
+        <v>0.03711297792278723</v>
       </c>
       <c r="C5" t="n">
-        <v>0.469069138471197</v>
+        <v>0.5065352463456675</v>
       </c>
     </row>
     <row r="6">
@@ -6127,10 +5750,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.000134105290500885</v>
+        <v>-0.0001245919211055573</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0659462638093582</v>
+        <v>0.06466128476603254</v>
       </c>
     </row>
     <row r="7">
@@ -6140,10 +5763,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2.321489570099139</v>
+        <v>-2.597820260158453</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7838576021031567</v>
+        <v>0.7560871835225951</v>
       </c>
     </row>
     <row r="8">
@@ -6153,10 +5776,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.35298622512084</v>
+        <v>22.57334099049359</v>
       </c>
       <c r="C8" t="n">
-        <v>0.005934706584232347</v>
+        <v>0.005001873770194267</v>
       </c>
     </row>
     <row r="9">
@@ -6166,10 +5789,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>629.9939934686658</v>
+        <v>530.6646061772499</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6244801470168521</v>
+        <v>0.6705856474787244</v>
       </c>
     </row>
     <row r="10">
@@ -6179,49 +5802,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>83.64246763683514</v>
+        <v>100.6602494062572</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8979051928079296</v>
+        <v>0.8759962820185756</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2230.084542239583</v>
+        <v>7279.014834614557</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7144211175105859</v>
+        <v>0.003027085379002032</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7288.800195284305</v>
+        <v>-9.18371206800181</v>
       </c>
       <c r="C12" t="n">
-        <v>0.003234478988339354</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-10.90050957785273</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.5748380564763278</v>
+        <v>0.6233413488043439</v>
       </c>
     </row>
   </sheetData>
@@ -6235,7 +5845,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6267,10 +5877,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>660.2012883548527</v>
+        <v>730.3403134509488</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6011889761024718</v>
+        <v>0.548907949810776</v>
       </c>
     </row>
     <row r="3">
@@ -6280,10 +5890,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>32.19371145093262</v>
+        <v>32.01394921502738</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6129786104410588</v>
+        <v>0.6118387870039586</v>
       </c>
     </row>
     <row r="4">
@@ -6293,10 +5903,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>220.9928191484676</v>
+        <v>219.6152574928808</v>
       </c>
       <c r="C4" t="n">
-        <v>1.898381777198433e-05</v>
+        <v>1.570402340560292e-05</v>
       </c>
     </row>
     <row r="5">
@@ -6306,10 +5916,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.04698775040413216</v>
+        <v>-0.04513139093680024</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2293505067585242</v>
+        <v>0.2345068236713335</v>
       </c>
     </row>
     <row r="6">
@@ -6319,10 +5929,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.878399279089062e-05</v>
+        <v>-3.623650767292372e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7231034648102064</v>
+        <v>0.626408025846215</v>
       </c>
     </row>
     <row r="7">
@@ -6332,10 +5942,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.350700728669306</v>
+        <v>4.83773564793017</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6045023101793012</v>
+        <v>0.5494857596566822</v>
       </c>
     </row>
     <row r="8">
@@ -6345,10 +5955,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.30506759410229</v>
+        <v>8.170074375447932</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2300403872741412</v>
+        <v>0.2319640329784294</v>
       </c>
     </row>
     <row r="9">
@@ -6358,10 +5968,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-109.1986252324173</v>
+        <v>-20.2376658277276</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9359468805347139</v>
+        <v>0.9875391313716415</v>
       </c>
     </row>
     <row r="10">
@@ -6371,49 +5981,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>334.7931955094341</v>
+        <v>311.9173112915134</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6051888693220613</v>
+        <v>0.6232225876051531</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1459.951659335302</v>
+        <v>10412.88505384536</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8104937206201995</v>
+        <v>3.687371999853562e-06</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10484.34636941829</v>
+        <v>-14.53586442297183</v>
       </c>
       <c r="C12" t="n">
-        <v>4.784787318447501e-06</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-13.85249875163685</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.3880562057723221</v>
+        <v>0.3533671227628188</v>
       </c>
     </row>
   </sheetData>
@@ -6427,7 +6024,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6459,10 +6056,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-145.9836784877148</v>
+        <v>-216.7537048146307</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9104455622594471</v>
+        <v>0.8617523627731289</v>
       </c>
     </row>
     <row r="3">
@@ -6472,10 +6069,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>74.56613690473853</v>
+        <v>74.21157894733841</v>
       </c>
       <c r="C3" t="n">
-        <v>0.342648777200299</v>
+        <v>0.3405623971790253</v>
       </c>
     </row>
     <row r="4">
@@ -6485,10 +6082,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>163.8170108256897</v>
+        <v>165.1419257907294</v>
       </c>
       <c r="C4" t="n">
-        <v>0.00579448926423254</v>
+        <v>0.004804034857794898</v>
       </c>
     </row>
     <row r="5">
@@ -6498,10 +6095,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03282454997140449</v>
+        <v>-0.03364748467116807</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3990018100775246</v>
+        <v>0.3808657518095288</v>
       </c>
     </row>
     <row r="6">
@@ -6511,10 +6108,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.182476606201473e-05</v>
+        <v>-1.609801067537148e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7676530512714927</v>
+        <v>0.8136659944762523</v>
       </c>
     </row>
     <row r="7">
@@ -6524,10 +6121,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-5.219984426327056</v>
+        <v>-5.727482217741423</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5716925383390312</v>
+        <v>0.5174414948536269</v>
       </c>
     </row>
     <row r="8">
@@ -6537,10 +6134,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13.39206837105718</v>
+        <v>13.55657422275796</v>
       </c>
       <c r="C8" t="n">
-        <v>0.07527682476499001</v>
+        <v>0.0679447120777872</v>
       </c>
     </row>
     <row r="9">
@@ -6550,10 +6147,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1800.547588953796</v>
+        <v>1725.529232871226</v>
       </c>
       <c r="C9" t="n">
-        <v>0.22199124298399</v>
+        <v>0.2240327136993878</v>
       </c>
     </row>
     <row r="10">
@@ -6563,49 +6160,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>587.3835310298605</v>
+        <v>618.9614295035053</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4704905873530123</v>
+        <v>0.4355283574854868</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1593.935836397457</v>
+        <v>10637.55548390318</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8295118100207606</v>
+        <v>8.409769295498565e-05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10605.03187223394</v>
+        <v>6.302763734314013</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0001039055958354031</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>5.562616570764128</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.7482105355036355</v>
+        <v>0.7081678726963291</v>
       </c>
     </row>
   </sheetData>
@@ -6619,7 +6203,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6651,10 +6235,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-274.8622971003003</v>
+        <v>-156.3506492842578</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8196849065700051</v>
+        <v>0.8935527419230543</v>
       </c>
     </row>
     <row r="3">
@@ -6664,10 +6248,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>150.7994111328696</v>
+        <v>150.2679646182719</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02386015651064935</v>
+        <v>0.02329241646931049</v>
       </c>
     </row>
     <row r="4">
@@ -6677,10 +6261,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>127.7951578000517</v>
+        <v>126.0501206384319</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01182026499757304</v>
+        <v>0.01205740872911615</v>
       </c>
     </row>
     <row r="5">
@@ -6690,10 +6274,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.04339193337957101</v>
+        <v>-0.04125389327815013</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2102661075047225</v>
+        <v>0.2255570300875844</v>
       </c>
     </row>
     <row r="6">
@@ -6703,10 +6287,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.756711973835022e-05</v>
+        <v>-2.821137901571621e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7763291565220121</v>
+        <v>0.6195796879096495</v>
       </c>
     </row>
     <row r="7">
@@ -6716,10 +6300,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.7729113236906038</v>
+        <v>0.2094372638352056</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9171275741069592</v>
+        <v>0.9763119035116989</v>
       </c>
     </row>
     <row r="8">
@@ -6729,10 +6313,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>16.5715973049568</v>
+        <v>16.40269044978184</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0160884410383712</v>
+        <v>0.01618954973598974</v>
       </c>
     </row>
     <row r="9">
@@ -6742,10 +6326,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-206.4218203084931</v>
+        <v>-108.5525011506247</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8617035595734304</v>
+        <v>0.9252242643079587</v>
       </c>
     </row>
     <row r="10">
@@ -6755,49 +6339,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>871.0938569871155</v>
+        <v>839.9364390384621</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1948752943959155</v>
+        <v>0.2053954239118594</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2873.192785420553</v>
+        <v>9438.118829913208</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6506946605346984</v>
+        <v>1.090136284196955e-05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9503.161813349134</v>
+        <v>-3.764976826076378</v>
       </c>
       <c r="C12" t="n">
-        <v>1.18001423820138e-05</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-2.070780711520847</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.898925692587528</v>
+        <v>0.8111575159217896</v>
       </c>
     </row>
   </sheetData>
@@ -6811,7 +6382,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6843,10 +6414,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-12.76381012072397</v>
+        <v>63.36339712185691</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9922894757195666</v>
+        <v>0.9605956475702712</v>
       </c>
     </row>
     <row r="3">
@@ -6856,10 +6427,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>78.09681377638572</v>
+        <v>77.0954419960689</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2959514593112599</v>
+        <v>0.2975466519287573</v>
       </c>
     </row>
     <row r="4">
@@ -6869,10 +6440,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>168.8093093555829</v>
+        <v>167.9671271912232</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001773955145148745</v>
+        <v>0.001675444131216257</v>
       </c>
     </row>
     <row r="5">
@@ -6882,10 +6453,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01198564626488764</v>
+        <v>0.01497558358867154</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8375396779884436</v>
+        <v>0.7928489910955214</v>
       </c>
     </row>
     <row r="6">
@@ -6895,10 +6466,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5.205919704105921e-05</v>
+        <v>-5.948971706490352e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5116516510988134</v>
+        <v>0.4233631264460974</v>
       </c>
     </row>
     <row r="7">
@@ -6908,10 +6479,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-4.284366382357119</v>
+        <v>-3.749920958229264</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6732370773244272</v>
+        <v>0.7048062662285005</v>
       </c>
     </row>
     <row r="8">
@@ -6921,10 +6492,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13.81675583481944</v>
+        <v>13.6814483174067</v>
       </c>
       <c r="C8" t="n">
-        <v>0.06514573623770645</v>
+        <v>0.06491445920385636</v>
       </c>
     </row>
     <row r="9">
@@ -6934,10 +6505,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>568.2003986607019</v>
+        <v>631.4645163461507</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6625828430832126</v>
+        <v>0.6197350009280697</v>
       </c>
     </row>
     <row r="10">
@@ -6947,49 +6518,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>502.9730072540704</v>
+        <v>475.0335995977921</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4691221730992523</v>
+        <v>0.4860249859142448</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1960.432608008319</v>
+        <v>10322.48885881398</v>
       </c>
       <c r="C11" t="n">
-        <v>0.776673949179931</v>
+        <v>1.461421720085773e-05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10336.98771652422</v>
+        <v>0.0375658315862637</v>
       </c>
       <c r="C12" t="n">
-        <v>1.692328990894786e-05</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>1.040035110551345</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.9535455536131749</v>
+        <v>0.9982728675481223</v>
       </c>
     </row>
   </sheetData>
@@ -7003,7 +6561,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7035,10 +6593,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>964.2504172696681</v>
+        <v>1009.571530657206</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4802677546144126</v>
+        <v>0.4368307921245522</v>
       </c>
     </row>
     <row r="3">
@@ -7048,10 +6606,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>36.75944526061249</v>
+        <v>36.95972301200152</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5734392477089194</v>
+        <v>0.5677645318188114</v>
       </c>
     </row>
     <row r="4">
@@ -7061,10 +6619,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>198.7575216343913</v>
+        <v>198.0952721403781</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0001691248486313239</v>
+        <v>0.000141202680381125</v>
       </c>
     </row>
     <row r="5">
@@ -7074,10 +6632,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02136864126221089</v>
+        <v>-0.02100827173192979</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5414038750752669</v>
+        <v>0.5430525526754824</v>
       </c>
     </row>
     <row r="6">
@@ -7087,10 +6645,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5.656525592091021e-05</v>
+        <v>-5.886811080236344e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3711084487980421</v>
+        <v>0.3230912148563796</v>
       </c>
     </row>
     <row r="7">
@@ -7100,10 +6658,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2018001364696422</v>
+        <v>0.4036247283953074</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9800403908622487</v>
+        <v>0.9587758945303478</v>
       </c>
     </row>
     <row r="8">
@@ -7113,10 +6671,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.859729054887364</v>
+        <v>4.732230185315959</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5326218108788975</v>
+        <v>0.5357312351001362</v>
       </c>
     </row>
     <row r="9">
@@ -7126,10 +6684,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>611.7265509387485</v>
+        <v>624.0519395278582</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6362257006930946</v>
+        <v>0.625219800591295</v>
       </c>
     </row>
     <row r="10">
@@ -7139,49 +6697,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11.92604972118852</v>
+        <v>8.394688556506026</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9852689584307399</v>
+        <v>0.9895257282608556</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>872.374630039827</v>
+        <v>8548.709263964178</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9070249329727604</v>
+        <v>0.0001577959238770098</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8546.50823705483</v>
+        <v>2.09179461524532</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0001813175625619806</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>2.690952637784463</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.8749979627647936</v>
+        <v>0.8970829904834559</v>
       </c>
     </row>
   </sheetData>
@@ -7195,7 +6740,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7227,10 +6772,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-162.4249982480987</v>
+        <v>44.05865288117002</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8879127881763231</v>
+        <v>0.9673539765544477</v>
       </c>
     </row>
     <row r="3">
@@ -7240,10 +6785,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>28.80034205966214</v>
+        <v>25.56691186861083</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6752712060217314</v>
+        <v>0.7069580380999686</v>
       </c>
     </row>
     <row r="4">
@@ -7253,10 +6798,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.5929717203174</v>
+        <v>152.0257378499713</v>
       </c>
       <c r="C4" t="n">
-        <v>0.002763477276288413</v>
+        <v>0.002787906076289561</v>
       </c>
     </row>
     <row r="5">
@@ -7266,10 +6811,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.04646310744128508</v>
+        <v>-0.04506115464609126</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1600363425506935</v>
+        <v>0.1685315544859265</v>
       </c>
     </row>
     <row r="6">
@@ -7279,10 +6824,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5.669772245543679e-05</v>
+        <v>-6.969205408186821e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3527788544691328</v>
+        <v>0.2098851772657596</v>
       </c>
     </row>
     <row r="7">
@@ -7292,10 +6837,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.26247689226836</v>
+        <v>3.33340348357634</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7517484790797249</v>
+        <v>0.6248109183046799</v>
       </c>
     </row>
     <row r="8">
@@ -7305,10 +6850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>31.16938102934542</v>
+        <v>30.76213133107432</v>
       </c>
       <c r="C8" t="n">
-        <v>7.63096397239731e-05</v>
+        <v>7.573382192418675e-05</v>
       </c>
     </row>
     <row r="9">
@@ -7318,10 +6863,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-818.4485746221048</v>
+        <v>-744.365377395995</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4609210409483259</v>
+        <v>0.495960386952394</v>
       </c>
     </row>
     <row r="10">
@@ -7331,49 +6876,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>561.4764411195601</v>
+        <v>520.8676651755834</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4191242266681926</v>
+        <v>0.4475338669700438</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3147.698582433866</v>
+        <v>7209.49903002319</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5984634351815163</v>
+        <v>0.001750355215430338</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7311.397310576679</v>
+        <v>-18.10424214646643</v>
       </c>
       <c r="C12" t="n">
-        <v>0.001704563384850817</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-15.70596395659985</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.3490846307499771</v>
+        <v>0.2596268889816142</v>
       </c>
     </row>
   </sheetData>
@@ -7387,7 +6919,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7419,10 +6951,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-189.9648793913234</v>
+        <v>-154.4737162965607</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8808939575386182</v>
+        <v>0.8969447191273905</v>
       </c>
     </row>
     <row r="3">
@@ -7432,10 +6964,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>32.84668678864074</v>
+        <v>33.08032950106974</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6046753604329265</v>
+        <v>0.5984561653065611</v>
       </c>
     </row>
     <row r="4">
@@ -7445,10 +6977,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>221.1510070545493</v>
+        <v>220.4063874449034</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0001102718231665521</v>
+        <v>8.371007912360283e-05</v>
       </c>
     </row>
     <row r="5">
@@ -7458,10 +6990,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01625908077121707</v>
+        <v>-0.01621650226081288</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6544198207185999</v>
+        <v>0.6522642221157624</v>
       </c>
     </row>
     <row r="6">
@@ -7471,10 +7003,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5.507707504290025e-05</v>
+        <v>-5.663522371825226e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3995228982440108</v>
+        <v>0.3643327187398691</v>
       </c>
     </row>
     <row r="7">
@@ -7484,10 +7016,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.058839500848553</v>
+        <v>3.141234430308668</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7124483499264408</v>
+        <v>0.7007060451647836</v>
       </c>
     </row>
     <row r="8">
@@ -7497,10 +7029,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13.22746550005207</v>
+        <v>13.12584541521427</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05667214234799516</v>
+        <v>0.05293765271400718</v>
       </c>
     </row>
     <row r="9">
@@ -7510,10 +7042,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1366.675377157796</v>
+        <v>1388.810580936933</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2780462821738972</v>
+        <v>0.2565851805069929</v>
       </c>
     </row>
     <row r="10">
@@ -7523,49 +7055,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>63.43008182909534</v>
+        <v>63.14852654968399</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9272622202519744</v>
+        <v>0.9269171224213236</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>615.946252529995</v>
+        <v>8362.735711016085</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9289623879702399</v>
+        <v>0.0001183915235310843</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8381.337177006999</v>
+        <v>1.659936621085301</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0001421734322803863</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>1.97583861800414</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.899495801100336</v>
+        <v>0.9124537140360156</v>
       </c>
     </row>
   </sheetData>
@@ -7579,7 +7098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7611,10 +7130,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>942.0301547810227</v>
+        <v>1019.619741585279</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4896749267528908</v>
+        <v>0.4380946971396739</v>
       </c>
     </row>
     <row r="3">
@@ -7624,10 +7143,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>60.15970487725502</v>
+        <v>60.18460092630744</v>
       </c>
       <c r="C3" t="n">
-        <v>0.368874119796394</v>
+        <v>0.3645034333072958</v>
       </c>
     </row>
     <row r="4">
@@ -7637,10 +7156,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>201.7928045004968</v>
+        <v>200.5557426467958</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0002243076743030898</v>
+        <v>0.0002004578274321983</v>
       </c>
     </row>
     <row r="5">
@@ -7650,10 +7169,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0433832851106926</v>
+        <v>-0.04204796505121054</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2666461035106151</v>
+        <v>0.2725120040957818</v>
       </c>
     </row>
     <row r="6">
@@ -7663,10 +7182,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.116180735712208e-05</v>
+        <v>-2.692102934104517e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7831816866704293</v>
+        <v>0.7106292663432092</v>
       </c>
     </row>
     <row r="7">
@@ -7676,10 +7195,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.235779277558255</v>
+        <v>2.640414632572524</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7812561191295929</v>
+        <v>0.7353412191078819</v>
       </c>
     </row>
     <row r="8">
@@ -7689,10 +7208,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.056948103369139</v>
+        <v>4.938298793353825</v>
       </c>
       <c r="C8" t="n">
-        <v>0.481752112738173</v>
+        <v>0.4872681727987482</v>
       </c>
     </row>
     <row r="9">
@@ -7702,10 +7221,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-193.4653663762119</v>
+        <v>-128.9054863698384</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8831190994039503</v>
+        <v>0.9196406849012959</v>
       </c>
     </row>
     <row r="10">
@@ -7715,49 +7234,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>41.69191458813816</v>
+        <v>27.33192333363877</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9494500289864706</v>
+        <v>0.9664232168858176</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1502.949056777881</v>
+        <v>10334.3172991175</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8076104463782224</v>
+        <v>2.201256853509177e-05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10375.8165746419</v>
+        <v>-5.860610492993658</v>
       </c>
       <c r="C12" t="n">
-        <v>2.548032273147309e-05</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-4.828846278294172</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.79456973714381</v>
+        <v>0.7433783238449294</v>
       </c>
     </row>
   </sheetData>
@@ -7771,7 +7277,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7803,10 +7309,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>76.31667049200769</v>
+        <v>-15.37665366366082</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9561362062225431</v>
+        <v>0.9909093645401834</v>
       </c>
     </row>
     <row r="3">
@@ -7816,10 +7322,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>53.83694108040751</v>
+        <v>52.54850642231946</v>
       </c>
       <c r="C3" t="n">
-        <v>0.450598656927317</v>
+        <v>0.4571906741588678</v>
       </c>
     </row>
     <row r="4">
@@ -7829,10 +7335,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>170.2026204656069</v>
+        <v>173.3340432499649</v>
       </c>
       <c r="C4" t="n">
-        <v>0.002355283012897568</v>
+        <v>0.001567204975381637</v>
       </c>
     </row>
     <row r="5">
@@ -7842,10 +7348,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.04108819234638755</v>
+        <v>0.03737738954972036</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4813407714863743</v>
+        <v>0.5106405503271794</v>
       </c>
     </row>
     <row r="6">
@@ -7855,10 +7361,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-7.36654413923202e-05</v>
+        <v>-6.369527553806251e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.318363045995072</v>
+        <v>0.3417003498333755</v>
       </c>
     </row>
     <row r="7">
@@ -7868,10 +7374,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-6.668342383092632</v>
+        <v>-7.228090167535356</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4904932896984548</v>
+        <v>0.4445454660304089</v>
       </c>
     </row>
     <row r="8">
@@ -7881,10 +7387,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12.9990920808268</v>
+        <v>13.09434914912764</v>
       </c>
       <c r="C8" t="n">
-        <v>0.09315358914958161</v>
+        <v>0.08803882222074415</v>
       </c>
     </row>
     <row r="9">
@@ -7894,10 +7400,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>895.1130347741215</v>
+        <v>767.7997862607743</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6134486088127022</v>
+        <v>0.654688908896915</v>
       </c>
     </row>
     <row r="10">
@@ -7907,49 +7413,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>143.2811473703307</v>
+        <v>177.2278998082397</v>
       </c>
       <c r="C10" t="n">
-        <v>0.837711448461718</v>
+        <v>0.79635610221654</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2391.958323472776</v>
+        <v>11623.19007347223</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7365138053265505</v>
+        <v>2.512790837143154e-05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>11623.99104956391</v>
+        <v>4.737027567582572</v>
       </c>
       <c r="C12" t="n">
-        <v>2.921695062734233e-05</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>3.606661774519893</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.8453741705113156</v>
+        <v>0.7928994015683608</v>
       </c>
     </row>
   </sheetData>
@@ -7963,7 +7456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7995,10 +7488,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1246.953293451736</v>
+        <v>1192.519903507237</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3299441233567812</v>
+        <v>0.3399591457162936</v>
       </c>
     </row>
     <row r="3">
@@ -8008,10 +7501,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>66.86781571380246</v>
+        <v>68.03149446197972</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3079260018070844</v>
+        <v>0.2942957969053355</v>
       </c>
     </row>
     <row r="4">
@@ -8021,10 +7514,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>180.1942442571223</v>
+        <v>179.7693796511772</v>
       </c>
       <c r="C4" t="n">
-        <v>0.000347161420379492</v>
+        <v>0.0003149605313192842</v>
       </c>
     </row>
     <row r="5">
@@ -8034,10 +7527,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0275906718787637</v>
+        <v>-0.02935699794391031</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4572968914968287</v>
+        <v>0.4164674987028477</v>
       </c>
     </row>
     <row r="6">
@@ -8047,10 +7540,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-7.141966710068202e-05</v>
+        <v>-6.547854659958569e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3175390585013661</v>
+        <v>0.3260399924268662</v>
       </c>
     </row>
     <row r="7">
@@ -8060,10 +7553,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1.838285475207982</v>
+        <v>-2.505480913261687</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8231855389483502</v>
+        <v>0.7451415345908257</v>
       </c>
     </row>
     <row r="8">
@@ -8073,10 +7566,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.545403630700029</v>
+        <v>1.689981784281041</v>
       </c>
       <c r="C8" t="n">
-        <v>0.839203177648901</v>
+        <v>0.822406999664699</v>
       </c>
     </row>
     <row r="9">
@@ -8086,10 +7579,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>918.5551712512092</v>
+        <v>855.1354814528713</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4533510927132406</v>
+        <v>0.471371700414818</v>
       </c>
     </row>
     <row r="10">
@@ -8099,49 +7592,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>441.8339635397703</v>
+        <v>465.8140815897272</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5211952841128336</v>
+        <v>0.4909331004674279</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1739.310118167272</v>
+        <v>9340.393628692587</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8046539402324907</v>
+        <v>1.376943253628856e-05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9332.932269770718</v>
+        <v>0.769377827447423</v>
       </c>
       <c r="C12" t="n">
-        <v>1.655702102639194e-05</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-0.2168311125622271</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.9896009640515245</v>
+        <v>0.9616825647134489</v>
       </c>
     </row>
   </sheetData>
@@ -8155,7 +7635,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8187,10 +7667,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2541.964050953643</v>
+        <v>2415.207290331186</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04789976371886809</v>
+        <v>0.04897878372861291</v>
       </c>
     </row>
     <row r="3">
@@ -8200,10 +7680,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>88.87698003359949</v>
+        <v>88.83203031448609</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1505025704987115</v>
+        <v>0.1474555297521438</v>
       </c>
     </row>
     <row r="4">
@@ -8213,10 +7693,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>143.7031672814163</v>
+        <v>145.4969551073766</v>
       </c>
       <c r="C4" t="n">
-        <v>0.003291236338525717</v>
+        <v>0.002597501333838879</v>
       </c>
     </row>
     <row r="5">
@@ -8226,10 +7706,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.05758158641725704</v>
+        <v>-0.05881454963029961</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1044890657996749</v>
+        <v>0.09334488422489373</v>
       </c>
     </row>
     <row r="6">
@@ -8239,10 +7719,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6.769703228192423e-06</v>
+        <v>5.000022349549904e-07</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9209857795205337</v>
+        <v>0.9938500704406414</v>
       </c>
     </row>
     <row r="7">
@@ -8252,10 +7732,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-7.23581068475199</v>
+        <v>-7.7977869148068</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3690474338002556</v>
+        <v>0.3208174264245803</v>
       </c>
     </row>
     <row r="8">
@@ -8265,10 +7745,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2.196510634136775</v>
+        <v>-1.842541795639356</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7739812481425037</v>
+        <v>0.8066503840068557</v>
       </c>
     </row>
     <row r="9">
@@ -8278,10 +7758,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>979.2328970976791</v>
+        <v>892.5263430969935</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4310360351012762</v>
+        <v>0.4612042482248574</v>
       </c>
     </row>
     <row r="10">
@@ -8291,49 +7771,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>476.465825167415</v>
+        <v>494.6008639668235</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4631501241603795</v>
+        <v>0.4414701880930381</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2155.721862983535</v>
+        <v>7503.317305161043</v>
       </c>
       <c r="C11" t="n">
-        <v>0.710051434085311</v>
+        <v>0.000336884990219576</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7495.012605405602</v>
+        <v>-4.796896593387149</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0003815910629671792</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-6.483494593681476</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.6919959045992113</v>
+        <v>0.758400496107912</v>
       </c>
     </row>
   </sheetData>
@@ -8347,7 +7814,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8379,10 +7846,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-543.2234391432355</v>
+        <v>-401.413573652668</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6849788814313477</v>
+        <v>0.7544068991705045</v>
       </c>
     </row>
     <row r="3">
@@ -8392,10 +7859,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>73.07930271538359</v>
+        <v>71.82451168817992</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2884645582152545</v>
+        <v>0.2925373418807912</v>
       </c>
     </row>
     <row r="4">
@@ -8405,10 +7872,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>203.8408808772228</v>
+        <v>200.6776274638524</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0003030345503658769</v>
+        <v>0.0002885994979851097</v>
       </c>
     </row>
     <row r="5">
@@ -8418,10 +7885,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02281210490770626</v>
+        <v>-0.0200269028471359</v>
       </c>
       <c r="C5" t="n">
-        <v>0.561775630408992</v>
+        <v>0.6021272918333351</v>
       </c>
     </row>
     <row r="6">
@@ -8431,10 +7898,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.946971205128212e-05</v>
+        <v>-5.114194753147284e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5577735279711846</v>
+        <v>0.3989106977484257</v>
       </c>
     </row>
     <row r="7">
@@ -8444,10 +7911,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8616831295732545</v>
+        <v>1.668035409350679</v>
       </c>
       <c r="C7" t="n">
-        <v>0.919923999957182</v>
+        <v>0.8403374166011927</v>
       </c>
     </row>
     <row r="8">
@@ -8457,10 +7924,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11.32624195917187</v>
+        <v>11.07368276510892</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1177666117501339</v>
+        <v>0.1217215372419198</v>
       </c>
     </row>
     <row r="9">
@@ -8470,10 +7937,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>485.4536817776436</v>
+        <v>599.3911392169775</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6952669972237203</v>
+        <v>0.6171119568646326</v>
       </c>
     </row>
     <row r="10">
@@ -8483,49 +7950,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>608.8987216883361</v>
+        <v>545.138519473252</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4274402745417737</v>
+        <v>0.4644054031243329</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2904.861151229468</v>
+        <v>11858.34099870036</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6822430402180359</v>
+        <v>1.508864034342151e-05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>11936.38446853917</v>
+        <v>2.197132769888928</v>
       </c>
       <c r="C12" t="n">
-        <v>1.656537825586874e-05</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>3.330522567870457</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.8596518341274143</v>
+        <v>0.9053981734993739</v>
       </c>
     </row>
   </sheetData>
@@ -8539,7 +7993,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8571,10 +8025,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-948.9712970600995</v>
+        <v>-561.6138066673182</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4979348237939664</v>
+        <v>0.663146436098472</v>
       </c>
     </row>
     <row r="3">
@@ -8584,10 +8038,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>26.81354891582049</v>
+        <v>30.57458708484211</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7034799706698439</v>
+        <v>0.662158002730729</v>
       </c>
     </row>
     <row r="4">
@@ -8597,10 +8051,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>221.2045351528459</v>
+        <v>214.6639955639396</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0001447786091941841</v>
+        <v>0.0001673844514958155</v>
       </c>
     </row>
     <row r="5">
@@ -8610,10 +8064,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01089177260317663</v>
+        <v>-0.008884725953349271</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7771371068729412</v>
+        <v>0.8161548053774268</v>
       </c>
     </row>
     <row r="6">
@@ -8623,10 +8077,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0001184632827092376</v>
+        <v>-0.0001375054730371439</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1416386054911693</v>
+        <v>0.07141041664695053</v>
       </c>
     </row>
     <row r="7">
@@ -8636,10 +8090,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.350657315191356</v>
+        <v>6.328124437097946</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5255233223385377</v>
+        <v>0.4454326032455469</v>
       </c>
     </row>
     <row r="8">
@@ -8649,10 +8103,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>17.54357329083485</v>
+        <v>16.57648127874634</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01958589511157591</v>
+        <v>0.02404440930550481</v>
       </c>
     </row>
     <row r="9">
@@ -8662,10 +8116,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1248.807517774562</v>
+        <v>1414.748233236628</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3442175447350513</v>
+        <v>0.2752825340553079</v>
       </c>
     </row>
     <row r="10">
@@ -8675,49 +8129,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-15.09270889153913</v>
+        <v>-16.86626571833744</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9832304765378768</v>
+        <v>0.9811803717647968</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5141.12718805595</v>
+        <v>9900.171629463821</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4639957075927871</v>
+        <v>5.218530180264158e-05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10035.51106336903</v>
+        <v>2.699558668173566</v>
       </c>
       <c r="C12" t="n">
-        <v>4.872750730483046e-05</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>7.489722943378524</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.681607714458134</v>
+        <v>0.8735632709356803</v>
       </c>
     </row>
   </sheetData>
@@ -8731,7 +8172,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8763,10 +8204,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1413.189236544171</v>
+        <v>1298.726678845432</v>
       </c>
       <c r="C2" t="n">
-        <v>0.199786308788403</v>
+        <v>0.2290965454749753</v>
       </c>
     </row>
     <row r="3">
@@ -8776,10 +8217,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-71.13474245739422</v>
+        <v>-71.17584908205814</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2874739198906086</v>
+        <v>0.2845483099742896</v>
       </c>
     </row>
     <row r="4">
@@ -8789,10 +8230,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>211.9496059634104</v>
+        <v>214.0702151955288</v>
       </c>
       <c r="C4" t="n">
-        <v>2.055919020359984e-05</v>
+        <v>1.48579362221333e-05</v>
       </c>
     </row>
     <row r="5">
@@ -8802,10 +8243,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.006073391346771539</v>
+        <v>-0.0003433484872965575</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9011948142571709</v>
+        <v>0.994242649429629</v>
       </c>
     </row>
     <row r="6">
@@ -8815,10 +8256,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-7.433536760873601e-05</v>
+        <v>-5.843561880771163e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2262467488213076</v>
+        <v>0.2926331047295459</v>
       </c>
     </row>
     <row r="7">
@@ -8828,10 +8269,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1.828710252766639</v>
+        <v>-2.940348778918094</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8146690608924292</v>
+        <v>0.6973622454786801</v>
       </c>
     </row>
     <row r="8">
@@ -8841,10 +8282,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19.67911526219476</v>
+        <v>19.69315094406323</v>
       </c>
       <c r="C8" t="n">
-        <v>0.005745705271189785</v>
+        <v>0.005442408176724302</v>
       </c>
     </row>
     <row r="9">
@@ -8854,10 +8295,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-728.2145269762468</v>
+        <v>-929.0405167017029</v>
       </c>
       <c r="C9" t="n">
-        <v>0.601082181148846</v>
+        <v>0.4911895522440886</v>
       </c>
     </row>
     <row r="10">
@@ -8867,49 +8308,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>149.7026524866715</v>
+        <v>171.5206761888694</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8044419077706058</v>
+        <v>0.7751175405363988</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-4234.506200283708</v>
+        <v>7528.328252014</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5294494541943839</v>
+        <v>0.0005316683535189901</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7488.616841641268</v>
+        <v>-20.30691285397328</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0006117045861196995</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-22.40586061350614</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1473142237797941</v>
+        <v>0.1754833900371648</v>
       </c>
     </row>
   </sheetData>
@@ -8923,7 +8351,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8955,10 +8383,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2100.887805344155</v>
+        <v>1847.596832430887</v>
       </c>
       <c r="C2" t="n">
-        <v>0.08882483610033541</v>
+        <v>0.1131525244126905</v>
       </c>
     </row>
     <row r="3">
@@ -8968,10 +8396,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>31.95399615313866</v>
+        <v>34.55706292507939</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6102876020635032</v>
+        <v>0.5789895301794024</v>
       </c>
     </row>
     <row r="4">
@@ -8981,10 +8409,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>222.0055433415603</v>
+        <v>224.1954756971239</v>
       </c>
       <c r="C4" t="n">
-        <v>1.784697109656951e-05</v>
+        <v>1.306810838911962e-05</v>
       </c>
     </row>
     <row r="5">
@@ -8994,10 +8422,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02404718752631847</v>
+        <v>-0.02669608547062426</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4484700790881491</v>
+        <v>0.3943836187615882</v>
       </c>
     </row>
     <row r="6">
@@ -9007,10 +8435,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6.798481595862965e-05</v>
+        <v>-5.239907282336068e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2540457243105738</v>
+        <v>0.3363859164241116</v>
       </c>
     </row>
     <row r="7">
@@ -9020,10 +8448,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.414835760279233</v>
+        <v>-1.602805666334207</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9547876100049606</v>
+        <v>0.8205983823881153</v>
       </c>
     </row>
     <row r="8">
@@ -9033,10 +8461,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-4.734611177014652</v>
+        <v>-3.768712100009458</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5345389022439604</v>
+        <v>0.6127146070888443</v>
       </c>
     </row>
     <row r="9">
@@ -9046,10 +8474,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1102.838126547444</v>
+        <v>955.3650897414675</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3368484315463504</v>
+        <v>0.393841634386269</v>
       </c>
     </row>
     <row r="10">
@@ -9059,49 +8487,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15.4374481490172</v>
+        <v>105.0951513408186</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9805655037284597</v>
+        <v>0.8646661812880296</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-4270.069444876275</v>
+        <v>6706.922469885307</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5013172687816706</v>
+        <v>0.003112316994350589</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6590.252628799402</v>
+        <v>2.675560154607712</v>
       </c>
       <c r="C12" t="n">
-        <v>0.003911761712936236</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0.8685918896940805</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.9533776953560285</v>
+        <v>0.8540258432854375</v>
       </c>
     </row>
   </sheetData>
@@ -9115,7 +8530,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9147,10 +8562,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-848.6054697223335</v>
+        <v>-763.0223506436027</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5308074013698989</v>
+        <v>0.5585324937589223</v>
       </c>
     </row>
     <row r="3">
@@ -9160,10 +8575,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142.6430409057039</v>
+        <v>140.6458408099151</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0398360722999036</v>
+        <v>0.0397016027449072</v>
       </c>
     </row>
     <row r="4">
@@ -9173,10 +8588,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>132.5062329452035</v>
+        <v>132.5379273812031</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0178998021915873</v>
+        <v>0.01692398309176509</v>
       </c>
     </row>
     <row r="5">
@@ -9186,10 +8601,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02723354245314547</v>
+        <v>-0.02590946269827049</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4491914328786411</v>
+        <v>0.4634463565890665</v>
       </c>
     </row>
     <row r="6">
@@ -9199,10 +8614,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.497188566978171e-05</v>
+        <v>-4.10656966313237e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6048548609619062</v>
+        <v>0.5155219166327584</v>
       </c>
     </row>
     <row r="7">
@@ -9212,10 +8627,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8500146532562241</v>
+        <v>1.407988992883102</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9129147524607709</v>
+        <v>0.8496349395642766</v>
       </c>
     </row>
     <row r="8">
@@ -9225,10 +8640,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>17.75926367693353</v>
+        <v>17.48555681089488</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01979915836017367</v>
+        <v>0.01946473240284958</v>
       </c>
     </row>
     <row r="9">
@@ -9238,10 +8653,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5.30699201441405</v>
+        <v>60.09899683324329</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9966758794943971</v>
+        <v>0.9615546409119156</v>
       </c>
     </row>
     <row r="10">
@@ -9251,49 +8666,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>736.1556119410286</v>
+        <v>703.127036349584</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2769928174237652</v>
+        <v>0.2866949425669851</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1697.716272650927</v>
+        <v>10721.83888059026</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7886103256791794</v>
+        <v>2.738138241207734e-06</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10765.52427899923</v>
+        <v>2.412653772003736</v>
       </c>
       <c r="C12" t="n">
-        <v>3.262697459612555e-06</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>3.17435106572114</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.8550944284127845</v>
+        <v>0.8871648727823285</v>
       </c>
     </row>
   </sheetData>
@@ -9307,7 +8709,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9339,10 +8741,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>901.1346129146109</v>
+        <v>953.5881693470917</v>
       </c>
       <c r="C2" t="n">
-        <v>0.484293668988753</v>
+        <v>0.4447862554296832</v>
       </c>
     </row>
     <row r="3">
@@ -9352,10 +8754,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.66547404871689</v>
+        <v>16.82854196939957</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8108685664306731</v>
+        <v>0.8073631658584881</v>
       </c>
     </row>
     <row r="4">
@@ -9365,10 +8767,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>174.5780328045226</v>
+        <v>173.8510779900427</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0009440196360681326</v>
+        <v>0.0008604637493434161</v>
       </c>
     </row>
     <row r="5">
@@ -9378,10 +8780,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.05074326904155515</v>
+        <v>-0.04967086226862973</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1912924188568657</v>
+        <v>0.1919657061358075</v>
       </c>
     </row>
     <row r="6">
@@ -9391,10 +8793,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.033061556286903e-05</v>
+        <v>-2.563853581623031e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7929160043943746</v>
+        <v>0.7204651148050556</v>
       </c>
     </row>
     <row r="7">
@@ -9404,10 +8806,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2.251626021014124</v>
+        <v>-1.827511420336603</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8068235002982316</v>
+        <v>0.8365045771328918</v>
       </c>
     </row>
     <row r="8">
@@ -9417,10 +8819,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21.5864773117867</v>
+        <v>21.50779848454032</v>
       </c>
       <c r="C8" t="n">
-        <v>0.006460393506191739</v>
+        <v>0.006101608012244927</v>
       </c>
     </row>
     <row r="9">
@@ -9430,10 +8832,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-400.1328962877924</v>
+        <v>-316.742284901062</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7932417073810853</v>
+        <v>0.8270329948817562</v>
       </c>
     </row>
     <row r="10">
@@ -9443,49 +8845,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>685.1858819366012</v>
+        <v>668.8881155986023</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3041988691667799</v>
+        <v>0.3074146112078059</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1224.249465370625</v>
+        <v>7992.310533568334</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8486846240230447</v>
+        <v>0.0005546565442217317</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8031.052765960965</v>
+        <v>-23.71950988198844</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0006169793618169711</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-22.98257977024961</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2368768053921312</v>
+        <v>0.2090359563042044</v>
       </c>
     </row>
   </sheetData>
@@ -9499,7 +8888,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9531,10 +8920,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2025.611747336656</v>
+        <v>-2156.316182120408</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09994284852005539</v>
+        <v>0.07258612570970191</v>
       </c>
     </row>
     <row r="3">
@@ -9544,10 +8933,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.11451479355992</v>
+        <v>15.60877772392035</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7972984078282029</v>
+        <v>0.8022328254252276</v>
       </c>
     </row>
     <row r="4">
@@ -9557,10 +8946,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>254.1528917881596</v>
+        <v>257.5533430827691</v>
       </c>
       <c r="C4" t="n">
-        <v>1.720422447579259e-06</v>
+        <v>9.320665925465118e-07</v>
       </c>
     </row>
     <row r="5">
@@ -9570,10 +8959,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02659568023359676</v>
+        <v>0.01926662142441815</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6365588169180558</v>
+        <v>0.722320460781654</v>
       </c>
     </row>
     <row r="6">
@@ -9583,10 +8972,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6.453365054821903e-05</v>
+        <v>-5.26607126804307e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.282141898462081</v>
+        <v>0.3409048168624724</v>
       </c>
     </row>
     <row r="7">
@@ -9596,10 +8985,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.967272252204364</v>
+        <v>3.59484050155335</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6302151631818467</v>
+        <v>0.6593868257937532</v>
       </c>
     </row>
     <row r="8">
@@ -9609,10 +8998,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>17.43546027921586</v>
+        <v>17.70066779757072</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01099582103923187</v>
+        <v>0.009230104081746881</v>
       </c>
     </row>
     <row r="9">
@@ -9622,10 +9011,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1576.236251439295</v>
+        <v>1445.980058334103</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1693239164516451</v>
+        <v>0.1934423076011131</v>
       </c>
     </row>
     <row r="10">
@@ -9635,49 +9024,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>209.7049465508887</v>
+        <v>252.498013695717</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7421668782449222</v>
+        <v>0.6878336196022767</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-3208.836180168151</v>
+        <v>7882.419019053659</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5919557533749364</v>
+        <v>0.0003863202070088866</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7884.274441801739</v>
+        <v>32.77972704339321</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0004223198058313086</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>31.44647588837028</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.06323409341056323</v>
+        <v>0.04908562727283367</v>
       </c>
     </row>
   </sheetData>
@@ -9691,7 +9067,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9723,10 +9099,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1171.564706424747</v>
+        <v>1318.662904969085</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3467770517268035</v>
+        <v>0.2684597776919259</v>
       </c>
     </row>
     <row r="3">
@@ -9736,10 +9112,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>111.4597770962314</v>
+        <v>110.0175621244055</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1008233259074979</v>
+        <v>0.1021984416606449</v>
       </c>
     </row>
     <row r="4">
@@ -9749,10 +9125,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>144.1110561131056</v>
+        <v>142.6903614703891</v>
       </c>
       <c r="C4" t="n">
-        <v>0.004711809740053533</v>
+        <v>0.004694836568413694</v>
       </c>
     </row>
     <row r="5">
@@ -9762,10 +9138,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03628291708479595</v>
+        <v>-0.03441656807640239</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2966298584587307</v>
+        <v>0.3146482108665147</v>
       </c>
     </row>
     <row r="6">
@@ -9775,10 +9151,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.10295388871589e-05</v>
+        <v>-4.074670884031e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6322439269581559</v>
+        <v>0.5008526058943427</v>
       </c>
     </row>
     <row r="7">
@@ -9788,10 +9164,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-7.350239881975664</v>
+        <v>-6.678154396752097</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3398170204838898</v>
+        <v>0.3722380541772973</v>
       </c>
     </row>
     <row r="8">
@@ -9801,10 +9177,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.299037339978302</v>
+        <v>3.88509186211078</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5607513123115222</v>
+        <v>0.5932117434172122</v>
       </c>
     </row>
     <row r="9">
@@ -9814,10 +9190,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>491.1984696895042</v>
+        <v>612.1025990833948</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6794701350708765</v>
+        <v>0.594000562683991</v>
       </c>
     </row>
     <row r="10">
@@ -9827,49 +9203,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>529.3659030448445</v>
+        <v>507.2684741357631</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4966196430695295</v>
+        <v>0.5106526862741063</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2722.20558596354</v>
+        <v>10637.22298121078</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6613552769483795</v>
+        <v>5.331478944397759e-06</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10701.47223842714</v>
+        <v>-2.677016766391297</v>
       </c>
       <c r="C12" t="n">
-        <v>5.900866982512267e-06</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-1.11066489600136</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.9402435956820565</v>
+        <v>0.8512314401085097</v>
       </c>
     </row>
   </sheetData>
@@ -9883,7 +9246,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9915,10 +9278,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1142.094447023289</v>
+        <v>1115.830071468605</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4209757224051394</v>
+        <v>0.3994087205377228</v>
       </c>
     </row>
     <row r="3">
@@ -9928,10 +9291,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>50.16583814923567</v>
+        <v>50.17859029126176</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4533486813532973</v>
+        <v>0.4491298971525168</v>
       </c>
     </row>
     <row r="4">
@@ -9941,10 +9304,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>181.1139147777469</v>
+        <v>181.3444589918597</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001569292524588205</v>
+        <v>0.001361618684609655</v>
       </c>
     </row>
     <row r="5">
@@ -9954,10 +9317,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03384194636302645</v>
+        <v>-0.034016324667539</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3897940615618056</v>
+        <v>0.3815148219334322</v>
       </c>
     </row>
     <row r="6">
@@ -9967,10 +9330,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-7.035347032555501e-05</v>
+        <v>-6.88709209719024e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3641502222988687</v>
+        <v>0.3389061435321826</v>
       </c>
     </row>
     <row r="7">
@@ -9980,10 +9343,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.293338446289457</v>
+        <v>1.159799965356692</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8804132546321681</v>
+        <v>0.8871385870890547</v>
       </c>
     </row>
     <row r="8">
@@ -9993,10 +9356,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.672015503542454</v>
+        <v>8.740305787400338</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2523745700125106</v>
+        <v>0.2380116154771617</v>
       </c>
     </row>
     <row r="9">
@@ -10006,10 +9369,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>423.1487766112807</v>
+        <v>412.3794748756723</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7560397063335533</v>
+        <v>0.7575103256543014</v>
       </c>
     </row>
     <row r="10">
@@ -10019,49 +9382,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>320.4402118385653</v>
+        <v>323.0737060964786</v>
       </c>
       <c r="C10" t="n">
-        <v>0.638674750759779</v>
+        <v>0.6320136480271142</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-388.4658986546615</v>
+        <v>9689.001645765587</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9561568780854183</v>
+        <v>4.322912682848886e-05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9683.517490354481</v>
+        <v>-13.10597300633981</v>
       </c>
       <c r="C12" t="n">
-        <v>5.186140953475507e-05</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-13.49316138487422</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.4892062527479083</v>
+        <v>0.4672570650795906</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_LR/Montpellier.xlsx
+++ b/outputs/ML_Results/dist_LR/Montpellier.xlsx
@@ -7,56 +7,56 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ03988220" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ04131696" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ04271506" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ04431031" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ04568291" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ04697189" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ04826539" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ04950227" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ05082255" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ05294023" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ05504929" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ05706532" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ05893386" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ06068135" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ06263919" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ06475118" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="summ06696383" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="summ06900048" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="summ07094163" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="summ07295015" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="summ07509060" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="summ07712055" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="summ07925785" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="summ08138267" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="summ08346646" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="summ08514299" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="summ08692457" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="summ08897098" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="summ09074210" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="summ09259796" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="summ09433473" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="summ09598599" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="summ09771359" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="summ09945539" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="summ10110330" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="summ10281141" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="summ10452940" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="summ10734856" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="summ10910958" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="summ11083621" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="summ11257638" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="summ11425680" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="summ11590390" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="summ11768170" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="summ11947682" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="summ12129484" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="summ12308998" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="summ12479282" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="summ12646496" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="summ12794028" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="summ46162189" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ46273426" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ46383773" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ46494591" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ46603445" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ46722387" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ46829347" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ47052161" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ47196111" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ47328376" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ47465727" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ47601739" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ47735837" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ47879860" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ48011176" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ48124263" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ48256455" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="summ48396365" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="summ48550062" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="summ48714654" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="summ48871935" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="summ49067605" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="summ49214975" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="summ49368737" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="summ49522743" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="summ49672084" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="summ49826940" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="summ49996002" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="summ50142404" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="summ50282711" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="summ50430313" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="summ50582817" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="summ50730385" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="summ50882838" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="summ51031040" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="summ51190350" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="summ51354629" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="summ51511520" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="summ51664366" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="summ51832480" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="summ51996758" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="summ52142540" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="summ52281180" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="summ52418853" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="summ52562052" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="summ52706354" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="summ52876457" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="summ53025724" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="summ53169527" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="summ53331141" sheetId="50" state="visible" r:id="rId50"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/outputs/ML_Results/dist_LR/Montpellier.xlsx
+++ b/outputs/ML_Results/dist_LR/Montpellier.xlsx
@@ -7,56 +7,56 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ46162189" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ46273426" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ46383773" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ46494591" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ46603445" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ46722387" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ46829347" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ47052161" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ47196111" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ47328376" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ47465727" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ47601739" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ47735837" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ47879860" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ48011176" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ48124263" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="summ48256455" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="summ48396365" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="summ48550062" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="summ48714654" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="summ48871935" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="summ49067605" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="summ49214975" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="summ49368737" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="summ49522743" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="summ49672084" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="summ49826940" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="summ49996002" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="summ50142404" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="summ50282711" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="summ50430313" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="summ50582817" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="summ50730385" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="summ50882838" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="summ51031040" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="summ51190350" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="summ51354629" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="summ51511520" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="summ51664366" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="summ51832480" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="summ51996758" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="summ52142540" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="summ52281180" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="summ52418853" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="summ52562052" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="summ52706354" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="summ52876457" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="summ53025724" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="summ53169527" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="summ53331141" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="summ10311798" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ10649621" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ10898585" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ11120048" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ11368088" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ11610048" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ11838329" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ12095783" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ12365598" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ12639341" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ12896287" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ13154985" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ13413987" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ13675060" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ14020644" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ14318230" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ14572325" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="summ14970866" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="summ15385678" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="summ15639374" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="summ15892826" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="summ16175767" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="summ16430692" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="summ16681504" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="summ16928234" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="summ17193032" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="summ17457407" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="summ17741851" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="summ18002752" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="summ18260354" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="summ18524697" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="summ18772830" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="summ19026494" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="summ19285873" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="summ19565169" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="summ19828733" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="summ20124995" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="summ20395131" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="summ20666075" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="summ20915021" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="summ21254773" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="summ21569361" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="summ21845975" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="summ22106259" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="summ22377478" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="summ22674493" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="summ22924643" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="summ23172184" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="summ23428878" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="summ23700911" sheetId="50" state="visible" r:id="rId50"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -475,7 +475,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,140 +507,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1695.182382455214</v>
+        <v>1987.255706167949</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1769691572890482</v>
+        <v>0.0006534742341844309</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>36.56673413707068</v>
+        <v>233.4651253018516</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5572881365454095</v>
+        <v>1.937917434906547e-06</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>163.8154705338961</v>
+        <v>-0.07856134214774366</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001487809858425574</v>
+        <v>0.01154101220627486</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.04802521020866117</v>
+        <v>9752.960223351822</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1898460940823355</v>
+        <v>0.0001023621126450486</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-7.500576567633141e-05</v>
+        <v>151.1972553973899</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2630736864213165</v>
+        <v>0.8048226689833964</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.202190461231694</v>
+        <v>139.0668621535042</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7716883476384102</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>17.63855332468888</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.02137082236540831</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-473.439457978667</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.7068000704239519</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>344.0753363164231</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.5912951997967086</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>8008.050843300833</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.0006618352246006256</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-32.91863017265517</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.06540258678133554</v>
+        <v>0.04986480287413919</v>
       </c>
     </row>
   </sheetData>
@@ -654,7 +589,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -686,140 +621,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>522.4088961192242</v>
+        <v>2185.498704553293</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6783372248646471</v>
+        <v>0.0001082440588515122</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>45.25194759392674</v>
+        <v>239.8368310461987</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5302167342380322</v>
+        <v>1.919226448655898e-06</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>202.681746002172</v>
+        <v>-0.07235261423031267</v>
       </c>
       <c r="C4" t="n">
-        <v>0.000485797105925386</v>
+        <v>0.01514599954239954</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02213497162351555</v>
+        <v>9245.071563966112</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5494915956961585</v>
+        <v>0.0001517238948857191</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6.453458649748845e-05</v>
+        <v>-137.0599116153362</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3129964410594386</v>
+        <v>0.8054515848871949</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.895547800924355</v>
+        <v>102.6301834243874</v>
       </c>
       <c r="C7" t="n">
-        <v>0.709670750196552</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>11.07886338978459</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1328804928322585</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>323.241974563748</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.8051576713998667</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>117.1101572144667</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.8658605660780426</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>9380.760847082176</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.0001503287543444313</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-6.81241602507648</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.6815399897600982</v>
+        <v>0.125163821152295</v>
       </c>
     </row>
   </sheetData>
@@ -833,7 +703,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -865,140 +735,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>346.564110826354</v>
+        <v>1926.251005980955</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7850499035454008</v>
+        <v>0.0003220439257863515</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21.87129305124591</v>
+        <v>230.422351049106</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7689481225172595</v>
+        <v>6.480868829271327e-07</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>191.3366059175155</v>
+        <v>-0.07492222166692419</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0003184045695528923</v>
+        <v>0.01052183307824931</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03201815080440554</v>
+        <v>10251.24701837754</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4154801707204934</v>
+        <v>1.894157883081153e-05</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6.853581458610307e-05</v>
+        <v>39.77445009794701</v>
       </c>
       <c r="C6" t="n">
-        <v>0.340178505904206</v>
+        <v>0.9427839327673351</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.666994978506686</v>
+        <v>134.1963019624091</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8344630527084324</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>23.57046697039426</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.003365107867005289</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-359.9883516211727</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.787319939197055</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>374.7651804821646</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.6277170392478716</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>7574.992426096237</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.001049680344377206</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-16.19706036824977</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.3478159874545864</v>
+        <v>0.03201892511170207</v>
       </c>
     </row>
   </sheetData>
@@ -1012,7 +817,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1044,140 +849,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1297.028053232577</v>
+        <v>1540.635296259544</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2469626306373603</v>
+        <v>0.003262830372824747</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>54.57737405434659</v>
+        <v>287.6488211804798</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3241726360838508</v>
+        <v>1.130617502421988e-10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>203.6722671846666</v>
+        <v>-0.07537001466423225</v>
       </c>
       <c r="C4" t="n">
-        <v>1.526143230138452e-05</v>
+        <v>0.002495790229939436</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02344712268934156</v>
+        <v>11925.97969032692</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4425044560958852</v>
+        <v>1.499719980798889e-06</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5.683955528873943e-05</v>
+        <v>555.2825648662979</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2683401740676158</v>
+        <v>0.291336076809307</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.088895447179492</v>
+        <v>70.12224354639852</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7606257258706778</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-0.7428498126449661</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.9131856841099056</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>550.574590131916</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.5883744959631632</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-98.76060674598511</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.8618695554989724</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>6854.971833366129</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.001028328607081377</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>7.954185884730595</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.5708486253391332</v>
+        <v>0.2070255110021421</v>
       </c>
     </row>
   </sheetData>
@@ -1191,7 +931,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1223,140 +963,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>550.64542616772</v>
+        <v>2171.156616938878</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6677677670681499</v>
+        <v>0.0001105758586565415</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>74.98102047999231</v>
+        <v>230.2513911717991</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2732821444026158</v>
+        <v>4.284601437083011e-06</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.887542901611</v>
+        <v>-0.09102682781441275</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0009942383829832106</v>
+        <v>0.002325262828614372</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03089116826927426</v>
+        <v>8553.290818392596</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4187389051089566</v>
+        <v>0.0004368460241897529</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5.274587863600661e-05</v>
+        <v>409.3201974379599</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4457509055840293</v>
+        <v>0.5197814998280375</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.4656275459965826</v>
+        <v>134.415086025629</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9570571517145009</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>10.49670721868506</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1718328092793841</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1612.971566971946</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2262337722805614</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>390.7295102031591</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.5817633643722777</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>9599.879401321066</v>
-      </c>
-      <c r="C11" t="n">
-        <v>6.448691548267749e-05</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-10.39901055650675</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.5791445992399712</v>
+        <v>0.09269721504974981</v>
       </c>
     </row>
   </sheetData>
@@ -1370,7 +1045,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1402,140 +1077,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10.85637298503616</v>
+        <v>1795.368147707194</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9932047887668374</v>
+        <v>0.001084435622088597</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>82.7248246585735</v>
+        <v>248.4955669565001</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1903352255903217</v>
+        <v>1.59256871029621e-07</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>146.1962137356196</v>
+        <v>-0.05613132330281502</v>
       </c>
       <c r="C4" t="n">
-        <v>0.007492192478542912</v>
+        <v>0.1717881505759081</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0309289108675728</v>
+        <v>11015.94738485494</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3501867639835361</v>
+        <v>9.836926617682287e-06</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4.931342105611205e-05</v>
+        <v>-235.2225970273039</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3822824668489126</v>
+        <v>0.6855012676040417</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5052159645320362</v>
+        <v>123.0032888387997</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9429427241649844</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>15.42833886816225</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.02090544597994153</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>82.5034501460857</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.9453528432316092</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>487.8252889906993</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.4232411583533126</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>9932.687830506602</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2.022758950450597e-05</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-0.2659690032179185</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.9875490380645653</v>
+        <v>0.03973435146661855</v>
       </c>
     </row>
   </sheetData>
@@ -1549,7 +1159,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1581,140 +1191,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>421.0811085394303</v>
+        <v>2362.958388896699</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7327640834970578</v>
+        <v>3.711636443572934e-06</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.05447448938932</v>
+        <v>237.3997806259402</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8404812282359331</v>
+        <v>1.751776358275346e-07</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>215.2712485474341</v>
+        <v>-0.08235219650414596</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0002043655223762243</v>
+        <v>0.002031790111723365</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.002663717249566627</v>
+        <v>8254.245032546813</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9660250835857248</v>
+        <v>0.0001294532187261812</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4.134370861800024e-05</v>
+        <v>-95.78814749860453</v>
       </c>
       <c r="C6" t="n">
-        <v>0.589177725914253</v>
+        <v>0.8424871405442341</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2.248490823275883</v>
+        <v>118.3298233079165</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8034634898149882</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>9.386793729787858</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2042202142408682</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>303.7519152583304</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.8463100066377556</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>272.6635946074891</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.7147510899468867</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>11304.98004574083</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.260171762072857e-05</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-2.3356546100419</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.8890545791379496</v>
+        <v>0.03796724255292617</v>
       </c>
     </row>
   </sheetData>
@@ -1728,7 +1273,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1760,140 +1305,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>49.35525323411366</v>
+        <v>2123.176063012226</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9713459634368857</v>
+        <v>5.176721829260263e-05</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>58.05781955903382</v>
+        <v>237.7659582372584</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4138304310283517</v>
+        <v>3.074466518515342e-07</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>209.4993331302609</v>
+        <v>-0.08163522051550742</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0001657383362925065</v>
+        <v>0.003116964332599924</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.004648412634284366</v>
+        <v>8558.794381867436</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9033054985161977</v>
+        <v>0.000157247934603098</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0001053973414179734</v>
+        <v>256.4873028201816</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1648777197258298</v>
+        <v>0.6451579635747329</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.397646591282021</v>
+        <v>129.4140963577898</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6633690543364603</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>8.716032530163496</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2431666955249264</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>752.7867158360093</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.5632309449917046</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>117.851066942651</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.8648214165105292</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>10812.51773061505</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.551500303677474e-05</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>2.254365026736323</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.9095763586459982</v>
+        <v>0.03299724125337592</v>
       </c>
     </row>
   </sheetData>
@@ -1907,7 +1387,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1939,140 +1419,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1343.053278446981</v>
+        <v>1347.375884018426</v>
       </c>
       <c r="C2" t="n">
-        <v>0.267949217319024</v>
+        <v>0.01505234449349884</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-10.69244995997389</v>
+        <v>275.0106243205829</v>
       </c>
       <c r="C3" t="n">
-        <v>0.86255187893263</v>
+        <v>1.517044520023671e-08</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.345131363618</v>
+        <v>-0.07053193762091244</v>
       </c>
       <c r="C4" t="n">
-        <v>1.544300260499771e-06</v>
+        <v>0.01214744751044501</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-7.330536682726568e-05</v>
+        <v>13592.07376219978</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9982539287971919</v>
+        <v>1.900582431699263e-07</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-7.251554047023777e-05</v>
+        <v>248.7520685319308</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1895571764387648</v>
+        <v>0.6709394527479717</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9.91401461729223</v>
+        <v>86.90973832081824</v>
       </c>
       <c r="C7" t="n">
-        <v>0.179409424885814</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>18.65312942557175</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.007327543629319409</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1097.363467194529</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.3768329559415556</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-851.4861035532763</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2154330012862844</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>8672.537986341275</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.0001006092860335037</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>14.93547337720525</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.3329739303102672</v>
+        <v>0.166077021875155</v>
       </c>
     </row>
   </sheetData>
@@ -2086,7 +1501,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2118,140 +1533,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1888.330561087754</v>
+        <v>1948.066480274809</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1010745395012835</v>
+        <v>0.0003450811526285694</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80.93356105772494</v>
+        <v>247.4095079194744</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1677863703738513</v>
+        <v>2.452810654612266e-07</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>122.0387651055191</v>
+        <v>-0.07574083102325262</v>
       </c>
       <c r="C4" t="n">
-        <v>0.006848734847010263</v>
+        <v>0.008044548158179421</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0615280287253684</v>
+        <v>9530.072540898045</v>
       </c>
       <c r="C5" t="n">
-        <v>0.06032393994095615</v>
+        <v>9.062981317215276e-05</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4.394975033531855e-05</v>
+        <v>138.3722680616697</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4112089750707459</v>
+        <v>0.8125046764315411</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2.585147721810428</v>
+        <v>126.7481432154873</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7185395182530826</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>12.5593792947003</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1306125728081184</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-778.5471686349606</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.4912138586428192</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>726.5192825727772</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2171611868682619</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>8474.817606180875</v>
-      </c>
-      <c r="C11" t="n">
-        <v>5.193803909135404e-05</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-23.969118060658</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1129066833108778</v>
+        <v>0.0431902172100035</v>
       </c>
     </row>
   </sheetData>
@@ -2265,7 +1615,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2297,140 +1647,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>184.2481185976212</v>
+        <v>2214.021157474554</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8755028157452924</v>
+        <v>3.863507040877295e-05</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>63.78607292326316</v>
+        <v>266.4216977617352</v>
       </c>
       <c r="C3" t="n">
-        <v>0.377357284819013</v>
+        <v>1.520113636141921e-08</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>190.1968221494662</v>
+        <v>-0.07081183876577754</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0004783278681372799</v>
+        <v>0.03748400935803641</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03307693561182297</v>
+        <v>8758.908621573188</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3808000618354103</v>
+        <v>7.869322670675775e-05</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4.930717392849068e-05</v>
+        <v>-127.2528837743043</v>
       </c>
       <c r="C6" t="n">
-        <v>0.465095804480686</v>
+        <v>0.8075899224717202</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.633168271429565</v>
+        <v>87.10100045875461</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8418448648826806</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>10.74353686475905</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1335319931833542</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>898.5962930479884</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.4836047451182003</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>700.0902697354754</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.347232298618314</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>8249.084597482954</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.0004731753926889078</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>1.027092164403868</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.9507473172620899</v>
+        <v>0.1546448290185816</v>
       </c>
     </row>
   </sheetData>
@@ -2444,7 +1729,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2476,140 +1761,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-915.9098572174389</v>
+        <v>2295.38312905723</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4884834627849393</v>
+        <v>6.129405756726828e-05</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>30.80969638180139</v>
+        <v>261.975420162044</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6720425679188329</v>
+        <v>1.056756252690794e-07</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>214.6692279394677</v>
+        <v>-0.06921101585813957</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0001547669049354077</v>
+        <v>0.05825993878212619</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01408058070436388</v>
+        <v>7534.571477267567</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7356601758381343</v>
+        <v>0.001739406389053686</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-7.901477923760112e-05</v>
+        <v>-39.87851839510381</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2728832959700762</v>
+        <v>0.9429182155248288</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.807220922339091</v>
+        <v>90.62357581352006</v>
       </c>
       <c r="C7" t="n">
-        <v>0.429557809745862</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>17.8297539211216</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.01612005164970891</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1200.802727967663</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.4399159455523921</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-227.8776473561024</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.7960038818210653</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>8633.616530531061</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.0003569139199193135</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>9.868995257466732</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.5653722337296695</v>
+        <v>0.1560459086420395</v>
       </c>
     </row>
   </sheetData>
@@ -2623,7 +1843,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2655,140 +1875,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>258.3603087276676</v>
+        <v>2128.149765565679</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8440921522592992</v>
+        <v>6.216747485082983e-05</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>66.83590620974955</v>
+        <v>221.9102200389097</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3392995973694596</v>
+        <v>8.095092420822002e-07</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>173.4972830179582</v>
+        <v>-0.08975500455873116</v>
       </c>
       <c r="C4" t="n">
-        <v>0.002336365555685188</v>
+        <v>0.003201420723278998</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01474917077986591</v>
+        <v>9301.97395060788</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8054214028205336</v>
+        <v>0.000152488005677251</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4.932942743415491e-05</v>
+        <v>323.8352649426007</v>
       </c>
       <c r="C6" t="n">
-        <v>0.477784165002943</v>
+        <v>0.5512239160848535</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-5.983880572009999</v>
+        <v>136.403906924297</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5318682270130839</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>13.45090227158404</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.06888588680725342</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1112.067051761288</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.4088290032610283</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>474.3595222057979</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.5015383780935638</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>10069.84328294278</v>
-      </c>
-      <c r="C11" t="n">
-        <v>6.048307027460871e-05</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-2.682827919910029</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.8778955419160617</v>
+        <v>0.03349412230689124</v>
       </c>
     </row>
   </sheetData>
@@ -2802,7 +1957,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2834,140 +1989,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>41.4873730654931</v>
+        <v>2015.600054130245</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9755406910016633</v>
+        <v>0.0004345726742375447</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>71.03854285437404</v>
+        <v>230.8960287969823</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3525511364174272</v>
+        <v>2.402171175970619e-06</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>204.4430145928016</v>
+        <v>-0.08344604761512289</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0007055572702682291</v>
+        <v>0.03004346814687456</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02903631851124301</v>
+        <v>9554.207089481981</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5142995713798186</v>
+        <v>5.766080110522634e-05</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-7.095853849514892e-05</v>
+        <v>117.6293758585962</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3713550632840725</v>
+        <v>0.8335983212029099</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.709942123933723</v>
+        <v>140.5386024793578</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7049818582199224</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>13.09075726595836</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.09253493882811263</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1731.941647909868</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2133180727291154</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>217.7966028722067</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.8232713851740983</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>9989.9437088617</v>
-      </c>
-      <c r="C11" t="n">
-        <v>5.230631349545227e-05</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-10.25449487797733</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.5837564483386434</v>
+        <v>0.0242395203507446</v>
       </c>
     </row>
   </sheetData>
@@ -2981,7 +2071,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3013,140 +2103,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-488.8342007381402</v>
+        <v>1998.398315721988</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6889633275992118</v>
+        <v>9.271778378050675e-05</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>103.2716739757037</v>
+        <v>222.5004708259701</v>
       </c>
       <c r="C3" t="n">
-        <v>0.144471384394001</v>
+        <v>8.374284300444897e-07</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>174.3226880407877</v>
+        <v>-0.07981354382754302</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001645129188873392</v>
+        <v>0.005963524610722163</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03740519820684707</v>
+        <v>10014.97211147582</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2729353936304534</v>
+        <v>1.3684157226323e-05</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.969087136309176e-05</v>
+        <v>63.51002026705225</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7355931040682151</v>
+        <v>0.9043145518133814</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.5710012080574671</v>
+        <v>162.1069369687519</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9382421953822271</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>14.72271283389958</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.03342726321142574</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>494.7500670045949</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.6866753745868193</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>785.2991080563766</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2266462587023981</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>10642.79652062596</v>
-      </c>
-      <c r="C11" t="n">
-        <v>6.072595577285302e-06</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>1.45191096599352</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.9324468147977847</v>
+        <v>0.01157797401098846</v>
       </c>
     </row>
   </sheetData>
@@ -3160,7 +2185,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3192,140 +2217,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>683.2430448055502</v>
+        <v>2041.933431067877</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5735353791623783</v>
+        <v>5.546518949275468e-05</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>38.92511328716542</v>
+        <v>332.3852051796282</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5234563102613214</v>
+        <v>1.452016240795648e-13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>186.1001867042905</v>
+        <v>-0.06617613362265271</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0001651969379345207</v>
+        <v>0.004124213888591958</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02431596433540989</v>
+        <v>9446.623641102553</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4784469995344308</v>
+        <v>2.39450685234627e-05</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6.679471005045552e-05</v>
+        <v>-62.96519019211109</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2825127592956907</v>
+        <v>0.896934788266488</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.197112952665972</v>
+        <v>-0.7922109808389592</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7718197253815522</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>11.77591004181038</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1469840101947091</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-100.6853138344427</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.9299277519973659</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>186.0977848351226</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.7562265601722203</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>9145.945583160472</v>
-      </c>
-      <c r="C11" t="n">
-        <v>6.654397694744086e-05</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-5.643795136321472</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.7487685390157999</v>
+        <v>0.9880377136780256</v>
       </c>
     </row>
   </sheetData>
@@ -3339,7 +2299,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3371,140 +2331,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1477.963524041192</v>
+        <v>2039.890384692252</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2160764379096746</v>
+        <v>0.0002493078414574255</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>56.63982167706221</v>
+        <v>237.8569716095256</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3873650175451087</v>
+        <v>1.893687615902752e-07</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>170.9302917524907</v>
+        <v>-0.09385777946192399</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001183996783254901</v>
+        <v>0.00174463742401211</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03723264127603749</v>
+        <v>8275.169610454472</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2771997468253808</v>
+        <v>0.0008404681989069483</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-7.565352263138122e-05</v>
+        <v>723.797556468422</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2087316862781231</v>
+        <v>0.2370324666945315</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.1516064523172247</v>
+        <v>144.6861318632947</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9832979046688002</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>7.331413068535082</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.3085567345857344</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>546.9146088893799</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.6501129890549413</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>322.0953829956338</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.6156222775554336</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>7782.5428506785</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.0007967896836368173</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-9.153106377600487</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.547732339109523</v>
+        <v>0.02754834656372706</v>
       </c>
     </row>
   </sheetData>
@@ -3518,7 +2413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3550,140 +2445,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-235.9319025920863</v>
+        <v>1982.303480137289</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8488205896566181</v>
+        <v>9.310766013305234e-05</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1.868661378140771</v>
+        <v>194.1118072831234</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9786503188611151</v>
+        <v>3.32631635929243e-05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>214.3292500650249</v>
+        <v>-0.07040527098527127</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0001342387112151687</v>
+        <v>0.01412834538599154</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03802440628366582</v>
+        <v>11511.37569948605</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5371953743637594</v>
+        <v>1.775683137594215e-06</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-7.155128835306936e-05</v>
+        <v>-254.4734812232391</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3243464016946195</v>
+        <v>0.64353720768116</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1.725418780626971</v>
+        <v>153.5721170968561</v>
       </c>
       <c r="C7" t="n">
-        <v>0.841248539130538</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>14.82184762037433</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.03894002949426843</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>321.6252297916121</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.8318033990208237</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>5.494656635650244</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.9934737238571474</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>9300.804934587872</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.0001820026233679025</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>8.407893714033944</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.6134784061242271</v>
+        <v>0.01560435326859174</v>
       </c>
     </row>
   </sheetData>
@@ -3697,7 +2527,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3729,140 +2559,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1302.315100313295</v>
+        <v>1640.858655673569</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3495777247157252</v>
+        <v>0.0007176176526531439</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.309039199479301</v>
+        <v>192.2960354542254</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9842922335710056</v>
+        <v>1.173428159315087e-05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>259.9892081798035</v>
+        <v>-0.08603574760398555</v>
       </c>
       <c r="C4" t="n">
-        <v>1.634576148456395e-05</v>
+        <v>0.003301169213936368</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.007836958866812918</v>
+        <v>12964.08617863378</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8297703690495886</v>
+        <v>7.043989318354057e-08</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-7.222852562748372e-05</v>
+        <v>-17.94631287061611</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2567019419246295</v>
+        <v>0.9726338684773979</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.204150160687043</v>
+        <v>197.9665111067077</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3106565147590277</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>18.32350217209417</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.01315709057212494</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>910.9392718078238</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.4493729915635064</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>24.94425138449924</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.9694751639821648</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>6899.439213483051</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.006795316431504615</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>17.02389814492415</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.3629575910333461</v>
+        <v>0.001695925081696999</v>
       </c>
     </row>
   </sheetData>
@@ -3876,7 +2641,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3908,140 +2673,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>313.5555414663359</v>
+        <v>2049.833421675594</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7984092167819827</v>
+        <v>7.701961972388461e-05</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>67.87032635674687</v>
+        <v>245.4075984827746</v>
       </c>
       <c r="C3" t="n">
-        <v>0.331495213785522</v>
+        <v>7.404210465907521e-08</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>171.2086343778372</v>
+        <v>-0.07310935353735214</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001404303175320299</v>
+        <v>0.00823095350744321</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03806166122558433</v>
+        <v>8484.803017826003</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3253538321139542</v>
+        <v>0.0001375077149988239</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-9.898737454450212e-05</v>
+        <v>125.397859028943</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2381218418217728</v>
+        <v>0.8215418310602349</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2.676552036947879</v>
+        <v>144.8978412581702</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7400760009406639</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>12.7314750833961</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.07541068977210602</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>2019.545576351049</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1745201167659548</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>432.9814392148046</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.5360420606816754</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>10357.72144711452</v>
-      </c>
-      <c r="C11" t="n">
-        <v>8.615879328209205e-06</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-1.573013874078407</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.9231891777277557</v>
+        <v>0.01751329516763698</v>
       </c>
     </row>
   </sheetData>
@@ -4055,7 +2755,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4087,140 +2787,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>414.3494886174685</v>
+        <v>2627.26816669741</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7130022621997341</v>
+        <v>1.225237799670557e-06</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>128.5998823845358</v>
+        <v>274.9974829906812</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04936402583833922</v>
+        <v>1.113579771200491e-09</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.6777242383455</v>
+        <v>-0.08077784128715193</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001506159234056321</v>
+        <v>0.001255446972550599</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.005557197293626914</v>
+        <v>6270.501218742254</v>
       </c>
       <c r="C5" t="n">
-        <v>0.912317440803106</v>
+        <v>0.003808861608342952</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4.977229227892186e-05</v>
+        <v>-95.38790639616514</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4013906508871471</v>
+        <v>0.8581903390507358</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-3.305606353675881</v>
+        <v>60.43808564186446</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6907078111461298</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>9.980215711955282</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1381585788946602</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>495.3474266813555</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.6840606331647752</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>640.4137858629429</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.3657992807662812</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>10214.31651923772</v>
-      </c>
-      <c r="C11" t="n">
-        <v>8.884883313985576e-06</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-3.697548519761781</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.8013325086280403</v>
+        <v>0.3247647880358936</v>
       </c>
     </row>
   </sheetData>
@@ -4234,7 +2869,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4266,140 +2901,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>277.5113577468539</v>
+        <v>2249.816581532369</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8262532592895185</v>
+        <v>4.049502009846429e-05</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>69.03765312056183</v>
+        <v>245.4292015649527</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3561014505408578</v>
+        <v>1.352015750723926e-07</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>203.0378090470618</v>
+        <v>-0.07715405334259609</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0005848934920207136</v>
+        <v>0.01197379018602398</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03002987355867208</v>
+        <v>9030.680356103516</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4315643960674663</v>
+        <v>0.0002603330664992894</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.513665994825601e-05</v>
+        <v>-29.29519062864279</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6098894923955158</v>
+        <v>0.9598526607814017</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.40997045372643</v>
+        <v>94.74748242571218</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8577233535434892</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>10.58590248264044</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1624560703692931</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>201.7670284027122</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.8804176724972486</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>560.8733705970808</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.4340531264600493</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>10833.24843732606</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.404226488917796e-05</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-10.6224715029557</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.5671031126007724</v>
+        <v>0.1291312858638368</v>
       </c>
     </row>
   </sheetData>
@@ -4413,7 +2983,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4445,140 +3015,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-650.627271784992</v>
+        <v>1109.508303531663</v>
       </c>
       <c r="C2" t="n">
-        <v>0.584341343183616</v>
+        <v>0.01989027477260419</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>89.67954415155992</v>
+        <v>256.8311725207828</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1995333665596319</v>
+        <v>1.084217394996241e-09</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>171.410922666326</v>
+        <v>-0.06602455724843898</v>
       </c>
       <c r="C4" t="n">
-        <v>0.003391484065091966</v>
+        <v>0.004464908871560228</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02067990849667274</v>
+        <v>14388.39451159203</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5449935826865365</v>
+        <v>2.625177014785298e-09</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.992979242099077e-05</v>
+        <v>387.2174220461811</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4958486697737911</v>
+        <v>0.3969399575691118</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.183678983091067</v>
+        <v>139.6814378960328</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8693264929574174</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>13.99549126485269</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.04298458289052523</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>409.1691874955045</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.7373446109952569</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>439.0651965158269</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.4972914366656153</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>12062.77485181904</v>
-      </c>
-      <c r="C11" t="n">
-        <v>6.337379299739956e-07</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>4.639359332335438</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.7831621495757323</v>
+        <v>0.009654311094715897</v>
       </c>
     </row>
   </sheetData>
@@ -4592,7 +3097,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4624,140 +3129,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2319.297079341156</v>
+        <v>1200.893159536097</v>
       </c>
       <c r="C2" t="n">
-        <v>0.05082387370115348</v>
+        <v>0.03583278926942957</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.490084277389826</v>
+        <v>280.543714616081</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9666959787676096</v>
+        <v>3.661475594660938e-08</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>152.0346410956318</v>
+        <v>-0.06698549427985849</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001120850489025867</v>
+        <v>0.05774272370942517</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03675420651961964</v>
+        <v>13448.98875356597</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2522755130003325</v>
+        <v>2.627051637208561e-07</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5.444051378918085e-05</v>
+        <v>602.9967602570539</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3235996721077506</v>
+        <v>0.2593009885806763</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-3.904008592536552</v>
+        <v>82.34700377977694</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5971999303817409</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>5.403125809256643</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.5054894518282689</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-283.6292260269702</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.7996335550131725</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>237.0882503749176</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.6997363077092413</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>7195.719672865937</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.0004258675722978205</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-8.602839519343334</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.592436528264531</v>
+        <v>0.174361173016797</v>
       </c>
     </row>
   </sheetData>
@@ -4771,7 +3211,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4803,140 +3243,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-182.8673169764761</v>
+        <v>1415.401334045073</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8799402685550148</v>
+        <v>0.009575222574375758</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.798276636693629</v>
+        <v>251.4679405586355</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9480230777325548</v>
+        <v>2.871454411480752e-07</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>228.408212030165</v>
+        <v>-0.08289326889265319</v>
       </c>
       <c r="C4" t="n">
-        <v>3.320588280960849e-05</v>
+        <v>0.005408427219541915</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.006424986865461141</v>
+        <v>13490.47241362984</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9180493487691055</v>
+        <v>4.777518653490532e-07</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5.512795994958333e-05</v>
+        <v>511.7136897392004</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3896562145429052</v>
+        <v>0.3882120398356359</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.9223458115156671</v>
+        <v>102.9455937287022</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9213789404975239</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>14.13604802443719</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.05334287908448449</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1055.656768345895</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.4058852280180815</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>428.0256352146814</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.5634822744335586</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>7367.722627702267</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.002115142549666688</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>6.078580897622821</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.7194603534105674</v>
+        <v>0.1045232757368051</v>
       </c>
     </row>
   </sheetData>
@@ -4950,7 +3325,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4982,140 +3357,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>811.3040858998438</v>
+        <v>2240.327201591064</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5048322078949958</v>
+        <v>2.10736869019119e-05</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>88.68462829802392</v>
+        <v>249.0241335900363</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1617442680311119</v>
+        <v>6.799881101215671e-08</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>205.0366872006829</v>
+        <v>-0.08007873220455382</v>
       </c>
       <c r="C4" t="n">
-        <v>8.02499279946132e-05</v>
+        <v>0.005016267712489121</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02568710266139866</v>
+        <v>7557.770969971203</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4672938733492984</v>
+        <v>0.001025825814640604</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0001168764697813585</v>
+        <v>46.66121322362596</v>
       </c>
       <c r="C6" t="n">
-        <v>0.08031112825027573</v>
+        <v>0.928782671239048</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.283168487283548</v>
+        <v>129.701039463268</v>
       </c>
       <c r="C7" t="n">
-        <v>0.301746097000871</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>9.471080468580391</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1880454541856174</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1400.439931308087</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.3069140070599408</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-16.59209037864593</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.9797743879055745</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>8271.434196048316</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.0004254805674319484</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-14.74287251507305</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.3750327508156635</v>
+        <v>0.02853494353728859</v>
       </c>
     </row>
   </sheetData>
@@ -5129,7 +3439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5161,140 +3471,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2642.486064364197</v>
+        <v>2744.656860138466</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04319900092429362</v>
+        <v>3.113892031904407e-07</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>70.54687293650727</v>
+        <v>264.1235685774262</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2814041513853175</v>
+        <v>6.117582419928169e-09</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>154.5564117290996</v>
+        <v>-0.08631835305025364</v>
       </c>
       <c r="C4" t="n">
-        <v>0.004006955204178361</v>
+        <v>0.0009397773496408656</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.04044219805914515</v>
+        <v>6781.088924244134</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2369136084040431</v>
+        <v>0.001444463725214025</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5.559537757070788e-05</v>
+        <v>-184.4844168180798</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3492634393652944</v>
+        <v>0.7284987086724011</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-7.788288842575845</v>
+        <v>50.65113341852157</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2827178433707982</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-3.799537242375237</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.626659006520766</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>465.1456361894066</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.6832774598653779</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>469.9535174306623</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.4642337205302929</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>9358.003509073975</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2.884916711441384e-05</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-9.905099556817973</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.5325693216234357</v>
+        <v>0.4323081521125949</v>
       </c>
     </row>
   </sheetData>
@@ -5308,7 +3553,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5340,140 +3585,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-91.56984736030108</v>
+        <v>1964.622254295085</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9398936289504956</v>
+        <v>0.0003747323235175336</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.31843776218918</v>
+        <v>245.2506863087023</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8099035824836798</v>
+        <v>2.919407493111243e-07</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>172.9723766872188</v>
+        <v>-0.07246318549114272</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0006177886458880687</v>
+        <v>0.06032160438237236</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0298897709796586</v>
+        <v>9694.693484421528</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4125666764229862</v>
+        <v>4.905027820232783e-05</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.03073537154197e-05</v>
+        <v>96.38482638583037</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6425288252961463</v>
+        <v>0.8703057516123819</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.4746729344541607</v>
+        <v>135.8858868064839</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9532664876268502</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>22.20899307421369</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.002734358851763408</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-216.1572839598994</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.8587955491780374</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>276.0406033493996</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.6806839900291837</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>9783.571714518544</v>
-      </c>
-      <c r="C11" t="n">
-        <v>3.51674585305614e-05</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-7.016347268217061</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.6838855797962955</v>
+        <v>0.03160860576763666</v>
       </c>
     </row>
   </sheetData>
@@ -5487,7 +3667,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5519,140 +3699,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-453.7911176223324</v>
+        <v>1452.68423686177</v>
       </c>
       <c r="C2" t="n">
-        <v>0.715705474030282</v>
+        <v>0.004591879654362098</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>45.23198754763585</v>
+        <v>230.6479922115076</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4987000192183567</v>
+        <v>9.460686991356545e-08</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>195.0262659227371</v>
+        <v>-0.06662884794417433</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0004565759269614741</v>
+        <v>0.0109758836635622</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02912126295630216</v>
+        <v>12399.01176004548</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4331473834587054</v>
+        <v>2.325651001574879e-07</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.584532351456665e-05</v>
+        <v>249.0646356534999</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6990244747091257</v>
+        <v>0.6249314627624609</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.632819499070395</v>
+        <v>148.1675358147261</v>
       </c>
       <c r="C7" t="n">
-        <v>0.733002465533092</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>14.51481971505522</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.03801759547564237</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-138.6801767790894</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.9177310803426801</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>249.8030635845171</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.7180193406891454</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>10569.74800356143</v>
-      </c>
-      <c r="C11" t="n">
-        <v>8.189503798946421e-06</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>5.686660336395093</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.7459575426155864</v>
+        <v>0.01146532866784472</v>
       </c>
     </row>
   </sheetData>
@@ -5666,7 +3781,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5698,140 +3813,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>438.1697249553736</v>
+        <v>2478.898370623891</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7216335354241766</v>
+        <v>9.508610970247574e-08</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-26.37276464806979</v>
+        <v>274.5785732275491</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6835526609997784</v>
+        <v>2.125228755610033e-10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>211.7305649209167</v>
+        <v>-0.07289467998168062</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0001758505775355304</v>
+        <v>0.002491283151544946</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03711297792278723</v>
+        <v>7142.508306458239</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5065352463456675</v>
+        <v>0.0002309355143312603</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0001245919211055573</v>
+        <v>-165.7172079085693</v>
       </c>
       <c r="C6" t="n">
-        <v>0.06466128476603254</v>
+        <v>0.7300743523267895</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2.597820260158453</v>
+        <v>82.56870913248622</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7560871835225951</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>22.57334099049359</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.005001873770194267</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>530.6646061772499</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.6705856474787244</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>100.6602494062572</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.8759962820185756</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>7279.014834614557</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.003027085379002032</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-9.18371206800181</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.6233413488043439</v>
+        <v>0.1348268871780881</v>
       </c>
     </row>
   </sheetData>
@@ -5845,7 +3895,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5877,140 +3927,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>730.3403134509488</v>
+        <v>1720.073746113841</v>
       </c>
       <c r="C2" t="n">
-        <v>0.548907949810776</v>
+        <v>0.0021741960626877</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>32.01394921502738</v>
+        <v>227.3753928139062</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6118387870039586</v>
+        <v>5.218561972108917e-06</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>219.6152574928808</v>
+        <v>-0.06741719991902886</v>
       </c>
       <c r="C4" t="n">
-        <v>1.570402340560292e-05</v>
+        <v>0.1956755355972103</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.04513139093680024</v>
+        <v>11004.76498851408</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2345068236713335</v>
+        <v>8.736427091623617e-06</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.623650767292372e-05</v>
+        <v>-19.08946184669253</v>
       </c>
       <c r="C6" t="n">
-        <v>0.626408025846215</v>
+        <v>0.9739202445590587</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.83773564793017</v>
+        <v>153.2506879157145</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5494857596566822</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>8.170074375447932</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2319640329784294</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-20.2376658277276</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.9875391313716415</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>311.9173112915134</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.6232225876051531</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>10412.88505384536</v>
-      </c>
-      <c r="C11" t="n">
-        <v>3.687371999853562e-06</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-14.53586442297183</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.3533671227628188</v>
+        <v>0.02153906813686478</v>
       </c>
     </row>
   </sheetData>
@@ -6024,7 +4009,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6056,140 +4041,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-216.7537048146307</v>
+        <v>1328.422251707038</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8617523627731289</v>
+        <v>0.01744836798143974</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>74.21157894733841</v>
+        <v>288.0030378341321</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3405623971790253</v>
+        <v>1.645817333551622e-08</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>165.1419257907294</v>
+        <v>-0.07928348610721607</v>
       </c>
       <c r="C4" t="n">
-        <v>0.004804034857794898</v>
+        <v>0.003074258104574883</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03364748467116807</v>
+        <v>13100.08594734338</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3808657518095288</v>
+        <v>1.44237259504378e-06</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.609801067537148e-05</v>
+        <v>708.3548640039505</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8136659944762523</v>
+        <v>0.2272059263348168</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-5.727482217741423</v>
+        <v>64.25364004164538</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5174414948536269</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>13.55657422275796</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.0679447120777872</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1725.529232871226</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2240327136993878</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>618.9614295035053</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.4355283574854868</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>10637.55548390318</v>
-      </c>
-      <c r="C11" t="n">
-        <v>8.409769295498565e-05</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>6.302763734314013</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.7081678726963291</v>
+        <v>0.2981864893960157</v>
       </c>
     </row>
   </sheetData>
@@ -6203,7 +4123,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6235,140 +4155,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-156.3506492842578</v>
+        <v>1829.972966186762</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8935527419230543</v>
+        <v>0.001107135908774202</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>150.2679646182719</v>
+        <v>222.2857560415347</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02329241646931049</v>
+        <v>7.853516505836777e-07</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>126.0501206384319</v>
+        <v>-0.07491960504454799</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01205740872911615</v>
+        <v>0.006332628195786136</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.04125389327815013</v>
+        <v>10749.95156397171</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2255570300875844</v>
+        <v>2.294935661965297e-05</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.821137901571621e-05</v>
+        <v>139.3767370544992</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6195796879096495</v>
+        <v>0.7941052507434219</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2094372638352056</v>
+        <v>162.9393490951977</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9763119035116989</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>16.40269044978184</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.01618954973598974</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-108.5525011506247</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.9252242643079587</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>839.9364390384621</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2053954239118594</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>9438.118829913208</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.090136284196955e-05</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-3.764976826076378</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.8111575159217896</v>
+        <v>0.00871621336441099</v>
       </c>
     </row>
   </sheetData>
@@ -6382,7 +4237,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6414,140 +4269,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>63.36339712185691</v>
+        <v>2358.018882452812</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9605956475702712</v>
+        <v>2.202189905467348e-06</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>77.0954419960689</v>
+        <v>255.3699686274907</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2975466519287573</v>
+        <v>4.722858231040596e-08</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>167.9671271912232</v>
+        <v>-0.07698080835738923</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001675444131216257</v>
+        <v>0.006732178367713942</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01497558358867154</v>
+        <v>9178.42159974997</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7928489910955214</v>
+        <v>2.521607920864933e-05</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5.948971706490352e-05</v>
+        <v>-354.9969014256869</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4233631264460974</v>
+        <v>0.5023487497423218</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-3.749920958229264</v>
+        <v>77.19196659674812</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7048062662285005</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>13.6814483174067</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.06491445920385636</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>631.4645163461507</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.6197350009280697</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>475.0335995977921</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.4860249859142448</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>10322.48885881398</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.461421720085773e-05</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0.0375658315862637</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.9982728675481223</v>
+        <v>0.1904277480669551</v>
       </c>
     </row>
   </sheetData>
@@ -6561,7 +4351,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6593,140 +4383,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1009.571530657206</v>
+        <v>2299.480127540499</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4368307921245522</v>
+        <v>3.874003023293846e-05</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>36.95972301200152</v>
+        <v>237.0326132361396</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5677645318188114</v>
+        <v>1.593252453533752e-07</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>198.0952721403781</v>
+        <v>-0.09058536808582479</v>
       </c>
       <c r="C4" t="n">
-        <v>0.000141202680381125</v>
+        <v>0.002587299305864244</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02100827173192979</v>
+        <v>8930.209230196448</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5430525526754824</v>
+        <v>0.0001293934626363646</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5.886811080236344e-05</v>
+        <v>140.9938464408469</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3230912148563796</v>
+        <v>0.8172163535199302</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4036247283953074</v>
+        <v>96.65998820966203</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9587758945303478</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>4.732230185315959</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.5357312351001362</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>624.0519395278582</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.625219800591295</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>8.394688556506026</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.9895257282608556</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>8548.709263964178</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.0001577959238770098</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>2.09179461524532</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.8970829904834559</v>
+        <v>0.1367858789813462</v>
       </c>
     </row>
   </sheetData>
@@ -6740,7 +4465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6772,140 +4497,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>44.05865288117002</v>
+        <v>2149.796068650726</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9673539765544477</v>
+        <v>0.0001391288924097327</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>25.56691186861083</v>
+        <v>224.9784016996878</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7069580380999686</v>
+        <v>4.149820824827497e-06</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>152.0257378499713</v>
+        <v>-0.0801198760406433</v>
       </c>
       <c r="C4" t="n">
-        <v>0.002787906076289561</v>
+        <v>0.005522745154823973</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.04506115464609126</v>
+        <v>9632.628453809712</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1685315544859265</v>
+        <v>0.0001409220065209308</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6.969205408186821e-05</v>
+        <v>-90.86970611007473</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2098851772657596</v>
+        <v>0.8732466073258458</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.33340348357634</v>
+        <v>130.4148783664406</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6248109183046799</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>30.76213133107432</v>
-      </c>
-      <c r="C8" t="n">
-        <v>7.573382192418675e-05</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-744.365377395995</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.495960386952394</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>520.8676651755834</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.4475338669700438</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>7209.49903002319</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.001750355215430338</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-18.10424214646643</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2596268889816142</v>
+        <v>0.04234899448549105</v>
       </c>
     </row>
   </sheetData>
@@ -6919,7 +4579,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6951,140 +4611,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-154.4737162965607</v>
+        <v>2114.79513693083</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8969447191273905</v>
+        <v>2.735207588672028e-05</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>33.08032950106974</v>
+        <v>263.8528993101124</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5984561653065611</v>
+        <v>6.648285738581535e-09</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>220.4063874449034</v>
+        <v>-0.07238488620653949</v>
       </c>
       <c r="C4" t="n">
-        <v>8.371007912360283e-05</v>
+        <v>0.007511694109484004</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01621650226081288</v>
+        <v>9085.54791029831</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6522642221157624</v>
+        <v>2.759150165405033e-05</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5.663522371825226e-05</v>
+        <v>-10.38213046815827</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3643327187398691</v>
+        <v>0.9851431030447889</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.141234430308668</v>
+        <v>102.8796681661594</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7007060451647836</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>13.12584541521427</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.05293765271400718</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1388.810580936933</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2565851805069929</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>63.14852654968399</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.9269171224213236</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>8362.735711016085</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.0001183915235310843</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>1.659936621085301</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.9124537140360156</v>
+        <v>0.1413231228338016</v>
       </c>
     </row>
   </sheetData>
@@ -7098,7 +4693,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7130,140 +4725,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1019.619741585279</v>
+        <v>1962.200870221522</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4380946971396739</v>
+        <v>0.0003478560088203554</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>60.18460092630744</v>
+        <v>234.7920542065742</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3645034333072958</v>
+        <v>5.073819238308527e-07</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>200.5557426467958</v>
+        <v>-0.08424345290629517</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0002004578274321983</v>
+        <v>0.006330529259674987</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.04204796505121054</v>
+        <v>9451.843522481315</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2725120040957818</v>
+        <v>0.0001095485061037181</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.692102934104517e-05</v>
+        <v>456.6535346289768</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7106292663432092</v>
+        <v>0.4144275954054415</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.640414632572524</v>
+        <v>123.9785136747451</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7353412191078819</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>4.938298793353825</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.4872681727987482</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-128.9054863698384</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.9196406849012959</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>27.33192333363877</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.9664232168858176</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>10334.3172991175</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2.201256853509177e-05</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-5.860610492993658</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.7433783238449294</v>
+        <v>0.03830714762761235</v>
       </c>
     </row>
   </sheetData>
@@ -7277,7 +4807,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7309,140 +4839,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-15.37665366366082</v>
+        <v>2086.476994506515</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9909093645401834</v>
+        <v>0.0002302792507279611</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>52.54850642231946</v>
+        <v>236.7073932096133</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4571906741588678</v>
+        <v>7.606966334621632e-07</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>173.3340432499649</v>
+        <v>-0.07640941711549121</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001567204975381637</v>
+        <v>0.03395097327563788</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03737738954972036</v>
+        <v>9645.053968434053</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5106405503271794</v>
+        <v>4.897240466276059e-05</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6.369527553806251e-05</v>
+        <v>-30.8319124998124</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3417003498333755</v>
+        <v>0.9549853145210663</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-7.228090167535356</v>
+        <v>117.7300343898815</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4445454660304089</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>13.09434914912764</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.08803882222074415</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>767.7997862607743</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.654688908896915</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>177.2278998082397</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.79635610221654</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>11623.19007347223</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2.512790837143154e-05</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>4.737027567582572</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.7928994015683608</v>
+        <v>0.06299625432544671</v>
       </c>
     </row>
   </sheetData>
@@ -7456,7 +4921,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7488,140 +4953,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1192.519903507237</v>
+        <v>1622.085385081775</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3399591457162936</v>
+        <v>0.001608328651507166</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>68.03149446197972</v>
+        <v>261.2974709409031</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2942957969053355</v>
+        <v>1.130119832007533e-08</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.7693796511772</v>
+        <v>-0.07935959856233489</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0003149605313192842</v>
+        <v>0.002820122861605754</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02935699794391031</v>
+        <v>11896.87090475948</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4164674987028477</v>
+        <v>1.038994541866944e-06</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6.547854659958569e-05</v>
+        <v>349.1221654263659</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3260399924268662</v>
+        <v>0.5234757555146943</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2.505480913261687</v>
+        <v>113.528989971757</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7451415345908257</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>1.689981784281041</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.822406999664699</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>855.1354814528713</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.471371700414818</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>465.8140815897272</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.4909331004674279</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>9340.393628692587</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.376943253628856e-05</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0.769377827447423</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.9616825647134489</v>
+        <v>0.0471092219778591</v>
       </c>
     </row>
   </sheetData>
@@ -7635,7 +5035,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7667,140 +5067,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2415.207290331186</v>
+        <v>1885.803876947262</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04897878372861291</v>
+        <v>0.0002883858997024978</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>88.83203031448609</v>
+        <v>207.1992799719652</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1474555297521438</v>
+        <v>1.29570353471678e-05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>145.4969551073766</v>
+        <v>-0.08099904471976287</v>
       </c>
       <c r="C4" t="n">
-        <v>0.002597501333838879</v>
+        <v>0.006717095615080783</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.05881454963029961</v>
+        <v>10509.06712512072</v>
       </c>
       <c r="C5" t="n">
-        <v>0.09334488422489373</v>
+        <v>9.359503094224693e-06</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.000022349549904e-07</v>
+        <v>320.2352882573828</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9938500704406414</v>
+        <v>0.5538692123189992</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-7.7977869148068</v>
+        <v>160.266975588821</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3208174264245803</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-1.842541795639356</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.8066503840068557</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>892.5263430969935</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.4612042482248574</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>494.6008639668235</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.4414701880930381</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>7503.317305161043</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.000336884990219576</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-4.796896593387149</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.758400496107912</v>
+        <v>0.01257807725680298</v>
       </c>
     </row>
   </sheetData>
@@ -7814,7 +5149,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7846,140 +5181,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-401.413573652668</v>
+        <v>2120.738215097577</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7544068991705045</v>
+        <v>8.473305845705899e-05</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>71.82451168817992</v>
+        <v>231.7408783978254</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2925373418807912</v>
+        <v>2.666959947519318e-06</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>200.6776274638524</v>
+        <v>-0.08066304169236384</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0002885994979851097</v>
+        <v>0.006377765496290567</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0200269028471359</v>
+        <v>8731.083293411308</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6021272918333351</v>
+        <v>0.0002877874436516967</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5.114194753147284e-05</v>
+        <v>284.7751039953826</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3989106977484257</v>
+        <v>0.646953202374871</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.668035409350679</v>
+        <v>141.1923293162399</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8403374166011927</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>11.07368276510892</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1217215372419198</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>599.3911392169775</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.6171119568646326</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>545.138519473252</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.4644054031243329</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>11858.34099870036</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.508864034342151e-05</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>2.197132769888928</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.9053981734993739</v>
+        <v>0.03748546273819896</v>
       </c>
     </row>
   </sheetData>
@@ -7993,7 +5263,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8025,140 +5295,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-561.6138066673182</v>
+        <v>2037.8506778739</v>
       </c>
       <c r="C2" t="n">
-        <v>0.663146436098472</v>
+        <v>0.0002796140111496673</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>30.57458708484211</v>
+        <v>228.2974108868058</v>
       </c>
       <c r="C3" t="n">
-        <v>0.662158002730729</v>
+        <v>3.888871768056103e-07</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>214.6639955639396</v>
+        <v>-0.07929187903817761</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0001673844514958155</v>
+        <v>0.003710551782815125</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.008884725953349271</v>
+        <v>10529.77591155791</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8161548053774268</v>
+        <v>9.626533069807026e-06</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0001375054730371439</v>
+        <v>-1.905026244238343</v>
       </c>
       <c r="C6" t="n">
-        <v>0.07141041664695053</v>
+        <v>0.9971906777073292</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.328124437097946</v>
+        <v>125.7514076319517</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4454326032455469</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>16.57648127874634</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.02404440930550481</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1414.748233236628</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2752825340553079</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-16.86626571833744</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.9811803717647968</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>9900.171629463821</v>
-      </c>
-      <c r="C11" t="n">
-        <v>5.218530180264158e-05</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>2.699558668173566</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.8735632709356803</v>
+        <v>0.05907607138909437</v>
       </c>
     </row>
   </sheetData>
@@ -8172,7 +5377,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8204,140 +5409,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1298.726678845432</v>
+        <v>2078.957189608135</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2290965454749753</v>
+        <v>2.830447933007507e-05</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-71.17584908205814</v>
+        <v>286.6432735550241</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2845483099742896</v>
+        <v>1.626622259818887e-11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>214.0702151955288</v>
+        <v>-0.06693673453646762</v>
       </c>
       <c r="C4" t="n">
-        <v>1.48579362221333e-05</v>
+        <v>0.04184179623445004</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0003433484872965575</v>
+        <v>9761.461227649259</v>
       </c>
       <c r="C5" t="n">
-        <v>0.994242649429629</v>
+        <v>1.328049636617162e-05</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5.843561880771163e-05</v>
+        <v>-301.3614051022846</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2926331047295459</v>
+        <v>0.5345829379860058</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2.940348778918094</v>
+        <v>77.4012656216744</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6973622454786801</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>19.69315094406323</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.005442408176724302</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-929.0405167017029</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.4911895522440886</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>171.5206761888694</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.7751175405363988</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>7528.328252014</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.0005316683535189901</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-20.30691285397328</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1754833900371648</v>
+        <v>0.10385607401886</v>
       </c>
     </row>
   </sheetData>
@@ -8351,7 +5491,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8383,140 +5523,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1847.596832430887</v>
+        <v>1952.924282953512</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1131525244126905</v>
+        <v>0.0002163850263189478</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>34.55706292507939</v>
+        <v>233.9016789191797</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5789895301794024</v>
+        <v>2.114687368770303e-07</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>224.1954756971239</v>
+        <v>-0.09177445999650535</v>
       </c>
       <c r="C4" t="n">
-        <v>1.306810838911962e-05</v>
+        <v>0.001706518246924317</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02669608547062426</v>
+        <v>9110.672073440848</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3943836187615882</v>
+        <v>9.998301732526294e-05</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5.239907282336068e-05</v>
+        <v>619.3575016665789</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3363859164241116</v>
+        <v>0.2925885610300543</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1.602805666334207</v>
+        <v>142.2636215419692</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8205983823881153</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-3.768712100009458</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.6127146070888443</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>955.3650897414675</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.393841634386269</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>105.0951513408186</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.8646661812880296</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>6706.922469885307</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.003112316994350589</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>2.675560154607712</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.8540258432854375</v>
+        <v>0.02031226464546362</v>
       </c>
     </row>
   </sheetData>
@@ -8530,7 +5605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8562,140 +5637,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-763.0223506436027</v>
+        <v>1902.4588558945</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5585324937589223</v>
+        <v>0.0005510782157921367</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>140.6458408099151</v>
+        <v>271.9228810195193</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0397016027449072</v>
+        <v>7.041267055307748e-09</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>132.5379273812031</v>
+        <v>-0.07787271933795993</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01692398309176509</v>
+        <v>0.007758295134497761</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02590946269827049</v>
+        <v>9235.791611490635</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4634463565890665</v>
+        <v>0.000111133849624465</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4.10656966313237e-05</v>
+        <v>326.8274054586809</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5155219166327584</v>
+        <v>0.5624836477207957</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.407988992883102</v>
+        <v>84.55805775438211</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8496349395642766</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>17.48555681089488</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.01946473240284958</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>60.09899683324329</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.9615546409119156</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>703.127036349584</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2866949425669851</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>10721.83888059026</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2.738138241207734e-06</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>2.412653772003736</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.8871648727823285</v>
+        <v>0.1803284801173995</v>
       </c>
     </row>
   </sheetData>
@@ -8709,7 +5719,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8741,140 +5751,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>953.5881693470917</v>
+        <v>1874.818300142285</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4447862554296832</v>
+        <v>0.0004029249842339605</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.82854196939957</v>
+        <v>251.1346043289185</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8073631658584881</v>
+        <v>6.942998600668339e-08</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>173.8510779900427</v>
+        <v>-0.07060596962961194</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0008604637493434161</v>
+        <v>0.05564966730084854</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.04967086226862973</v>
+        <v>10190.82214931663</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1919657061358075</v>
+        <v>3.781553415406013e-05</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.563853581623031e-05</v>
+        <v>184.5552421324765</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7204651148050556</v>
+        <v>0.7434759599022782</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1.827511420336603</v>
+        <v>116.0875541969228</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8365045771328918</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>21.50779848454032</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.006101608012244927</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-316.742284901062</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.8270329948817562</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>668.8881155986023</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.3074146112078059</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>7992.310533568334</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.0005546565442217317</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-23.71950988198844</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2090359563042044</v>
+        <v>0.0560292196635483</v>
       </c>
     </row>
   </sheetData>
@@ -8888,7 +5833,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8920,140 +5865,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2156.316182120408</v>
+        <v>1196.897968264623</v>
       </c>
       <c r="C2" t="n">
-        <v>0.07258612570970191</v>
+        <v>0.02113228095692012</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.60877772392035</v>
+        <v>231.0376111057295</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8022328254252276</v>
+        <v>2.547198754590548e-07</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>257.5533430827691</v>
+        <v>-0.09982790913120992</v>
       </c>
       <c r="C4" t="n">
-        <v>9.320665925465118e-07</v>
+        <v>0.0005622223035513515</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01926662142441815</v>
+        <v>13141.91854444417</v>
       </c>
       <c r="C5" t="n">
-        <v>0.722320460781654</v>
+        <v>2.178480232732343e-07</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5.26607126804307e-05</v>
+        <v>1159.537503837949</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3409048168624724</v>
+        <v>0.03923652970060613</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.59484050155335</v>
+        <v>164.0175966296528</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6593868257937532</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>17.70066779757072</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.009230104081746881</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1445.980058334103</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1934423076011131</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>252.498013695717</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.6878336196022767</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>7882.419019053659</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.0003863202070088866</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>32.77972704339321</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.04908562727283367</v>
+        <v>0.008002036963128498</v>
       </c>
     </row>
   </sheetData>
@@ -9067,7 +5947,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9099,140 +5979,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1318.662904969085</v>
+        <v>2697.759134542093</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2684597776919259</v>
+        <v>4.784568628111318e-07</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>110.0175621244055</v>
+        <v>267.2183548680985</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1021984416606449</v>
+        <v>2.35122773630347e-09</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>142.6903614703891</v>
+        <v>-0.07756674283213057</v>
       </c>
       <c r="C4" t="n">
-        <v>0.004694836568413694</v>
+        <v>0.002081816685243441</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03441656807640239</v>
+        <v>7330.021865302014</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3146482108665147</v>
+        <v>0.0005910056347285066</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4.074670884031e-05</v>
+        <v>-478.7673167308835</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5008526058943427</v>
+        <v>0.3585110878796016</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-6.678154396752097</v>
+        <v>60.49843019651614</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3722380541772973</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>3.88509186211078</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.5932117434172122</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>612.1025990833948</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.594000562683991</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>507.2684741357631</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.5106526862741063</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>10637.22298121078</v>
-      </c>
-      <c r="C11" t="n">
-        <v>5.331478944397759e-06</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-2.677016766391297</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.8512314401085097</v>
+        <v>0.2953047304687838</v>
       </c>
     </row>
   </sheetData>
@@ -9246,7 +6061,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9278,140 +6093,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1115.830071468605</v>
+        <v>1940.599053391225</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3994087205377228</v>
+        <v>0.0001741174975559986</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>50.17859029126176</v>
+        <v>236.0894080854154</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4491298971525168</v>
+        <v>1.318843215734429e-07</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>181.3444589918597</v>
+        <v>-0.07462871577574759</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001361618684609655</v>
+        <v>0.008092260290570174</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.034016324667539</v>
+        <v>10038.43720096957</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3815148219334322</v>
+        <v>1.20247725031791e-05</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6.88709209719024e-05</v>
+        <v>-28.06404437044182</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3389061435321826</v>
+        <v>0.959766585514801</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.159799965356692</v>
+        <v>144.292353248774</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8871385870890547</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>8.740305787400338</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2380116154771617</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>412.3794748756723</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.7575103256543014</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>323.0737060964786</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.6320136480271142</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>9689.001645765587</v>
-      </c>
-      <c r="C11" t="n">
-        <v>4.322912682848886e-05</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-13.10597300633981</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.4672570650795906</v>
+        <v>0.01884560412851199</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_LR/Montpellier.xlsx
+++ b/outputs/ML_Results/dist_LR/Montpellier.xlsx
@@ -7,56 +7,56 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ10311798" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ10649621" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ10898585" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ11120048" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ11368088" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ11610048" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ11838329" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ12095783" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ12365598" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ12639341" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ12896287" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ13154985" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ13413987" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ13675060" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ14020644" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ14318230" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="summ14572325" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="summ14970866" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="summ15385678" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="summ15639374" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="summ15892826" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="summ16175767" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="summ16430692" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="summ16681504" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="summ16928234" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="summ17193032" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="summ17457407" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="summ17741851" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="summ18002752" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="summ18260354" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="summ18524697" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="summ18772830" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="summ19026494" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="summ19285873" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="summ19565169" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="summ19828733" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="summ20124995" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="summ20395131" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="summ20666075" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="summ20915021" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="summ21254773" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="summ21569361" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="summ21845975" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="summ22106259" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="summ22377478" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="summ22674493" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="summ22924643" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="summ23172184" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="summ23428878" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="summ23700911" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="summ29416723" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ29604762" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ29788548" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ29977503" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ30171389" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ30368842" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ30561157" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ30755071" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ30971902" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ31240680" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ31505169" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ31775463" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ32056301" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ32322137" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ32590861" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ32871889" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ33140304" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="summ33407530" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="summ33673712" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="summ33939753" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="summ34203609" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="summ34489358" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="summ34772652" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="summ35038623" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="summ35313202" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="summ35616160" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="summ35933469" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="summ36238162" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="summ36523407" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="summ36773772" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="summ37074961" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="summ37391755" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="summ37706103" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="summ38022916" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="summ38305047" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="summ38594710" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="summ38971230" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="summ39225007" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="summ39481261" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="summ39741514" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="summ40005172" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="summ40291705" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="summ40573454" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="summ40875080" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="summ41138784" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="summ41440107" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="summ41688620" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="summ41972177" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="summ42255601" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="summ42530850" sheetId="50" state="visible" r:id="rId50"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/outputs/ML_Results/dist_LR/Montpellier.xlsx
+++ b/outputs/ML_Results/dist_LR/Montpellier.xlsx
@@ -7,56 +7,56 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ29416723" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ29604762" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ29788548" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ29977503" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ30171389" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ30368842" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ30561157" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ30755071" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ30971902" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ31240680" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ31505169" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ31775463" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ32056301" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ32322137" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ32590861" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ32871889" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="summ33140304" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="summ33407530" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="summ33673712" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="summ33939753" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="summ34203609" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="summ34489358" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="summ34772652" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="summ35038623" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="summ35313202" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="summ35616160" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="summ35933469" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="summ36238162" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="summ36523407" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="summ36773772" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="summ37074961" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="summ37391755" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="summ37706103" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="summ38022916" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="summ38305047" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="summ38594710" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="summ38971230" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="summ39225007" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="summ39481261" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="summ39741514" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="summ40005172" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="summ40291705" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="summ40573454" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="summ40875080" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="summ41138784" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="summ41440107" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="summ41688620" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="summ41972177" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="summ42255601" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="summ42530850" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="summ33740721" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ33964256" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ34187331" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ34416001" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ34642310" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ34866234" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ35090212" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ35312339" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ35532363" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ35758285" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ35986827" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ36207846" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ36441645" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ36666995" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ36897300" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ37137957" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ37369844" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="summ37605721" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="summ37831277" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="summ38055398" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="summ38277137" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="summ38502339" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="summ38727435" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="summ38964065" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="summ39323022" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="summ39590554" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="summ39835665" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="summ40071117" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="summ40320671" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="summ40567173" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="summ40808482" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="summ41061210" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="summ41300741" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="summ41550270" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="summ41797376" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="summ42047204" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="summ42292272" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="summ42531625" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="summ42778661" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="summ43027611" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="summ43282741" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="summ43529216" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="summ43749589" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="summ43969220" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="summ44200733" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="summ44456315" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="summ44706950" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="summ44954309" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="summ45203967" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="summ45447356" sheetId="50" state="visible" r:id="rId50"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -475,7 +475,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,75 +507,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1987.255706167949</v>
+        <v>380.2401114801951</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0006534742341844309</v>
+        <v>0.7670965179332755</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>233.4651253018516</v>
+        <v>81.45524060182564</v>
       </c>
       <c r="C3" t="n">
-        <v>1.937917434906547e-06</v>
+        <v>0.2788129408100514</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.07856134214774366</v>
+        <v>244.7792977614313</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01154101220627486</v>
+        <v>5.039299189170477e-06</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9752.960223351822</v>
+        <v>-0.03558446083771667</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0001023621126450486</v>
+        <v>0.4262706407117177</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>151.1972553973899</v>
+        <v>-1.099942321456345e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8048226689833964</v>
+        <v>0.8738270485917493</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>139.0668621535042</v>
+        <v>-0.64560112109492</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04986480287413919</v>
+        <v>0.9353813714732793</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-40.58024784640702</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.9771409396941163</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-688.15679967398</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.3518371859756079</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9802.475477645656</v>
+      </c>
+      <c r="C10" t="n">
+        <v>9.277888996502989e-05</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>48.0703211985612</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.008763255375194821</v>
       </c>
     </row>
   </sheetData>
@@ -589,7 +641,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -621,75 +673,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2185.498704553293</v>
+        <v>552.254280123002</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0001082440588515122</v>
+        <v>0.6422739797132371</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>239.8368310461987</v>
+        <v>64.93330057082262</v>
       </c>
       <c r="C3" t="n">
-        <v>1.919226448655898e-06</v>
+        <v>0.3724275834638444</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.07235261423031267</v>
+        <v>268.0197273858057</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01514599954239954</v>
+        <v>8.036094778842224e-07</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9245.071563966112</v>
+        <v>-0.03390102182440818</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0001517238948857191</v>
+        <v>0.3963029386141131</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-137.0599116153362</v>
+        <v>-1.037702577646305e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8054515848871949</v>
+        <v>0.8548321665537716</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>102.6301834243874</v>
+        <v>-2.546070958530908</v>
       </c>
       <c r="C7" t="n">
-        <v>0.125163821152295</v>
+        <v>0.7225932293955708</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>888.6152370371342</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4960093329339176</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-841.6473931817172</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2099280675920065</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9573.921815529397</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8.168936566700575e-05</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>43.34821783355392</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.0164914268309135</v>
       </c>
     </row>
   </sheetData>
@@ -703,7 +807,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -735,75 +839,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1926.251005980955</v>
+        <v>1488.967974678715</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0003220439257863515</v>
+        <v>0.2347150311817804</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>230.422351049106</v>
+        <v>107.9155143593657</v>
       </c>
       <c r="C3" t="n">
-        <v>6.480868829271327e-07</v>
+        <v>0.1301964323852538</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.07492222166692419</v>
+        <v>254.779765245437</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01052183307824931</v>
+        <v>2.816899420682082e-06</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10251.24701837754</v>
+        <v>-0.0431526057138041</v>
       </c>
       <c r="C5" t="n">
-        <v>1.894157883081153e-05</v>
+        <v>0.3098297333438539</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>39.77445009794701</v>
+        <v>-4.060328661729815e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9427839327673351</v>
+        <v>0.5338102060249421</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>134.1963019624091</v>
+        <v>-4.338267234554415</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03201892511170207</v>
+        <v>0.548461900141384</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>864.1763137565576</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.5136215268159046</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-365.3496078091013</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.5941426171502537</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>10347.66208541507</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3.090425531241693e-05</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>19.50217651565602</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.300749867764711</v>
       </c>
     </row>
   </sheetData>
@@ -817,7 +973,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -849,75 +1005,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1540.635296259544</v>
+        <v>-450.9816680915524</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003262830372824747</v>
+        <v>0.6840853531152327</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>287.6488211804798</v>
+        <v>43.58703729889724</v>
       </c>
       <c r="C3" t="n">
-        <v>1.130617502421988e-10</v>
+        <v>0.4639126653141908</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.07537001466423225</v>
+        <v>326.8920593960283</v>
       </c>
       <c r="C4" t="n">
-        <v>0.002495790229939436</v>
+        <v>1.016065835774262e-11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11925.97969032692</v>
+        <v>-0.05038649111441079</v>
       </c>
       <c r="C5" t="n">
-        <v>1.499719980798889e-06</v>
+        <v>0.1499351692576476</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>555.2825648662979</v>
+        <v>1.982699932118041e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.291336076809307</v>
+        <v>0.686362531518721</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>70.12224354639852</v>
+        <v>-2.227552303521191</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2070255110021421</v>
+        <v>0.7294889653970944</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1215.345683191261</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.3130341148311621</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>156.289107046955</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.7923060733854369</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>12732.65212080619</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.401143879292115e-07</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>42.03262848181475</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.004844478790737804</v>
       </c>
     </row>
   </sheetData>
@@ -931,7 +1139,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -963,75 +1171,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2171.156616938878</v>
+        <v>966.0580627325148</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0001105758586565415</v>
+        <v>0.4052639298609171</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>230.2513911717991</v>
+        <v>87.61732411266513</v>
       </c>
       <c r="C3" t="n">
-        <v>4.284601437083011e-06</v>
+        <v>0.2865139977423365</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.09102682781441275</v>
+        <v>270.6333782789245</v>
       </c>
       <c r="C4" t="n">
-        <v>0.002325262828614372</v>
+        <v>4.025204335589232e-07</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8553.290818392596</v>
+        <v>-0.04696596435955555</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0004368460241897529</v>
+        <v>0.2870275600343625</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>409.3201974379599</v>
+        <v>-8.850375630180577e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5197814998280375</v>
+        <v>0.892375427407056</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>134.415086025629</v>
+        <v>-10.07987238172258</v>
       </c>
       <c r="C7" t="n">
-        <v>0.09269721504974981</v>
+        <v>0.1885515584083653</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>622.5381639992615</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.615915291565407</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-457.3697138759744</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.5259100402664201</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>8753.915094810251</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.000240689826005106</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>49.31894103869962</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.003436149418781121</v>
       </c>
     </row>
   </sheetData>
@@ -1045,7 +1305,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1077,75 +1337,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1795.368147707194</v>
+        <v>-9.221256714493393</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001084435622088597</v>
+        <v>0.9936901201243042</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>248.4955669565001</v>
+        <v>81.39338874140705</v>
       </c>
       <c r="C3" t="n">
-        <v>1.59256871029621e-07</v>
+        <v>0.2057652515918809</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.05613132330281502</v>
+        <v>269.2412373167895</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1717881505759081</v>
+        <v>2.538910957878264e-08</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11015.94738485494</v>
+        <v>0.01882944928416432</v>
       </c>
       <c r="C5" t="n">
-        <v>9.836926617682287e-06</v>
+        <v>0.7591140492995553</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-235.2225970273039</v>
+        <v>-2.986629535434694e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6855012676040417</v>
+        <v>0.6322706045647486</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>123.0032888387997</v>
+        <v>-6.345399593215021</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03973435146661855</v>
+        <v>0.3514844400472252</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1009.530758857262</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.469029019403763</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1554.619944285562</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.03784664461913188</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>12517.94306407266</v>
+      </c>
+      <c r="C10" t="n">
+        <v>5.12620654622473e-07</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>56.88655082015752</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.001105354262723768</v>
       </c>
     </row>
   </sheetData>
@@ -1159,7 +1471,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1191,75 +1503,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2362.958388896699</v>
+        <v>1144.614692550671</v>
       </c>
       <c r="C2" t="n">
-        <v>3.711636443572934e-06</v>
+        <v>0.2806224483530212</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>237.3997806259402</v>
+        <v>96.26889785664179</v>
       </c>
       <c r="C3" t="n">
-        <v>1.751776358275346e-07</v>
+        <v>0.122590725724992</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.08235219650414596</v>
+        <v>220.053453012046</v>
       </c>
       <c r="C4" t="n">
-        <v>0.002031790111723365</v>
+        <v>8.758370237330365e-06</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8254.245032546813</v>
+        <v>-0.05705902813431024</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0001294532187261812</v>
+        <v>0.1095048541074331</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-95.78814749860453</v>
+        <v>-2.187120057904099e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8424871405442341</v>
+        <v>0.6659566084357775</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>118.3298233079165</v>
+        <v>7.695984422355018</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03796724255292617</v>
+        <v>0.2803977246559694</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-52.55727666278199</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.9627909728542896</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-391.6172454314283</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.5128749488852802</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>8479.348782407324</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.0001486315777759767</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>18.95221279246188</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.21489751446856</v>
       </c>
     </row>
   </sheetData>
@@ -1273,7 +1637,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1305,75 +1669,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2123.176063012226</v>
+        <v>610.0166213371872</v>
       </c>
       <c r="C2" t="n">
-        <v>5.176721829260263e-05</v>
+        <v>0.5847504165427397</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>237.7659582372584</v>
+        <v>130.3195630041495</v>
       </c>
       <c r="C3" t="n">
-        <v>3.074466518515342e-07</v>
+        <v>0.04865590571276297</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.08163522051550742</v>
+        <v>262.7499848392798</v>
       </c>
       <c r="C4" t="n">
-        <v>0.003116964332599924</v>
+        <v>1.224196481955721e-07</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8558.794381867436</v>
+        <v>-0.06094526523132394</v>
       </c>
       <c r="C5" t="n">
-        <v>0.000157247934603098</v>
+        <v>0.1299361654898764</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>256.4873028201816</v>
+        <v>1.162721257257504e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6451579635747329</v>
+        <v>0.8304386018080079</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>129.4140963577898</v>
+        <v>-6.031228623918642</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03299724125337592</v>
+        <v>0.3764857172494459</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1529.580806438133</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.2124790589799495</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-135.3429640227039</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.847147259875487</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9775.006372022628</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.502636461321153e-05</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>37.69543055760609</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.02348724812756506</v>
       </c>
     </row>
   </sheetData>
@@ -1387,7 +1803,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1419,75 +1835,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1347.375884018426</v>
+        <v>168.2938154957096</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01505234449349884</v>
+        <v>0.8801441264322295</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>275.0106243205829</v>
+        <v>41.57573519370277</v>
       </c>
       <c r="C3" t="n">
-        <v>1.517044520023671e-08</v>
+        <v>0.5528101248881175</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.07053193762091244</v>
+        <v>309.5351517951324</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01214744751044501</v>
+        <v>4.5504895178481e-09</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>13592.07376219978</v>
+        <v>-0.0266411318084831</v>
       </c>
       <c r="C5" t="n">
-        <v>1.900582431699263e-07</v>
+        <v>0.4688307623022454</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>248.7520685319308</v>
+        <v>-4.292924283441577e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6709394527479717</v>
+        <v>0.4512546992474246</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>86.90973832081824</v>
+        <v>-4.060875074197497</v>
       </c>
       <c r="C7" t="n">
-        <v>0.166077021875155</v>
+        <v>0.543731834909196</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1250.974626991603</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.286150907346519</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-300.1144140137972</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.6479344575232473</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>13790.60070378598</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.336235908217306e-07</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>35.93239261701533</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.02354536620355606</v>
       </c>
     </row>
   </sheetData>
@@ -1501,7 +1969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1533,75 +2001,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1948.066480274809</v>
+        <v>-25.68102409651328</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0003450811526285694</v>
+        <v>0.9829974573431267</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>247.4095079194744</v>
+        <v>87.65209848402144</v>
       </c>
       <c r="C3" t="n">
-        <v>2.452810654612266e-07</v>
+        <v>0.1966566982564714</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.07574083102325262</v>
+        <v>288.9869464365059</v>
       </c>
       <c r="C4" t="n">
-        <v>0.008044548158179421</v>
+        <v>5.08840015816884e-08</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9530.072540898045</v>
+        <v>-0.04778683028256726</v>
       </c>
       <c r="C5" t="n">
-        <v>9.062981317215276e-05</v>
+        <v>0.2481380212979058</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>138.3722680616697</v>
+        <v>1.988164713875152e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8125046764315411</v>
+        <v>0.7412183176948424</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>126.7481432154873</v>
+        <v>-2.337298831845011</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0431902172100035</v>
+        <v>0.7395978492428454</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1061.598666312178</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4187093333495361</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-434.7645973399663</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.5382202448881397</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9966.977859913753</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3.543467415360062e-05</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>45.82224543054131</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.008879903982007926</v>
       </c>
     </row>
   </sheetData>
@@ -1615,7 +2135,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1647,75 +2167,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2214.021157474554</v>
+        <v>815.6951450022798</v>
       </c>
       <c r="C2" t="n">
-        <v>3.863507040877295e-05</v>
+        <v>0.4893911617043595</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>266.4216977617352</v>
+        <v>59.14071978055625</v>
       </c>
       <c r="C3" t="n">
-        <v>1.520113636141921e-08</v>
+        <v>0.3836045838696154</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.07081183876577754</v>
+        <v>251.5850468309584</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03748400935803641</v>
+        <v>9.889231741667913e-07</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8758.908621573188</v>
+        <v>-0.03080358803689968</v>
       </c>
       <c r="C5" t="n">
-        <v>7.869322670675775e-05</v>
+        <v>0.6071242593014026</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-127.2528837743043</v>
+        <v>-1.922997698958721e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8075899224717202</v>
+        <v>0.7764137854313238</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>87.10100045875461</v>
+        <v>8.673826504076398</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1546448290185816</v>
+        <v>0.2553845695228052</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-526.3606774984901</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.7190311625910386</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-404.2001783384134</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.5441947065151038</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9601.323796665922</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4.68038613537735e-05</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>18.35917291969361</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2796726703086306</v>
       </c>
     </row>
   </sheetData>
@@ -1729,7 +2301,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1761,75 +2333,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2295.38312905723</v>
+        <v>966.3664687913424</v>
       </c>
       <c r="C2" t="n">
-        <v>6.129405756726828e-05</v>
+        <v>0.4131440917203736</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>261.975420162044</v>
+        <v>72.01739008299273</v>
       </c>
       <c r="C3" t="n">
-        <v>1.056756252690794e-07</v>
+        <v>0.3004982211255461</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.06921101585813957</v>
+        <v>293.99729027232</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05825993878212619</v>
+        <v>3.300185530200298e-08</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7534.571477267567</v>
+        <v>-0.04135816190850522</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001739406389053686</v>
+        <v>0.5153775042948718</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-39.87851839510381</v>
+        <v>8.053182954444738e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9429182155248288</v>
+        <v>0.9043027866187534</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>90.62357581352006</v>
+        <v>-6.77595598216454</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1560459086420395</v>
+        <v>0.3571664885809384</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>933.6203070032179</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4538726884292614</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-728.8905696639374</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.324258683843326</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>8004.055124139155</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.0008651525955124944</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>42.00083847822104</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.01840220453678977</v>
       </c>
     </row>
   </sheetData>
@@ -1843,7 +2467,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1875,75 +2499,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2128.149765565679</v>
+        <v>1677.302475124838</v>
       </c>
       <c r="C2" t="n">
-        <v>6.216747485082983e-05</v>
+        <v>0.1589585450167572</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>221.9102200389097</v>
+        <v>85.17420054052691</v>
       </c>
       <c r="C3" t="n">
-        <v>8.095092420822002e-07</v>
+        <v>0.1916430402526922</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.08975500455873116</v>
+        <v>258.6981800266963</v>
       </c>
       <c r="C4" t="n">
-        <v>0.003201420723278998</v>
+        <v>1.214191261910293e-07</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9301.97395060788</v>
+        <v>-0.03818313919839125</v>
       </c>
       <c r="C5" t="n">
-        <v>0.000152488005677251</v>
+        <v>0.3307077880063373</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>323.8352649426007</v>
+        <v>-3.649564081379203e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5512239160848535</v>
+        <v>0.5315481574016125</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>136.403906924297</v>
+        <v>-12.95827024839379</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03349412230689124</v>
+        <v>0.0876945067924129</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>305.6936387463136</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.7951425097392609</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-743.4216824516153</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2356129511794844</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>8977.520756196847</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.0001752763232101593</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>44.44584181523209</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.006396634283477964</v>
       </c>
     </row>
   </sheetData>
@@ -1957,7 +2633,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1989,75 +2665,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2015.600054130245</v>
+        <v>501.7730178941219</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0004345726742375447</v>
+        <v>0.6731772653431795</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>230.8960287969823</v>
+        <v>98.70664762688185</v>
       </c>
       <c r="C3" t="n">
-        <v>2.402171175970619e-06</v>
+        <v>0.1422377620990499</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.08344604761512289</v>
+        <v>257.3481087272572</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03004346814687456</v>
+        <v>7.064747110828074e-07</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9554.207089481981</v>
+        <v>-0.03888520656215608</v>
       </c>
       <c r="C5" t="n">
-        <v>5.766080110522634e-05</v>
+        <v>0.5319500710594756</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>117.6293758585962</v>
+        <v>-1.552344733895985e-07</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8335983212029099</v>
+        <v>0.998155638640922</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>140.5386024793578</v>
+        <v>-4.739763621710797</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0242395203507446</v>
+        <v>0.4985896379891414</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>349.3785708107839</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.8079745843586655</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-701.2248691577429</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.3162810923293081</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>10488.24941537882</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.18047387203303e-05</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>45.15041641462689</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.008956683147428326</v>
       </c>
     </row>
   </sheetData>
@@ -2071,7 +2799,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2103,75 +2831,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1998.398315721988</v>
+        <v>1522.110480387183</v>
       </c>
       <c r="C2" t="n">
-        <v>9.271778378050675e-05</v>
+        <v>0.1715237594141222</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>222.5004708259701</v>
+        <v>135.1052694526002</v>
       </c>
       <c r="C3" t="n">
-        <v>8.374284300444897e-07</v>
+        <v>0.03401744898534594</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.07981354382754302</v>
+        <v>239.5008044412101</v>
       </c>
       <c r="C4" t="n">
-        <v>0.005963524610722163</v>
+        <v>5.137446264103153e-07</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10014.97211147582</v>
+        <v>-0.00991520166020135</v>
       </c>
       <c r="C5" t="n">
-        <v>1.3684157226323e-05</v>
+        <v>0.7930155683923001</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>63.51002026705225</v>
+        <v>-0.0001108205757290932</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9043145518133814</v>
+        <v>0.09873104675254157</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>162.1069369687519</v>
+        <v>-11.28831754404492</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01157797401098846</v>
+        <v>0.1225669479856784</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1340.210084994934</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.242466465316791</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-907.2767746396025</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1336544502225432</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>10615.8963024713</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3.288261773188484e-06</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>38.96106800810069</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.01104226396740433</v>
       </c>
     </row>
   </sheetData>
@@ -2185,7 +2965,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2217,75 +2997,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2041.933431067877</v>
+        <v>362.6740386639776</v>
       </c>
       <c r="C2" t="n">
-        <v>5.546518949275468e-05</v>
+        <v>0.7223930472121763</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>332.3852051796282</v>
+        <v>-12.3283284594755</v>
       </c>
       <c r="C3" t="n">
-        <v>1.452016240795648e-13</v>
+        <v>0.8366945141706836</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.06617613362265271</v>
+        <v>328.4489961711546</v>
       </c>
       <c r="C4" t="n">
-        <v>0.004124213888591958</v>
+        <v>6.609704893644416e-12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9446.623641102553</v>
+        <v>-0.05226636858856942</v>
       </c>
       <c r="C5" t="n">
-        <v>2.39450685234627e-05</v>
+        <v>0.1265530782772244</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-62.96519019211109</v>
+        <v>5.974020248191501e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.896934788266488</v>
+        <v>0.9008638370715879</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.7922109808389592</v>
+        <v>7.839228208213731</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9880377136780256</v>
+        <v>0.2495449428933913</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>539.0444374898871</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6484963476415889</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-166.1161538810452</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.7726713706750008</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9994.944135615364</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.761987379556e-05</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>21.23565678239614</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1617503644336879</v>
       </c>
     </row>
   </sheetData>
@@ -2299,7 +3131,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2331,75 +3163,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2039.890384692252</v>
+        <v>-303.8225919569684</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0002493078414574255</v>
+        <v>0.7966287401787422</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>237.8569716095256</v>
+        <v>132.5721909503055</v>
       </c>
       <c r="C3" t="n">
-        <v>1.893687615902752e-07</v>
+        <v>0.06313061524934953</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.09385777946192399</v>
+        <v>268.9058532653949</v>
       </c>
       <c r="C4" t="n">
-        <v>0.00174463742401211</v>
+        <v>3.715602226200864e-08</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8275.169610454472</v>
+        <v>-0.06785571298886051</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0008404681989069483</v>
+        <v>0.09838454456808535</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>723.797556468422</v>
+        <v>2.176097432694623e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2370324666945315</v>
+        <v>0.6891161533597399</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>144.6861318632947</v>
+        <v>-1.908168650386482</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02754834656372706</v>
+        <v>0.7792582730586485</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1606.806749597437</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.205601756175779</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>303.2758729772395</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.6886522991157484</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>8806.406339789211</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.000248771564514447</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>49.89905925174374</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.00399999547449853</v>
       </c>
     </row>
   </sheetData>
@@ -2413,7 +3297,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2445,75 +3329,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1982.303480137289</v>
+        <v>1229.360452224618</v>
       </c>
       <c r="C2" t="n">
-        <v>9.310766013305234e-05</v>
+        <v>0.296289881004368</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>194.1118072831234</v>
+        <v>114.6917352964313</v>
       </c>
       <c r="C3" t="n">
-        <v>3.32631635929243e-05</v>
+        <v>0.1189759145037654</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.07040527098527127</v>
+        <v>225.4873490434697</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01412834538599154</v>
+        <v>9.016990760978596e-05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11511.37569948605</v>
+        <v>-0.0582086592399372</v>
       </c>
       <c r="C5" t="n">
-        <v>1.775683137594215e-06</v>
+        <v>0.1633696541471547</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-254.4734812232391</v>
+        <v>2.07787444824063e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.64353720768116</v>
+        <v>0.7333051169868259</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.5721170968561</v>
+        <v>-2.771395627668483</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01560435326859174</v>
+        <v>0.7058005707370075</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-100.2979990450258</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.9361838545344116</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-589.1149375823211</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.3880671081106439</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>11463.05162462399</v>
+      </c>
+      <c r="C10" t="n">
+        <v>5.880399839479363e-06</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>23.86006707656254</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1626676690581145</v>
       </c>
     </row>
   </sheetData>
@@ -2527,7 +3463,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2559,75 +3495,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1640.858655673569</v>
+        <v>807.7660600015301</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0007176176526531439</v>
+        <v>0.4605233491008721</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>192.2960354542254</v>
+        <v>152.891539645269</v>
       </c>
       <c r="C3" t="n">
-        <v>1.173428159315087e-05</v>
+        <v>0.02767412105983112</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.08603574760398555</v>
+        <v>212.590552810285</v>
       </c>
       <c r="C4" t="n">
-        <v>0.003301169213936368</v>
+        <v>3.95457739582899e-05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>12964.08617863378</v>
+        <v>-0.03635110111346339</v>
       </c>
       <c r="C5" t="n">
-        <v>7.043989318354057e-08</v>
+        <v>0.3424364031527378</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-17.94631287061611</v>
+        <v>-7.354865062763977e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9726338684773979</v>
+        <v>0.2516698803753388</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>197.9665111067077</v>
+        <v>-1.304267929574891</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001695925081696999</v>
+        <v>0.8427289546997012</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>785.6811524558575</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.5029590965863696</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-594.2404922910539</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.3436269168027899</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>13324.35169110176</v>
+      </c>
+      <c r="C10" t="n">
+        <v>6.948811216845937e-08</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>26.28017106105054</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.09791701802967873</v>
       </c>
     </row>
   </sheetData>
@@ -2641,7 +3629,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2673,75 +3661,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2049.833421675594</v>
+        <v>628.2597777384076</v>
       </c>
       <c r="C2" t="n">
-        <v>7.701961972388461e-05</v>
+        <v>0.5803342730588215</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>245.4075984827746</v>
+        <v>114.647023645291</v>
       </c>
       <c r="C3" t="n">
-        <v>7.404210465907521e-08</v>
+        <v>0.08510398969469946</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.07310935353735214</v>
+        <v>280.8679263940669</v>
       </c>
       <c r="C4" t="n">
-        <v>0.00823095350744321</v>
+        <v>1.882338321596761e-08</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8484.803017826003</v>
+        <v>-0.04138832524365074</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0001375077149988239</v>
+        <v>0.2809815255168383</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>125.397859028943</v>
+        <v>1.568746782851157e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8215418310602349</v>
+        <v>0.9767212753109404</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>144.8978412581702</v>
+        <v>-5.786778583949555</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01751329516763698</v>
+        <v>0.4108917213793372</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1167.156217720139</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.341889791214512</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-576.4005289598795</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.3904221770767442</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>8875.275946648695</v>
+      </c>
+      <c r="C10" t="n">
+        <v>5.72868047506798e-05</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>41.64657051301195</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.01082008536089397</v>
       </c>
     </row>
   </sheetData>
@@ -2755,7 +3795,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2787,75 +3827,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2627.26816669741</v>
+        <v>1241.983675210348</v>
       </c>
       <c r="C2" t="n">
-        <v>1.225237799670557e-06</v>
+        <v>0.2817270509536146</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>274.9974829906812</v>
+        <v>61.65905046971108</v>
       </c>
       <c r="C3" t="n">
-        <v>1.113579771200491e-09</v>
+        <v>0.3624769635372498</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.08077784128715193</v>
+        <v>270.1945824947118</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001255446972550599</v>
+        <v>2.806453743614187e-08</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6270.501218742254</v>
+        <v>-0.06886043515438482</v>
       </c>
       <c r="C5" t="n">
-        <v>0.003808861608342952</v>
+        <v>0.08321658719499904</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-95.38790639616514</v>
+        <v>4.735212350163916e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8581903390507358</v>
+        <v>0.9312909169901101</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>60.43808564186446</v>
+        <v>4.479540056755027</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3247647880358936</v>
+        <v>0.5436102127202047</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>521.1668027216901</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6813193500652761</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-101.3534846633925</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.8746704575350004</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>7148.784866137377</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.002273546245998417</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>18.32210975748762</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2794651632941039</v>
       </c>
     </row>
   </sheetData>
@@ -2869,7 +3961,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2901,75 +3993,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2249.816581532369</v>
+        <v>982.4539150813916</v>
       </c>
       <c r="C2" t="n">
-        <v>4.049502009846429e-05</v>
+        <v>0.4049283305943483</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>245.4292015649527</v>
+        <v>61.12957858133421</v>
       </c>
       <c r="C3" t="n">
-        <v>1.352015750723926e-07</v>
+        <v>0.3583811918827129</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.07715405334259609</v>
+        <v>285.6202769108326</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01197379018602398</v>
+        <v>9.142523582557456e-09</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9030.680356103516</v>
+        <v>-0.04788010109074523</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0002603330664992894</v>
+        <v>0.2490836871015155</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-29.29519062864279</v>
+        <v>1.394355309774779e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9598526607814017</v>
+        <v>0.8177329915420691</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>94.74748242571218</v>
+        <v>-8.764826136443688</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1291312858638368</v>
+        <v>0.2614710981160349</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>836.6948477051851</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.514045975689425</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-785.4242684093251</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2485480227282049</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9299.158739080403</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.0001266633137724519</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>45.89436326977467</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.006651217133073844</v>
       </c>
     </row>
   </sheetData>
@@ -2983,7 +4127,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3015,75 +4159,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1109.508303531663</v>
+        <v>154.7027371839122</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01989027477260419</v>
+        <v>0.8790676006306738</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>256.8311725207828</v>
+        <v>92.74511177702746</v>
       </c>
       <c r="C3" t="n">
-        <v>1.084217394996241e-09</v>
+        <v>0.09768550281463326</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.06602455724843898</v>
+        <v>286.0083567241496</v>
       </c>
       <c r="C4" t="n">
-        <v>0.004464908871560228</v>
+        <v>1.862498092061752e-10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>14388.39451159203</v>
+        <v>-0.03289831544391721</v>
       </c>
       <c r="C5" t="n">
-        <v>2.625177014785298e-09</v>
+        <v>0.2939130991286916</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>387.2174220461811</v>
+        <v>-7.196359487307113e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3969399575691118</v>
+        <v>0.8711228579982448</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>139.6814378960328</v>
+        <v>-6.730153753472784</v>
       </c>
       <c r="C7" t="n">
-        <v>0.009654311094715897</v>
+        <v>0.3021358404571957</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>358.8961994130168</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.7196194374980873</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-275.7936163562026</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.6047121179926973</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>14827.17947014691</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.524896213674458e-09</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>37.6331282378134</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.003643298095638665</v>
       </c>
     </row>
   </sheetData>
@@ -3097,7 +4293,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3129,75 +4325,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1200.893159536097</v>
+        <v>-5.464316825870583</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03583278926942957</v>
+        <v>0.9962807030792457</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>280.543714616081</v>
+        <v>26.26363093953768</v>
       </c>
       <c r="C3" t="n">
-        <v>3.661475594660938e-08</v>
+        <v>0.6908770260641286</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.06698549427985849</v>
+        <v>307.6210544778039</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05774272370942517</v>
+        <v>1.776467650431434e-08</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>13448.98875356597</v>
+        <v>-0.01358691225717895</v>
       </c>
       <c r="C5" t="n">
-        <v>2.627051637208561e-07</v>
+        <v>0.8126939213669121</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>602.9967602570539</v>
+        <v>-2.582518383219235e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2593009885806763</v>
+        <v>0.6777100790417383</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>82.34700377977694</v>
+        <v>-5.128311813059515</v>
       </c>
       <c r="C7" t="n">
-        <v>0.174361173016797</v>
+        <v>0.4497575779613529</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>380.3772590329488</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.7721560225977425</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-300.791973457116</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.6560616532219654</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>14394.52279777318</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4.893394415213157e-08</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>41.98648546382148</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.01433650865641672</v>
       </c>
     </row>
   </sheetData>
@@ -3211,7 +4459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3243,75 +4491,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1415.401334045073</v>
+        <v>-314.4271811593953</v>
       </c>
       <c r="C2" t="n">
-        <v>0.009575222574375758</v>
+        <v>0.785502184290511</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>251.4679405586355</v>
+        <v>73.77904628074232</v>
       </c>
       <c r="C3" t="n">
-        <v>2.871454411480752e-07</v>
+        <v>0.265397136475127</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.08289326889265319</v>
+        <v>280.6499817395376</v>
       </c>
       <c r="C4" t="n">
-        <v>0.005408427219541915</v>
+        <v>1.647627052374945e-07</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>13490.47241362984</v>
+        <v>-0.03567243659912175</v>
       </c>
       <c r="C5" t="n">
-        <v>4.777518653490532e-07</v>
+        <v>0.3687956227291068</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>511.7136897392004</v>
+        <v>-2.868820964319582e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3882120398356359</v>
+        <v>0.6380476757955463</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>102.9455937287022</v>
+        <v>-3.9519781980806</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1045232757368051</v>
+        <v>0.5436907157398981</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1118.851819436437</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.3774546363509176</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-126.0342611051806</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.8491767010897877</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>14039.84958307346</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.966831131051492e-07</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>45.60730980518566</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.008047837624927291</v>
       </c>
     </row>
   </sheetData>
@@ -3325,7 +4625,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3357,75 +4657,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2240.327201591064</v>
+        <v>1408.913491557505</v>
       </c>
       <c r="C2" t="n">
-        <v>2.10736869019119e-05</v>
+        <v>0.2144427891528843</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>249.0241335900363</v>
+        <v>84.94369538778921</v>
       </c>
       <c r="C3" t="n">
-        <v>6.799881101215671e-08</v>
+        <v>0.1617584708915035</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.08007873220455382</v>
+        <v>292.1373751675297</v>
       </c>
       <c r="C4" t="n">
-        <v>0.005016267712489121</v>
+        <v>5.193936911324127e-09</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7557.770969971203</v>
+        <v>-0.036758593533341</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001025825814640604</v>
+        <v>0.3171400719948511</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>46.66121322362596</v>
+        <v>-9.003976242584081e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.928782671239048</v>
+        <v>0.880225764696398</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>129.701039463268</v>
+        <v>-10.58141923399031</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02853494353728859</v>
+        <v>0.1272047046645318</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>487.0546790440771</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6799722380237013</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-924.5010294167887</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1450775940549102</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>7662.76857669738</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.0005662173217659969</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>43.39137247928149</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.009035131608549197</v>
       </c>
     </row>
   </sheetData>
@@ -3439,7 +4791,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3471,75 +4823,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2744.656860138466</v>
+        <v>873.8378184885482</v>
       </c>
       <c r="C2" t="n">
-        <v>3.113892031904407e-07</v>
+        <v>0.4292506362315106</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>264.1235685774262</v>
+        <v>10.17546737217083</v>
       </c>
       <c r="C3" t="n">
-        <v>6.117582419928169e-09</v>
+        <v>0.8916773643495022</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.08631835305025364</v>
+        <v>241.7286959542473</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0009397773496408656</v>
+        <v>4.475178354172976e-07</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6781.088924244134</v>
+        <v>-0.07463775847953452</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001444463725214025</v>
+        <v>0.05980820543018568</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-184.4844168180798</v>
+        <v>7.554064039937635e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7284987086724011</v>
+        <v>0.8852818962462263</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>50.65113341852157</v>
+        <v>16.21494016552289</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4323081521125949</v>
+        <v>0.08780051083867345</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>21.84822539260722</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.9856510882296781</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-310.4073864815373</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.6390564777280744</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>6992.230469400439</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.001430278746607968</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>16.41338878141283</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.3429063669163118</v>
       </c>
     </row>
   </sheetData>
@@ -3553,7 +4957,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3585,75 +4989,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1964.622254295085</v>
+        <v>705.8096623632878</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0003747323235175336</v>
+        <v>0.5485836371021305</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>245.2506863087023</v>
+        <v>94.99332474973076</v>
       </c>
       <c r="C3" t="n">
-        <v>2.919407493111243e-07</v>
+        <v>0.1642957591780452</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.07246318549114272</v>
+        <v>272.8391834097789</v>
       </c>
       <c r="C4" t="n">
-        <v>0.06032160438237236</v>
+        <v>1.395177240092065e-07</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9694.693484421528</v>
+        <v>-0.03856924015515684</v>
       </c>
       <c r="C5" t="n">
-        <v>4.905027820232783e-05</v>
+        <v>0.5832922204927395</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>96.38482638583037</v>
+        <v>1.553423221820169e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8703057516123819</v>
+        <v>0.9840015461176336</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>135.8858868064839</v>
+        <v>-4.493026622055027</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03160860576763666</v>
+        <v>0.5292396221398133</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>402.6219087190966</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.7654468316946499</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-648.8089312047214</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.3848963604553182</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>10232.44159057922</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.133557161064014e-05</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>39.72676068658683</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.01653383102324964</v>
       </c>
     </row>
   </sheetData>
@@ -3667,7 +5123,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3699,75 +5155,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1452.68423686177</v>
+        <v>-89.01827332335779</v>
       </c>
       <c r="C2" t="n">
-        <v>0.004591879654362098</v>
+        <v>0.9388408705423319</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>230.6479922115076</v>
+        <v>134.4513456417091</v>
       </c>
       <c r="C3" t="n">
-        <v>9.460686991356545e-08</v>
+        <v>0.04097731203778607</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.06662884794417433</v>
+        <v>258.0501457268446</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0109758836635622</v>
+        <v>1.017620067182043e-07</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>12399.01176004548</v>
+        <v>-0.04094574491476659</v>
       </c>
       <c r="C5" t="n">
-        <v>2.325651001574879e-07</v>
+        <v>0.2603506069783864</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>249.0646356534999</v>
+        <v>2.693797484406795e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6249314627624609</v>
+        <v>0.9568930697348059</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>148.1675358147261</v>
+        <v>-2.207987828961592</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01146532866784472</v>
+        <v>0.7325955575328676</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1246.168814151558</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.3300504353299879</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-99.87978652699348</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.872810568197539</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>13053.65156071219</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.3536347020441e-07</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>33.56125985440418</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.02674249478426373</v>
       </c>
     </row>
   </sheetData>
@@ -3781,7 +5289,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3813,75 +5321,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2478.898370623891</v>
+        <v>2056.542269290213</v>
       </c>
       <c r="C2" t="n">
-        <v>9.508610970247574e-08</v>
+        <v>0.05272727944855012</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>274.5785732275491</v>
+        <v>74.08329564829174</v>
       </c>
       <c r="C3" t="n">
-        <v>2.125228755610033e-10</v>
+        <v>0.2224707348695282</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.07289467998168062</v>
+        <v>276.3641460685725</v>
       </c>
       <c r="C4" t="n">
-        <v>0.002491283151544946</v>
+        <v>5.885236448263752e-09</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7142.508306458239</v>
+        <v>-0.04225650095845327</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0002309355143312603</v>
+        <v>0.2474751974647615</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-165.7172079085693</v>
+        <v>-3.463058843843018e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7300743523267895</v>
+        <v>0.5093942803609151</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>82.56870913248622</v>
+        <v>-3.425798970732828</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1348268871780881</v>
+        <v>0.6513929012844633</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>359.3313438637942</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.7454861743362354</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-528.1922574204714</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.3674913236803462</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>7410.345079060307</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.000277385180426331</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>18.37796179135535</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2402255082655823</v>
       </c>
     </row>
   </sheetData>
@@ -3895,7 +5455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3927,75 +5487,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1720.073746113841</v>
+        <v>128.6453188952983</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0021741960626877</v>
+        <v>0.9206138093637943</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>227.3753928139062</v>
+        <v>91.20577252778071</v>
       </c>
       <c r="C3" t="n">
-        <v>5.218561972108917e-06</v>
+        <v>0.2288437915230448</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.06741719991902886</v>
+        <v>254.5894738166944</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1956755355972103</v>
+        <v>6.072566475554526e-06</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11004.76498851408</v>
+        <v>-0.01413877336106367</v>
       </c>
       <c r="C5" t="n">
-        <v>8.736427091623617e-06</v>
+        <v>0.8403026753736277</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-19.08946184669253</v>
+        <v>3.390582388894509e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9739202445590587</v>
+        <v>0.9596349320886088</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.2506879157145</v>
+        <v>0.3995355974006642</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02153906813686478</v>
+        <v>0.9588064587869073</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-250.4941193067305</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.8559622823464247</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-643.0998522458299</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.3849462890420112</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>11540.91205508972</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8.130300875515256e-06</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>38.36986769355887</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.02773569667962348</v>
       </c>
     </row>
   </sheetData>
@@ -4009,7 +5621,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4041,75 +5653,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1328.422251707038</v>
+        <v>-475.7288252821195</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01744836798143974</v>
+        <v>0.6571100900647777</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>288.0030378341321</v>
+        <v>18.63856926595173</v>
       </c>
       <c r="C3" t="n">
-        <v>1.645817333551622e-08</v>
+        <v>0.77198338755357</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.07928348610721607</v>
+        <v>330.708708335227</v>
       </c>
       <c r="C4" t="n">
-        <v>0.003074258104574883</v>
+        <v>1.33885694713441e-09</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>13100.08594734338</v>
+        <v>-0.04324572011146943</v>
       </c>
       <c r="C5" t="n">
-        <v>1.44237259504378e-06</v>
+        <v>0.2533127268392756</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>708.3548640039505</v>
+        <v>1.050959233751068e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2272059263348168</v>
+        <v>0.8456326883254083</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>64.25364004164538</v>
+        <v>-5.166946430464378</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2981864893960157</v>
+        <v>0.4136028715867491</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>894.6233088259955</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4348229641693392</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-41.77420605334146</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.9489392463506162</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>13858.86882577542</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.101572250372544e-07</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>48.99897537008385</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.00246590931878637</v>
       </c>
     </row>
   </sheetData>
@@ -4123,7 +5787,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4155,75 +5819,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1829.972966186762</v>
+        <v>483.0664264877043</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001107135908774202</v>
+        <v>0.6712731273943467</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>222.2857560415347</v>
+        <v>118.92855114707</v>
       </c>
       <c r="C3" t="n">
-        <v>7.853516505836777e-07</v>
+        <v>0.06534622706591703</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.07491960504454799</v>
+        <v>246.8283037228092</v>
       </c>
       <c r="C4" t="n">
-        <v>0.006332628195786136</v>
+        <v>4.185206061667717e-07</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10749.95156397171</v>
+        <v>-0.02895568053459935</v>
       </c>
       <c r="C5" t="n">
-        <v>2.294935661965297e-05</v>
+        <v>0.4541038900307556</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>139.3767370544992</v>
+        <v>-1.926047568631017e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7941052507434219</v>
+        <v>0.7166658238105598</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>162.9393490951977</v>
+        <v>-5.450386519203658</v>
       </c>
       <c r="C7" t="n">
-        <v>0.00871621336441099</v>
+        <v>0.4145137818756722</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>590.9590014739638</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6242272514301335</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-896.5298362732274</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2100275047218875</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>11612.39511105467</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4.76825195438843e-06</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>46.68217479331697</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.00545362567914214</v>
       </c>
     </row>
   </sheetData>
@@ -4237,7 +5953,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4269,75 +5985,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2358.018882452812</v>
+        <v>1857.367079811585</v>
       </c>
       <c r="C2" t="n">
-        <v>2.202189905467348e-06</v>
+        <v>0.1169953546463702</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>255.3699686274907</v>
+        <v>48.5438968491533</v>
       </c>
       <c r="C3" t="n">
-        <v>4.722858231040596e-08</v>
+        <v>0.4674652629144882</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.07698080835738923</v>
+        <v>245.9087411406068</v>
       </c>
       <c r="C4" t="n">
-        <v>0.006732178367713942</v>
+        <v>2.965757875927922e-06</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9178.42159974997</v>
+        <v>-0.05622632932874388</v>
       </c>
       <c r="C5" t="n">
-        <v>2.521607920864933e-05</v>
+        <v>0.149812517611305</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-354.9969014256869</v>
+        <v>-2.678337245798905e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5023487497423218</v>
+        <v>0.6396479284121688</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>77.19196659674812</v>
+        <v>4.754235365025334</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1904277480669551</v>
+        <v>0.5127557323911341</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-472.9198328592488</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.7086687055930923</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-594.9289629619103</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.3494615355965843</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9281.579031581439</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4.784406792919153e-05</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>9.142034305096743</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.6189379342763541</v>
       </c>
     </row>
   </sheetData>
@@ -4351,7 +6119,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4383,75 +6151,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2299.480127540499</v>
+        <v>860.9852669065724</v>
       </c>
       <c r="C2" t="n">
-        <v>3.874003023293846e-05</v>
+        <v>0.4858802031861398</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>237.0326132361396</v>
+        <v>101.9781190544311</v>
       </c>
       <c r="C3" t="n">
-        <v>1.593252453533752e-07</v>
+        <v>0.1674256178459796</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.09058536808582479</v>
+        <v>260.6113362834755</v>
       </c>
       <c r="C4" t="n">
-        <v>0.002587299305864244</v>
+        <v>1.777012831484315e-07</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8930.209230196448</v>
+        <v>-0.06240042770471219</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0001293934626363646</v>
+        <v>0.1509739427086772</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>140.9938464408469</v>
+        <v>-1.704564732098735e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8172163535199302</v>
+        <v>0.7944183585670097</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>96.65998820966203</v>
+        <v>-2.145186692094592</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1367858789813462</v>
+        <v>0.7773032850951972</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2095.035285508571</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.1743675471689154</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-203.4091627862699</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.7769113877284058</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9489.994700443376</v>
+      </c>
+      <c r="C10" t="n">
+        <v>5.683906315782806e-05</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>29.1922123952774</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1027226470412531</v>
       </c>
     </row>
   </sheetData>
@@ -4465,7 +6285,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4497,75 +6317,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2149.796068650726</v>
+        <v>566.8985848310249</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0001391288924097327</v>
+        <v>0.6428840932856437</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>224.9784016996878</v>
+        <v>108.155276307491</v>
       </c>
       <c r="C3" t="n">
-        <v>4.149820824827497e-06</v>
+        <v>0.1247225807757333</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.0801198760406433</v>
+        <v>265.9650309285333</v>
       </c>
       <c r="C4" t="n">
-        <v>0.005522745154823973</v>
+        <v>7.371640316487817e-07</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9632.628453809712</v>
+        <v>-0.05469161184926996</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0001409220065209308</v>
+        <v>0.190963076751557</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-90.86970611007473</v>
+        <v>1.521419629654217e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8732466073258458</v>
+        <v>0.8315394982809645</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>130.4148783664406</v>
+        <v>-5.225581172229717</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04234899448549105</v>
+        <v>0.4505101975734482</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1034.831788652798</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4448854316428497</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-443.6582809760507</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.498812088910775</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>10023.49845059993</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.0001084006013010151</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>40.61710354490553</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.01823844649487897</v>
       </c>
     </row>
   </sheetData>
@@ -4579,7 +6451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4611,75 +6483,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2114.79513693083</v>
+        <v>1199.96991573739</v>
       </c>
       <c r="C2" t="n">
-        <v>2.735207588672028e-05</v>
+        <v>0.2821226687155387</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>263.8528993101124</v>
+        <v>63.07200876148437</v>
       </c>
       <c r="C3" t="n">
-        <v>6.648285738581535e-09</v>
+        <v>0.4225412107377318</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.07238488620653949</v>
+        <v>255.8178649436454</v>
       </c>
       <c r="C4" t="n">
-        <v>0.007511694109484004</v>
+        <v>1.364622189616398e-07</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9085.54791029831</v>
+        <v>-0.04027326890706587</v>
       </c>
       <c r="C5" t="n">
-        <v>2.759150165405033e-05</v>
+        <v>0.3134368685800599</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-10.38213046815827</v>
+        <v>-3.193712922291828e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9851431030447889</v>
+        <v>0.5647163870121672</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>102.8796681661594</v>
+        <v>4.710018468702096</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1413231228338016</v>
+        <v>0.5306278598001072</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-63.02773698630153</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.9579553328042594</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-383.6432992734162</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.5713339245339442</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9234.452010349953</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4.443651213944569e-05</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>19.0091114492982</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2589008214912564</v>
       </c>
     </row>
   </sheetData>
@@ -4693,7 +6617,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4725,75 +6649,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1962.200870221522</v>
+        <v>820.1052558990386</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0003478560088203554</v>
+        <v>0.526341753469094</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>234.7920542065742</v>
+        <v>76.45425186424215</v>
       </c>
       <c r="C3" t="n">
-        <v>5.073819238308527e-07</v>
+        <v>0.2399179522091567</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.08424345290629517</v>
+        <v>271.6157390731581</v>
       </c>
       <c r="C4" t="n">
-        <v>0.006330529259674987</v>
+        <v>4.151151881740902e-08</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9451.843522481315</v>
+        <v>-0.04647573814779558</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0001095485061037181</v>
+        <v>0.2435892625309154</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>456.6535346289768</v>
+        <v>-3.779681023887191e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4144275954054415</v>
+        <v>0.9507443904522996</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>123.9785136747451</v>
+        <v>-8.801904087476196</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03830714762761235</v>
+        <v>0.2709655491141322</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>476.8953158731574</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.7524216118608175</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-395.4016658080595</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.5512936704667775</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9687.269172286793</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4.500127709274132e-05</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>46.67501073236317</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.00996603104941079</v>
       </c>
     </row>
   </sheetData>
@@ -4807,7 +6783,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4839,75 +6815,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2086.476994506515</v>
+        <v>388.7883082413036</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0002302792507279611</v>
+        <v>0.7308611713350992</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>236.7073932096133</v>
+        <v>102.9580018667003</v>
       </c>
       <c r="C3" t="n">
-        <v>7.606966334621632e-07</v>
+        <v>0.1463403348204177</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.07640941711549121</v>
+        <v>262.1430549193201</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03395097327563788</v>
+        <v>2.062736236726537e-06</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9645.053968434053</v>
+        <v>-0.06651121555724854</v>
       </c>
       <c r="C5" t="n">
-        <v>4.897240466276059e-05</v>
+        <v>0.2928493854273508</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-30.8319124998124</v>
+        <v>2.437691125695916e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9549853145210663</v>
+        <v>0.7128958663662339</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>117.7300343898815</v>
+        <v>-0.5374130605809242</v>
       </c>
       <c r="C7" t="n">
-        <v>0.06299625432544671</v>
+        <v>0.9423521459079847</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1226.130594609842</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.3140266834202813</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-334.6241033564976</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.6396145513185432</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>10157.01785118264</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.507564699698285e-05</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>34.14027915926307</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.03557283772524837</v>
       </c>
     </row>
   </sheetData>
@@ -4921,7 +6949,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4953,75 +6981,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1622.085385081775</v>
+        <v>608.2821611276286</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001608328651507166</v>
+        <v>0.5700678257923135</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>261.2974709409031</v>
+        <v>70.45338962210658</v>
       </c>
       <c r="C3" t="n">
-        <v>1.130119832007533e-08</v>
+        <v>0.2361720661692203</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.07935959856233489</v>
+        <v>289.3449158808579</v>
       </c>
       <c r="C4" t="n">
-        <v>0.002820122861605754</v>
+        <v>5.154975858758688e-09</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11896.87090475948</v>
+        <v>-0.03376134742320909</v>
       </c>
       <c r="C5" t="n">
-        <v>1.038994541866944e-06</v>
+        <v>0.3539964543731594</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>349.1221654263659</v>
+        <v>-2.059846342210033e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5234757555146943</v>
+        <v>0.677409105725709</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>113.528989971757</v>
+        <v>-7.220768806287753</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0471092219778591</v>
+        <v>0.2570283239635907</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>431.6710699776372</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6963250430269983</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-603.3160221758958</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.3549107810360342</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>12723.9986496783</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.122451999444885e-07</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>40.82588823269583</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.007911888687581255</v>
       </c>
     </row>
   </sheetData>
@@ -5035,7 +7115,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5067,75 +7147,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1885.803876947262</v>
+        <v>293.5610041376813</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0002883858997024978</v>
+        <v>0.8007677834494455</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>207.1992799719652</v>
+        <v>122.0531392227803</v>
       </c>
       <c r="C3" t="n">
-        <v>1.29570353471678e-05</v>
+        <v>0.08394705402014754</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.08099904471976287</v>
+        <v>228.532915677032</v>
       </c>
       <c r="C4" t="n">
-        <v>0.006717095615080783</v>
+        <v>1.248124242176579e-05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10509.06712512072</v>
+        <v>-0.05137548849880934</v>
       </c>
       <c r="C5" t="n">
-        <v>9.359503094224693e-06</v>
+        <v>0.2086847325869507</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>320.2352882573828</v>
+        <v>1.175868301425815e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5538692123189992</v>
+        <v>0.8419240957815995</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>160.266975588821</v>
+        <v>-1.485789483505187</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01257807725680298</v>
+        <v>0.8346647589798109</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>255.1857003811338</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.8580556731077449</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-246.5552777824214</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.7075628587127609</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>11302.17204331933</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3.506732068942171e-06</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>39.35423900284851</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.01830820040341793</v>
       </c>
     </row>
   </sheetData>
@@ -5149,7 +7281,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5181,75 +7313,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2120.738215097577</v>
+        <v>1017.160643357774</v>
       </c>
       <c r="C2" t="n">
-        <v>8.473305845705899e-05</v>
+        <v>0.3959010774058055</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>231.7408783978254</v>
+        <v>109.4962183298878</v>
       </c>
       <c r="C3" t="n">
-        <v>2.666959947519318e-06</v>
+        <v>0.1370637087961547</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.08066304169236384</v>
+        <v>262.8827823634892</v>
       </c>
       <c r="C4" t="n">
-        <v>0.006377765496290567</v>
+        <v>2.196510854601182e-06</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8731.083293411308</v>
+        <v>-0.05679209389987874</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0002877874436516967</v>
+        <v>0.2004065131769694</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>284.7751039953826</v>
+        <v>1.09971148831799e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.646953202374871</v>
+        <v>0.861100443794554</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>141.1923293162399</v>
+        <v>-5.566176649766781</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03748546273819896</v>
+        <v>0.46591819166478</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>550.5996934090017</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6720890247997091</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-333.3488183022555</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.6605573943146471</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9289.713135829352</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.0001598750626987733</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>35.23779760358208</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.03721041189988487</v>
       </c>
     </row>
   </sheetData>
@@ -5263,7 +7447,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5295,75 +7479,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2037.8506778739</v>
+        <v>-220.5446232273616</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0002796140111496673</v>
+        <v>0.859869496128982</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>228.2974108868058</v>
+        <v>123.3449160286072</v>
       </c>
       <c r="C3" t="n">
-        <v>3.888871768056103e-07</v>
+        <v>0.07693950252611731</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.07929187903817761</v>
+        <v>256.8562575708447</v>
       </c>
       <c r="C4" t="n">
-        <v>0.003710551782815125</v>
+        <v>1.022725752970896e-07</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10529.77591155791</v>
+        <v>-0.03791184715607301</v>
       </c>
       <c r="C5" t="n">
-        <v>9.626533069807026e-06</v>
+        <v>0.3322217563181753</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.905026244238343</v>
+        <v>-1.04101756189191e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9971906777073292</v>
+        <v>0.8524470264928772</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>125.7514076319517</v>
+        <v>-3.412204304459156</v>
       </c>
       <c r="C7" t="n">
-        <v>0.05907607138909437</v>
+        <v>0.6669754957715209</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1892.284556207308</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.1265626857731308</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-366.0511429371686</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.5519789183291703</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>11269.74486178413</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.475487296820031e-06</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>49.01756517360731</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.003517760473538771</v>
       </c>
     </row>
   </sheetData>
@@ -5377,7 +7613,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5409,75 +7645,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2078.957189608135</v>
+        <v>1234.71694294643</v>
       </c>
       <c r="C2" t="n">
-        <v>2.830447933007507e-05</v>
+        <v>0.2067075130134749</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>286.6432735550241</v>
+        <v>34.67827679984446</v>
       </c>
       <c r="C3" t="n">
-        <v>1.626622259818887e-11</v>
+        <v>0.5122438373244476</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.06693673453646762</v>
+        <v>294.3127049462898</v>
       </c>
       <c r="C4" t="n">
-        <v>0.04184179623445004</v>
+        <v>1.256358030267222e-10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9761.461227649259</v>
+        <v>-0.01702356856766402</v>
       </c>
       <c r="C5" t="n">
-        <v>1.328049636617162e-05</v>
+        <v>0.7327065164604516</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-301.3614051022846</v>
+        <v>-3.983114845446155e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5345829379860058</v>
+        <v>0.4358590372141261</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>77.4012656216744</v>
+        <v>1.062763124496222</v>
       </c>
       <c r="C7" t="n">
-        <v>0.10385607401886</v>
+        <v>0.8568474431659285</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-178.9699383061527</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.8606845859622905</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-899.8291984333127</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1358684469561994</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>10285.86534006246</v>
+      </c>
+      <c r="C10" t="n">
+        <v>7.506338840101666e-06</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>23.2542811702095</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1269377271119271</v>
       </c>
     </row>
   </sheetData>
@@ -5491,7 +7779,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5523,75 +7811,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1952.924282953512</v>
+        <v>19.42015142177479</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0002163850263189478</v>
+        <v>0.9862012006120241</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>233.9016789191797</v>
+        <v>132.4553744008011</v>
       </c>
       <c r="C3" t="n">
-        <v>2.114687368770303e-07</v>
+        <v>0.04439519513152748</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.09177445999650535</v>
+        <v>269.9889934435172</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001706518246924317</v>
+        <v>3.29519977870475e-08</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9110.672073440848</v>
+        <v>-0.05182484414392383</v>
       </c>
       <c r="C5" t="n">
-        <v>9.998301732526294e-05</v>
+        <v>0.2027808182508436</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>619.3575016665789</v>
+        <v>-1.770351722737079e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2925885610300543</v>
+        <v>0.7704714207592342</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>142.2636215419692</v>
+        <v>-3.983933975172917</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02031226464546362</v>
+        <v>0.5386287997418309</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2423.9310277155</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.07009889994369312</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>99.37815345727336</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.8860806156819224</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9932.274400343005</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.12714046239342e-05</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>42.21229548562336</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.01013250259751103</v>
       </c>
     </row>
   </sheetData>
@@ -5605,7 +7945,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5637,75 +7977,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1902.4588558945</v>
+        <v>845.4319786982205</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0005510782157921367</v>
+        <v>0.4678422403054955</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>271.9228810195193</v>
+        <v>45.48864430279169</v>
       </c>
       <c r="C3" t="n">
-        <v>7.041267055307748e-09</v>
+        <v>0.515787888450904</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.07787271933795993</v>
+        <v>302.7134743617725</v>
       </c>
       <c r="C4" t="n">
-        <v>0.007758295134497761</v>
+        <v>5.082418727653463e-09</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9235.791611490635</v>
+        <v>-0.0369830962886751</v>
       </c>
       <c r="C5" t="n">
-        <v>0.000111133849624465</v>
+        <v>0.3692734905952747</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>326.8274054586809</v>
+        <v>-2.523181196072494e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5624836477207957</v>
+        <v>0.6879407801668764</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>84.55805775438211</v>
+        <v>-5.576518838941144</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1803284801173995</v>
+        <v>0.4165537245257058</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1066.3529286046</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4010170759282204</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-416.7371714921455</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.5542995230165995</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9715.663477935195</v>
+      </c>
+      <c r="C10" t="n">
+        <v>6.05716563585167e-05</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>36.20163485727352</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.03220361476209229</v>
       </c>
     </row>
   </sheetData>
@@ -5719,7 +8111,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5751,75 +8143,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1874.818300142285</v>
+        <v>327.2787638251057</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0004029249842339605</v>
+        <v>0.782766409385618</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>251.1346043289185</v>
+        <v>88.9426402816259</v>
       </c>
       <c r="C3" t="n">
-        <v>6.942998600668339e-08</v>
+        <v>0.1778885422589513</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.07060596962961194</v>
+        <v>291.6543328631894</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05564966730084854</v>
+        <v>1.461223329733375e-08</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10190.82214931663</v>
+        <v>-0.03020801276700508</v>
       </c>
       <c r="C5" t="n">
-        <v>3.781553415406013e-05</v>
+        <v>0.6460358462689346</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>184.5552421324765</v>
+        <v>9.003795201525445e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7434759599022782</v>
+        <v>0.9002082772937102</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>116.0875541969228</v>
+        <v>-5.958113566167057</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0560292196635483</v>
+        <v>0.3991609191722</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>981.8228508360053</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4421631392593605</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-486.8527067025407</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4929387509916373</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>11004.76646873387</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.219043393228711e-05</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>41.44982095084878</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.0104195390256903</v>
       </c>
     </row>
   </sheetData>
@@ -5833,7 +8277,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5865,75 +8309,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1196.897968264623</v>
+        <v>-334.5919047324787</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02113228095692012</v>
+        <v>0.7708243409693424</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>231.0376111057295</v>
+        <v>123.1801613779116</v>
       </c>
       <c r="C3" t="n">
-        <v>2.547198754590548e-07</v>
+        <v>0.06583628057707268</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.09982790913120992</v>
+        <v>256.8044521027128</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0005622223035513515</v>
+        <v>1.723472694807222e-07</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>13141.91854444417</v>
+        <v>-0.07043192644677804</v>
       </c>
       <c r="C5" t="n">
-        <v>2.178480232732343e-07</v>
+        <v>0.05869138195393654</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1159.537503837949</v>
+        <v>3.700477452179255e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03923652970060613</v>
+        <v>0.9429393775972048</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>164.0175966296528</v>
+        <v>-3.255576316455961</v>
       </c>
       <c r="C7" t="n">
-        <v>0.008002036963128498</v>
+        <v>0.658637262397221</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>679.1977322415356</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.5240747352110759</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>471.5970590480227</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4924646273839778</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>13170.22301049449</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.596363663179438e-07</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>45.33125261378405</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.00473961705694044</v>
       </c>
     </row>
   </sheetData>
@@ -5947,7 +8443,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5979,75 +8475,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2697.759134542093</v>
+        <v>998.1908725129078</v>
       </c>
       <c r="C2" t="n">
-        <v>4.784568628111318e-07</v>
+        <v>0.3560488307592535</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>267.2183548680985</v>
+        <v>73.27196412143435</v>
       </c>
       <c r="C3" t="n">
-        <v>2.35122773630347e-09</v>
+        <v>0.2459381381418565</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.07756674283213057</v>
+        <v>256.971977010811</v>
       </c>
       <c r="C4" t="n">
-        <v>0.002081816685243441</v>
+        <v>1.086187143149662e-07</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7330.021865302014</v>
+        <v>-0.06524498969543807</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0005910056347285066</v>
+        <v>0.1012533500024756</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-478.7673167308835</v>
+        <v>-1.792765707144662e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3585110878796016</v>
+        <v>0.9743733682816925</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>60.49843019651614</v>
+        <v>7.806811424749531</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2953047304687838</v>
+        <v>0.2963968280896448</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1234.098660039682</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.3453207870926134</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-379.958989060754</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.5503124491359681</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>8077.241568705591</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.0003580060216605336</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>16.68972280699228</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2988324976363699</v>
       </c>
     </row>
   </sheetData>
@@ -6061,7 +8609,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6093,75 +8641,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1940.599053391225</v>
+        <v>1617.358279844933</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0001741174975559986</v>
+        <v>0.177747599364057</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>236.0894080854154</v>
+        <v>89.7603644021995</v>
       </c>
       <c r="C3" t="n">
-        <v>1.318843215734429e-07</v>
+        <v>0.1817302756166869</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.07462871577574759</v>
+        <v>269.3109510278717</v>
       </c>
       <c r="C4" t="n">
-        <v>0.008092260290570174</v>
+        <v>8.162524322315042e-08</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10038.43720096957</v>
+        <v>-0.03548703532611597</v>
       </c>
       <c r="C5" t="n">
-        <v>1.20247725031791e-05</v>
+        <v>0.3753123573245694</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-28.06404437044182</v>
+        <v>-3.280242657046656e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.959766585514801</v>
+        <v>0.5993174565869256</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>144.292353248774</v>
+        <v>-7.624953407263614</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01884560412851199</v>
+        <v>0.2681066492336092</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-30.00321781009393</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.9825479722115511</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-768.8712578545814</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2433511480892879</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>10178.15560850267</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.206285299949645e-05</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>28.79808498033378</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.0961062223003117</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_LR/Montpellier.xlsx
+++ b/outputs/ML_Results/dist_LR/Montpellier.xlsx
@@ -7,56 +7,56 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ33740721" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ33964256" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ34187331" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ34416001" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ34642310" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ34866234" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ35090212" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ35312339" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ35532363" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ35758285" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ35986827" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ36207846" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ36441645" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ36666995" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ36897300" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ37137957" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="summ37369844" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="summ37605721" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="summ37831277" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="summ38055398" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="summ38277137" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="summ38502339" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="summ38727435" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="summ38964065" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="summ39323022" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="summ39590554" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="summ39835665" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="summ40071117" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="summ40320671" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="summ40567173" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="summ40808482" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="summ41061210" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="summ41300741" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="summ41550270" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="summ41797376" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="summ42047204" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="summ42292272" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="summ42531625" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="summ42778661" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="summ43027611" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="summ43282741" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="summ43529216" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="summ43749589" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="summ43969220" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="summ44200733" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="summ44456315" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="summ44706950" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="summ44954309" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="summ45203967" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="summ45447356" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="summ12413773" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ12650885" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ12878446" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ13103079" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ13329543" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ13555936" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ13787153" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ14012498" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ14231850" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ14458257" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ14685879" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ14912677" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ15144078" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ15370037" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ15604293" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ15831558" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ16056733" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="summ16288427" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="summ16516330" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="summ16743366" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="summ16968592" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="summ17193233" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="summ17419970" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="summ17646218" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="summ18001487" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="summ18262082" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="summ18494215" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="summ18721707" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="summ18952454" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="summ19200833" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="summ19431424" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="summ19659031" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="summ19883000" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="summ20110423" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="summ20341164" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="summ20565939" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="summ20793909" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="summ21024598" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="summ21255856" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="summ21485156" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="summ21710926" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="summ21937207" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="summ22162327" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="summ22394151" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="summ22618083" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="summ22850273" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="summ23081562" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="summ23311602" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="summ23554596" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="summ23787317" sheetId="50" state="visible" r:id="rId50"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -507,10 +507,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>380.2401114801951</v>
+        <v>380.2401114969339</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7670965179332755</v>
+        <v>0.7670965179230489</v>
       </c>
     </row>
     <row r="3">
@@ -520,10 +520,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>81.45524060182564</v>
+        <v>81.45524059190058</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2788129408100514</v>
+        <v>0.2788129408101227</v>
       </c>
     </row>
     <row r="4">
@@ -533,10 +533,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>244.7792977614313</v>
+        <v>244.7792977631771</v>
       </c>
       <c r="C4" t="n">
-        <v>5.039299189170477e-06</v>
+        <v>5.039299186618646e-06</v>
       </c>
     </row>
     <row r="5">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03558446083771667</v>
+        <v>-3.558446083844038</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4262706407117177</v>
+        <v>0.4262706407036018</v>
       </c>
     </row>
     <row r="6">
@@ -559,10 +559,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.099942321456345e-05</v>
+        <v>-10.99942321530955</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8738270485917493</v>
+        <v>0.8738270485848041</v>
       </c>
     </row>
     <row r="7">
@@ -572,10 +572,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.64560112109492</v>
+        <v>-0.6456011210946144</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9353813714732793</v>
+        <v>0.9353813714733095</v>
       </c>
     </row>
     <row r="8">
@@ -585,10 +585,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-40.58024784640702</v>
+        <v>-0.4058024784640253</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9771409396941163</v>
+        <v>0.9771409396941189</v>
       </c>
     </row>
     <row r="9">
@@ -598,10 +598,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-688.15679967398</v>
+        <v>-6.881567996739747</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3518371859756079</v>
+        <v>0.3518371859756116</v>
       </c>
     </row>
     <row r="10">
@@ -611,10 +611,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9802.475477645656</v>
+        <v>98.02475477645658</v>
       </c>
       <c r="C10" t="n">
-        <v>9.277888996502989e-05</v>
+        <v>9.277888996502824e-05</v>
       </c>
     </row>
     <row r="11">
@@ -624,10 +624,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>48.0703211985612</v>
+        <v>48.07032119856121</v>
       </c>
       <c r="C11" t="n">
-        <v>0.008763255375194821</v>
+        <v>0.008763255375194861</v>
       </c>
     </row>
   </sheetData>
@@ -673,10 +673,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>552.254280123002</v>
+        <v>552.2542801201466</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6422739797132371</v>
+        <v>0.6422739797149862</v>
       </c>
     </row>
     <row r="3">
@@ -686,10 +686,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>64.93330057082262</v>
+        <v>64.93330057110958</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3724275834638444</v>
+        <v>0.3724275834635233</v>
       </c>
     </row>
     <row r="4">
@@ -699,10 +699,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>268.0197273858057</v>
+        <v>268.0197273854128</v>
       </c>
       <c r="C4" t="n">
-        <v>8.036094778842224e-07</v>
+        <v>8.036094779975232e-07</v>
       </c>
     </row>
     <row r="5">
@@ -712,10 +712,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03390102182440818</v>
+        <v>-3.39010218302449</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3963029386141131</v>
+        <v>0.3963029385534755</v>
       </c>
     </row>
     <row r="6">
@@ -725,10 +725,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.037702577646305e-05</v>
+        <v>-10.37702576817433</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8548321665537716</v>
+        <v>0.854832166669238</v>
       </c>
     </row>
     <row r="7">
@@ -738,10 +738,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2.546070958530908</v>
+        <v>-2.54607095853085</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7225932293955708</v>
+        <v>0.7225932293955771</v>
       </c>
     </row>
     <row r="8">
@@ -751,10 +751,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>888.6152370371342</v>
+        <v>8.886152370371381</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4960093329339176</v>
+        <v>0.4960093329339156</v>
       </c>
     </row>
     <row r="9">
@@ -764,10 +764,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-841.6473931817172</v>
+        <v>-8.416473931817272</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2099280675920065</v>
+        <v>0.2099280675920019</v>
       </c>
     </row>
     <row r="10">
@@ -777,10 +777,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9573.921815529397</v>
+        <v>95.73921815529391</v>
       </c>
       <c r="C10" t="n">
-        <v>8.168936566700575e-05</v>
+        <v>8.168936566700611e-05</v>
       </c>
     </row>
     <row r="11">
@@ -790,10 +790,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>43.34821783355392</v>
+        <v>43.34821783355379</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0164914268309135</v>
+        <v>0.01649142683091364</v>
       </c>
     </row>
   </sheetData>
@@ -839,10 +839,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1488.967974678715</v>
+        <v>1488.967974568294</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2347150311817804</v>
+        <v>0.2347150312175838</v>
       </c>
     </row>
     <row r="3">
@@ -852,10 +852,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>107.9155143593657</v>
+        <v>107.9155143671792</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1301964323852538</v>
+        <v>0.1301964323853511</v>
       </c>
     </row>
     <row r="4">
@@ -865,10 +865,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>254.779765245437</v>
+        <v>254.7797652444543</v>
       </c>
       <c r="C4" t="n">
-        <v>2.816899420682082e-06</v>
+        <v>2.81689942133813e-06</v>
       </c>
     </row>
     <row r="5">
@@ -878,10 +878,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0431526057138041</v>
+        <v>-4.315260571245059</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3098297333438539</v>
+        <v>0.3098297333563833</v>
       </c>
     </row>
     <row r="6">
@@ -891,10 +891,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4.060328661729815e-05</v>
+        <v>-40.60328664038201</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5338102060249421</v>
+        <v>0.5338102057882405</v>
       </c>
     </row>
     <row r="7">
@@ -904,10 +904,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-4.338267234554415</v>
+        <v>-4.338267234554181</v>
       </c>
       <c r="C7" t="n">
-        <v>0.548461900141384</v>
+        <v>0.5484619001414033</v>
       </c>
     </row>
     <row r="8">
@@ -917,10 +917,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>864.1763137565576</v>
+        <v>8.641763137565558</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5136215268159046</v>
+        <v>0.5136215268159059</v>
       </c>
     </row>
     <row r="9">
@@ -930,10 +930,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-365.3496078091013</v>
+        <v>-3.653496078091118</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5941426171502537</v>
+        <v>0.5941426171502431</v>
       </c>
     </row>
     <row r="10">
@@ -943,10 +943,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10347.66208541507</v>
+        <v>103.4766208541507</v>
       </c>
       <c r="C10" t="n">
-        <v>3.090425531241693e-05</v>
+        <v>3.09042553124171e-05</v>
       </c>
     </row>
     <row r="11">
@@ -956,10 +956,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>19.50217651565602</v>
+        <v>19.50217651565616</v>
       </c>
       <c r="C11" t="n">
-        <v>0.300749867764711</v>
+        <v>0.3007498677647084</v>
       </c>
     </row>
   </sheetData>
@@ -1005,10 +1005,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-450.9816680915524</v>
+        <v>-450.9816681368893</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6840853531152327</v>
+        <v>0.6840853530838835</v>
       </c>
     </row>
     <row r="3">
@@ -1018,10 +1018,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>43.58703729889724</v>
+        <v>43.58703730295527</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4639126653141908</v>
+        <v>0.4639126653144117</v>
       </c>
     </row>
     <row r="4">
@@ -1031,10 +1031,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>326.8920593960283</v>
+        <v>326.8920593955586</v>
       </c>
       <c r="C4" t="n">
-        <v>1.016065835774262e-11</v>
+        <v>1.016065836161422e-11</v>
       </c>
     </row>
     <row r="5">
@@ -1044,10 +1044,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.05038649111441079</v>
+        <v>-5.03864911182739</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1499351692576476</v>
+        <v>0.1499351692428923</v>
       </c>
     </row>
     <row r="6">
@@ -1057,10 +1057,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.982699932118041e-05</v>
+        <v>19.82699932703599</v>
       </c>
       <c r="C6" t="n">
-        <v>0.686362531518721</v>
+        <v>0.6863625314382549</v>
       </c>
     </row>
     <row r="7">
@@ -1070,10 +1070,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2.227552303521191</v>
+        <v>-2.22755230352114</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7294889653970944</v>
+        <v>0.7294889653970996</v>
       </c>
     </row>
     <row r="8">
@@ -1083,10 +1083,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1215.345683191261</v>
+        <v>12.15345683191254</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3130341148311621</v>
+        <v>0.3130341148311648</v>
       </c>
     </row>
     <row r="9">
@@ -1096,10 +1096,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>156.289107046955</v>
+        <v>1.5628910704696</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7923060733854369</v>
+        <v>0.7923060733854302</v>
       </c>
     </row>
     <row r="10">
@@ -1109,7 +1109,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12732.65212080619</v>
+        <v>127.3265212080618</v>
       </c>
       <c r="C10" t="n">
         <v>2.401143879292115e-07</v>
@@ -1122,10 +1122,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>42.03262848181475</v>
+        <v>42.03262848181461</v>
       </c>
       <c r="C11" t="n">
-        <v>0.004844478790737804</v>
+        <v>0.00484447879073785</v>
       </c>
     </row>
   </sheetData>
@@ -1171,10 +1171,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>966.0580627325148</v>
+        <v>966.058062671488</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4052639298609171</v>
+        <v>0.4052639298940437</v>
       </c>
     </row>
     <row r="3">
@@ -1184,10 +1184,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>87.61732411266513</v>
+        <v>87.61732410754126</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2865139977423365</v>
+        <v>0.2865139977423372</v>
       </c>
     </row>
     <row r="4">
@@ -1197,10 +1197,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>270.6333782789245</v>
+        <v>270.6333782787971</v>
       </c>
       <c r="C4" t="n">
-        <v>4.025204335589232e-07</v>
+        <v>4.025204335778184e-07</v>
       </c>
     </row>
     <row r="5">
@@ -1210,10 +1210,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.04696596435955555</v>
+        <v>-4.696596436167152</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2870275600343625</v>
+        <v>0.2870275600179063</v>
       </c>
     </row>
     <row r="6">
@@ -1223,10 +1223,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-8.850375630180577e-06</v>
+        <v>-8.850375600847769</v>
       </c>
       <c r="C6" t="n">
-        <v>0.892375427407056</v>
+        <v>0.8923754277634202</v>
       </c>
     </row>
     <row r="7">
@@ -1236,10 +1236,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-10.07987238172258</v>
+        <v>-10.07987238172246</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1885515584083653</v>
+        <v>0.1885515584083704</v>
       </c>
     </row>
     <row r="8">
@@ -1249,10 +1249,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>622.5381639992615</v>
+        <v>6.225381639992719</v>
       </c>
       <c r="C8" t="n">
-        <v>0.615915291565407</v>
+        <v>0.6159152915654014</v>
       </c>
     </row>
     <row r="9">
@@ -1262,10 +1262,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-457.3697138759744</v>
+        <v>-4.573697138759812</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5259100402664201</v>
+        <v>0.5259100402664136</v>
       </c>
     </row>
     <row r="10">
@@ -1275,7 +1275,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8753.915094810251</v>
+        <v>87.53915094810259</v>
       </c>
       <c r="C10" t="n">
         <v>0.000240689826005106</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>49.31894103869962</v>
+        <v>49.31894103869976</v>
       </c>
       <c r="C11" t="n">
-        <v>0.003436149418781121</v>
+        <v>0.003436149418781037</v>
       </c>
     </row>
   </sheetData>
@@ -1337,10 +1337,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-9.221256714493393</v>
+        <v>-9.221256732564143</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9936901201243042</v>
+        <v>0.9936901201119503</v>
       </c>
     </row>
     <row r="3">
@@ -1350,10 +1350,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>81.39338874140705</v>
+        <v>81.39338874809431</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2057652515918809</v>
+        <v>0.2057652515917911</v>
       </c>
     </row>
     <row r="4">
@@ -1363,10 +1363,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>269.2412373167895</v>
+        <v>269.2412373131743</v>
       </c>
       <c r="C4" t="n">
-        <v>2.538910957878264e-08</v>
+        <v>2.538910961466841e-08</v>
       </c>
     </row>
     <row r="5">
@@ -1376,10 +1376,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01882944928416432</v>
+        <v>1.882944928534975</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7591140492995553</v>
+        <v>0.7591140492837849</v>
       </c>
     </row>
     <row r="6">
@@ -1389,10 +1389,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.986629535434694e-05</v>
+        <v>-29.86629539729432</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6322706045647486</v>
+        <v>0.6322706040629851</v>
       </c>
     </row>
     <row r="7">
@@ -1402,10 +1402,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-6.345399593215021</v>
+        <v>-6.345399593214903</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3514844400472252</v>
+        <v>0.3514844400472334</v>
       </c>
     </row>
     <row r="8">
@@ -1415,10 +1415,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1009.530758857262</v>
+        <v>10.09530758857215</v>
       </c>
       <c r="C8" t="n">
-        <v>0.469029019403763</v>
+        <v>0.4690290194037828</v>
       </c>
     </row>
     <row r="9">
@@ -1428,10 +1428,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1554.619944285562</v>
+        <v>-15.54619944285557</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03784664461913188</v>
+        <v>0.03784664461913282</v>
       </c>
     </row>
     <row r="10">
@@ -1441,10 +1441,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12517.94306407266</v>
+        <v>125.1794306407267</v>
       </c>
       <c r="C10" t="n">
-        <v>5.12620654622473e-07</v>
+        <v>5.126206546224803e-07</v>
       </c>
     </row>
     <row r="11">
@@ -1454,10 +1454,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>56.88655082015752</v>
+        <v>56.8865508201574</v>
       </c>
       <c r="C11" t="n">
-        <v>0.001105354262723768</v>
+        <v>0.001105354262723802</v>
       </c>
     </row>
   </sheetData>
@@ -1503,10 +1503,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1144.614692550671</v>
+        <v>1144.614692558655</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2806224483530212</v>
+        <v>0.2806224483493464</v>
       </c>
     </row>
     <row r="3">
@@ -1516,10 +1516,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>96.26889785664179</v>
+        <v>96.26889785605806</v>
       </c>
       <c r="C3" t="n">
-        <v>0.122590725724992</v>
+        <v>0.122590725724983</v>
       </c>
     </row>
     <row r="4">
@@ -1529,10 +1529,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>220.053453012046</v>
+        <v>220.0534530052026</v>
       </c>
       <c r="C4" t="n">
-        <v>8.758370237330365e-06</v>
+        <v>8.758370251471062e-06</v>
       </c>
     </row>
     <row r="5">
@@ -1542,10 +1542,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.05705902813431024</v>
+        <v>-5.705902812840183</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1095048541074331</v>
+        <v>0.1095048541343265</v>
       </c>
     </row>
     <row r="6">
@@ -1555,10 +1555,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.187120057904099e-05</v>
+        <v>-21.8712005989361</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6659566084357775</v>
+        <v>0.6659566081391161</v>
       </c>
     </row>
     <row r="7">
@@ -1568,10 +1568,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.695984422355018</v>
+        <v>7.695984422355359</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2803977246559694</v>
+        <v>0.2803977246559465</v>
       </c>
     </row>
     <row r="8">
@@ -1581,10 +1581,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-52.55727666278199</v>
+        <v>-0.5255727666279846</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9627909728542896</v>
+        <v>0.9627909728542781</v>
       </c>
     </row>
     <row r="9">
@@ -1594,10 +1594,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-391.6172454314283</v>
+        <v>-3.916172454314356</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5128749488852802</v>
+        <v>0.5128749488852717</v>
       </c>
     </row>
     <row r="10">
@@ -1607,10 +1607,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8479.348782407324</v>
+        <v>84.79348782407303</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0001486315777759767</v>
+        <v>0.0001486315777759785</v>
       </c>
     </row>
     <row r="11">
@@ -1620,10 +1620,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>18.95221279246188</v>
+        <v>18.95221279246223</v>
       </c>
       <c r="C11" t="n">
-        <v>0.21489751446856</v>
+        <v>0.2148975144685515</v>
       </c>
     </row>
   </sheetData>
@@ -1669,10 +1669,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>610.0166213371872</v>
+        <v>610.0166214295177</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5847504165427397</v>
+        <v>0.5847504164837729</v>
       </c>
     </row>
     <row r="3">
@@ -1682,10 +1682,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>130.3195630041495</v>
+        <v>130.3195629971989</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04865590571276297</v>
+        <v>0.04865590571274162</v>
       </c>
     </row>
     <row r="4">
@@ -1695,10 +1695,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>262.7499848392798</v>
+        <v>262.7499848448381</v>
       </c>
       <c r="C4" t="n">
-        <v>1.224196481955721e-07</v>
+        <v>1.224196480284495e-07</v>
       </c>
     </row>
     <row r="5">
@@ -1708,10 +1708,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.06094526523132394</v>
+        <v>-6.094526522610175</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1299361654898764</v>
+        <v>0.129936165515</v>
       </c>
     </row>
     <row r="6">
@@ -1721,10 +1721,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.162721257257504e-05</v>
+        <v>11.62721257768405</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8304386018080079</v>
+        <v>0.8304386017357057</v>
       </c>
     </row>
     <row r="7">
@@ -1734,10 +1734,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-6.031228623918642</v>
+        <v>-6.03122862391846</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3764857172494459</v>
+        <v>0.3764857172494587</v>
       </c>
     </row>
     <row r="8">
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1529.580806438133</v>
+        <v>15.2958080643814</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2124790589799495</v>
+        <v>0.2124790589799476</v>
       </c>
     </row>
     <row r="9">
@@ -1760,10 +1760,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-135.3429640227039</v>
+        <v>-1.353429640226995</v>
       </c>
       <c r="C9" t="n">
-        <v>0.847147259875487</v>
+        <v>0.8471472598754919</v>
       </c>
     </row>
     <row r="10">
@@ -1773,10 +1773,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9775.006372022628</v>
+        <v>97.75006372022628</v>
       </c>
       <c r="C10" t="n">
-        <v>2.502636461321153e-05</v>
+        <v>2.502636461321144e-05</v>
       </c>
     </row>
     <row r="11">
@@ -1786,10 +1786,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>37.69543055760609</v>
+        <v>37.69543055760607</v>
       </c>
       <c r="C11" t="n">
-        <v>0.02348724812756506</v>
+        <v>0.02348724812756519</v>
       </c>
     </row>
   </sheetData>
@@ -1835,10 +1835,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>168.2938154957096</v>
+        <v>168.2938154941003</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8801441264322295</v>
+        <v>0.8801441264333268</v>
       </c>
     </row>
     <row r="3">
@@ -1848,10 +1848,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>41.57573519370277</v>
+        <v>41.57573519926993</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5528101248881175</v>
+        <v>0.5528101248879392</v>
       </c>
     </row>
     <row r="4">
@@ -1861,10 +1861,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>309.5351517951324</v>
+        <v>309.5351517931364</v>
       </c>
       <c r="C4" t="n">
-        <v>4.5504895178481e-09</v>
+        <v>4.550489524135705e-09</v>
       </c>
     </row>
     <row r="5">
@@ -1874,10 +1874,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0266411318084831</v>
+        <v>-2.664113181180269</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4688307623022454</v>
+        <v>0.4688307622689727</v>
       </c>
     </row>
     <row r="6">
@@ -1887,10 +1887,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4.292924283441577e-05</v>
+        <v>-42.92924283686605</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4512546992474246</v>
+        <v>0.451254699228941</v>
       </c>
     </row>
     <row r="7">
@@ -1900,10 +1900,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-4.060875074197497</v>
+        <v>-4.060875074197334</v>
       </c>
       <c r="C7" t="n">
-        <v>0.543731834909196</v>
+        <v>0.5437318349092104</v>
       </c>
     </row>
     <row r="8">
@@ -1913,10 +1913,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1250.974626991603</v>
+        <v>12.50974626991582</v>
       </c>
       <c r="C8" t="n">
-        <v>0.286150907346519</v>
+        <v>0.286150907346527</v>
       </c>
     </row>
     <row r="9">
@@ -1926,10 +1926,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-300.1144140137972</v>
+        <v>-3.001144140138084</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6479344575232473</v>
+        <v>0.6479344575232351</v>
       </c>
     </row>
     <row r="10">
@@ -1939,10 +1939,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13790.60070378598</v>
+        <v>137.9060070378595</v>
       </c>
       <c r="C10" t="n">
-        <v>1.336235908217306e-07</v>
+        <v>1.336235908217328e-07</v>
       </c>
     </row>
     <row r="11">
@@ -1952,10 +1952,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>35.93239261701533</v>
+        <v>35.93239261701538</v>
       </c>
       <c r="C11" t="n">
-        <v>0.02354536620355606</v>
+        <v>0.02354536620355594</v>
       </c>
     </row>
   </sheetData>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-25.68102409651328</v>
+        <v>-25.68102412686176</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9829974573431267</v>
+        <v>0.9829974573230538</v>
       </c>
     </row>
     <row r="3">
@@ -2014,10 +2014,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>87.65209848402144</v>
+        <v>87.65209847920295</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1966566982564714</v>
+        <v>0.1966566982564976</v>
       </c>
     </row>
     <row r="4">
@@ -2027,10 +2027,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>288.9869464365059</v>
+        <v>288.986946436962</v>
       </c>
       <c r="C4" t="n">
-        <v>5.08840015816884e-08</v>
+        <v>5.088400157376979e-08</v>
       </c>
     </row>
     <row r="5">
@@ -2040,10 +2040,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.04778683028256726</v>
+        <v>-4.778683027825917</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2481380212979058</v>
+        <v>0.2481380213296446</v>
       </c>
     </row>
     <row r="6">
@@ -2053,10 +2053,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.988164713875152e-05</v>
+        <v>19.88164711390249</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7412183176948424</v>
+        <v>0.7412183180031915</v>
       </c>
     </row>
     <row r="7">
@@ -2066,10 +2066,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2.337298831845011</v>
+        <v>-2.337298831844659</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7395978492428454</v>
+        <v>0.7395978492428831</v>
       </c>
     </row>
     <row r="8">
@@ -2079,10 +2079,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1061.598666312178</v>
+        <v>10.61598666312197</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4187093333495361</v>
+        <v>0.4187093333495284</v>
       </c>
     </row>
     <row r="9">
@@ -2092,10 +2092,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-434.7645973399663</v>
+        <v>-4.347645973399654</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5382202448881397</v>
+        <v>0.538220244888141</v>
       </c>
     </row>
     <row r="10">
@@ -2105,10 +2105,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9966.977859913753</v>
+        <v>99.66977859913693</v>
       </c>
       <c r="C10" t="n">
-        <v>3.543467415360062e-05</v>
+        <v>3.543467415360353e-05</v>
       </c>
     </row>
     <row r="11">
@@ -2118,10 +2118,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>45.82224543054131</v>
+        <v>45.82224543054153</v>
       </c>
       <c r="C11" t="n">
-        <v>0.008879903982007926</v>
+        <v>0.008879903982007635</v>
       </c>
     </row>
   </sheetData>
@@ -2167,10 +2167,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>815.6951450022798</v>
+        <v>815.6951450628467</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4893911617043595</v>
+        <v>0.4893911616687051</v>
       </c>
     </row>
     <row r="3">
@@ -2180,10 +2180,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>59.14071978055625</v>
+        <v>59.14071977654746</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3836045838696154</v>
+        <v>0.383604583869595</v>
       </c>
     </row>
     <row r="4">
@@ -2193,10 +2193,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>251.5850468309584</v>
+        <v>251.585046829084</v>
       </c>
       <c r="C4" t="n">
-        <v>9.889231741667913e-07</v>
+        <v>9.889231749386956e-07</v>
       </c>
     </row>
     <row r="5">
@@ -2206,10 +2206,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03080358803689968</v>
+        <v>-3.080358803532408</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6071242593014026</v>
+        <v>0.6071242593168209</v>
       </c>
     </row>
     <row r="6">
@@ -2219,10 +2219,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.922997698958721e-05</v>
+        <v>-19.22997700885323</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7764137854313238</v>
+        <v>0.7764137851968927</v>
       </c>
     </row>
     <row r="7">
@@ -2232,7 +2232,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.673826504076398</v>
+        <v>8.673826504076391</v>
       </c>
       <c r="C7" t="n">
         <v>0.2553845695228052</v>
@@ -2245,10 +2245,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-526.3606774984901</v>
+        <v>-5.263606774984744</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7190311625910386</v>
+        <v>0.7190311625910464</v>
       </c>
     </row>
     <row r="9">
@@ -2258,10 +2258,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-404.2001783384134</v>
+        <v>-4.042001783384102</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5441947065151038</v>
+        <v>0.5441947065151069</v>
       </c>
     </row>
     <row r="10">
@@ -2271,10 +2271,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9601.323796665922</v>
+        <v>96.01323796665908</v>
       </c>
       <c r="C10" t="n">
-        <v>4.68038613537735e-05</v>
+        <v>4.680386135377411e-05</v>
       </c>
     </row>
     <row r="11">
@@ -2284,10 +2284,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>18.35917291969361</v>
+        <v>18.35917291969363</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2796726703086306</v>
+        <v>0.2796726703086305</v>
       </c>
     </row>
   </sheetData>
@@ -2333,10 +2333,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>966.3664687913424</v>
+        <v>966.3664687354703</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4131440917203736</v>
+        <v>0.4131440917487388</v>
       </c>
     </row>
     <row r="3">
@@ -2346,10 +2346,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>72.01739008299273</v>
+        <v>72.0173900731306</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3004982211255461</v>
+        <v>0.3004982211254471</v>
       </c>
     </row>
     <row r="4">
@@ -2359,10 +2359,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>293.99729027232</v>
+        <v>293.9972902806911</v>
       </c>
       <c r="C4" t="n">
-        <v>3.300185530200298e-08</v>
+        <v>3.300185519018833e-08</v>
       </c>
     </row>
     <row r="5">
@@ -2372,10 +2372,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.04135816190850522</v>
+        <v>-4.135816190293612</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5153775042948718</v>
+        <v>0.5153775043408556</v>
       </c>
     </row>
     <row r="6">
@@ -2385,10 +2385,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.053182954444738e-06</v>
+        <v>8.053182955679603</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9043027866187534</v>
+        <v>0.9043027866064433</v>
       </c>
     </row>
     <row r="7">
@@ -2398,10 +2398,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-6.77595598216454</v>
+        <v>-6.775955982164291</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3571664885809384</v>
+        <v>0.357166488580954</v>
       </c>
     </row>
     <row r="8">
@@ -2411,10 +2411,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>933.6203070032179</v>
+        <v>9.336203070032472</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4538726884292614</v>
+        <v>0.4538726884292489</v>
       </c>
     </row>
     <row r="9">
@@ -2424,10 +2424,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-728.8905696639374</v>
+        <v>-7.288905696639471</v>
       </c>
       <c r="C9" t="n">
-        <v>0.324258683843326</v>
+        <v>0.3242586838433197</v>
       </c>
     </row>
     <row r="10">
@@ -2437,10 +2437,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8004.055124139155</v>
+        <v>80.04055124139174</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0008651525955124944</v>
+        <v>0.0008651525955124723</v>
       </c>
     </row>
     <row r="11">
@@ -2450,10 +2450,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>42.00083847822104</v>
+        <v>42.00083847822106</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01840220453678977</v>
+        <v>0.0184022045367898</v>
       </c>
     </row>
   </sheetData>
@@ -2499,10 +2499,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1677.302475124838</v>
+        <v>1677.302475056403</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1589585450167572</v>
+        <v>0.158958545037057</v>
       </c>
     </row>
     <row r="3">
@@ -2512,10 +2512,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>85.17420054052691</v>
+        <v>85.17420053797903</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1916430402526922</v>
+        <v>0.1916430402526774</v>
       </c>
     </row>
     <row r="4">
@@ -2525,10 +2525,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>258.6981800266963</v>
+        <v>258.6981800271639</v>
       </c>
       <c r="C4" t="n">
-        <v>1.214191261910293e-07</v>
+        <v>1.214191261717813e-07</v>
       </c>
     </row>
     <row r="5">
@@ -2538,10 +2538,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03818313919839125</v>
+        <v>-3.818313919888442</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3307077880063373</v>
+        <v>0.3307077880017733</v>
       </c>
     </row>
     <row r="6">
@@ -2551,10 +2551,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.649564081379203e-05</v>
+        <v>-36.49564081168411</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5315481574016125</v>
+        <v>0.5315481574282919</v>
       </c>
     </row>
     <row r="7">
@@ -2564,10 +2564,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-12.95827024839379</v>
+        <v>-12.95827024839349</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0876945067924129</v>
+        <v>0.08769450679241854</v>
       </c>
     </row>
     <row r="8">
@@ -2577,10 +2577,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>305.6936387463136</v>
+        <v>3.056936387463181</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7951425097392609</v>
+        <v>0.7951425097392582</v>
       </c>
     </row>
     <row r="9">
@@ -2590,10 +2590,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-743.4216824516153</v>
+        <v>-7.434216824516222</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2356129511794844</v>
+        <v>0.2356129511794809</v>
       </c>
     </row>
     <row r="10">
@@ -2603,10 +2603,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8977.520756196847</v>
+        <v>89.77520756196819</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0001752763232101593</v>
+        <v>0.0001752763232101676</v>
       </c>
     </row>
     <row r="11">
@@ -2616,10 +2616,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>44.44584181523209</v>
+        <v>44.4458418152325</v>
       </c>
       <c r="C11" t="n">
-        <v>0.006396634283477964</v>
+        <v>0.006396634283477578</v>
       </c>
     </row>
   </sheetData>
@@ -2665,10 +2665,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>501.7730178941219</v>
+        <v>501.7730178529055</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6731772653431795</v>
+        <v>0.6731772653690216</v>
       </c>
     </row>
     <row r="3">
@@ -2678,10 +2678,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>98.70664762688185</v>
+        <v>98.70664763110746</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1422377620990499</v>
+        <v>0.1422377620989684</v>
       </c>
     </row>
     <row r="4">
@@ -2691,10 +2691,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>257.3481087272572</v>
+        <v>257.3481087264011</v>
       </c>
       <c r="C4" t="n">
-        <v>7.064747110828074e-07</v>
+        <v>7.064747112492579e-07</v>
       </c>
     </row>
     <row r="5">
@@ -2704,10 +2704,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03888520656215608</v>
+        <v>-3.888520656255533</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5319500710594756</v>
+        <v>0.5319500710558307</v>
       </c>
     </row>
     <row r="6">
@@ -2717,10 +2717,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.552344733895985e-07</v>
+        <v>-0.1552344668348979</v>
       </c>
       <c r="C6" t="n">
-        <v>0.998155638640922</v>
+        <v>0.9981556387188171</v>
       </c>
     </row>
     <row r="7">
@@ -2730,10 +2730,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-4.739763621710797</v>
+        <v>-4.739763621710683</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4985896379891414</v>
+        <v>0.4985896379891506</v>
       </c>
     </row>
     <row r="8">
@@ -2743,10 +2743,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>349.3785708107839</v>
+        <v>3.493785708107886</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8079745843586655</v>
+        <v>0.8079745843586624</v>
       </c>
     </row>
     <row r="9">
@@ -2756,10 +2756,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-701.2248691577429</v>
+        <v>-7.01224869157743</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3162810923293081</v>
+        <v>0.3162810923293082</v>
       </c>
     </row>
     <row r="10">
@@ -2769,10 +2769,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10488.24941537882</v>
+        <v>104.8824941537884</v>
       </c>
       <c r="C10" t="n">
-        <v>1.18047387203303e-05</v>
+        <v>1.180473872032995e-05</v>
       </c>
     </row>
     <row r="11">
@@ -2782,10 +2782,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>45.15041641462689</v>
+        <v>45.15041641462691</v>
       </c>
       <c r="C11" t="n">
-        <v>0.008956683147428326</v>
+        <v>0.008956683147428193</v>
       </c>
     </row>
   </sheetData>
@@ -2831,10 +2831,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1522.110480387183</v>
+        <v>1522.110480299319</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1715237594141222</v>
+        <v>0.1715237594392632</v>
       </c>
     </row>
     <row r="3">
@@ -2844,10 +2844,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>135.1052694526002</v>
+        <v>135.1052694473992</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03401744898534594</v>
+        <v>0.03401744898536589</v>
       </c>
     </row>
     <row r="4">
@@ -2857,10 +2857,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>239.5008044412101</v>
+        <v>239.5008044415795</v>
       </c>
       <c r="C4" t="n">
-        <v>5.137446264103153e-07</v>
+        <v>5.137446263645282e-07</v>
       </c>
     </row>
     <row r="5">
@@ -2870,10 +2870,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.00991520166020135</v>
+        <v>-0.9915201662687707</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7930155683923001</v>
+        <v>0.7930155683424756</v>
       </c>
     </row>
     <row r="6">
@@ -2883,10 +2883,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0001108205757290932</v>
+        <v>-110.8205757242005</v>
       </c>
       <c r="C6" t="n">
-        <v>0.09873104675254157</v>
+        <v>0.09873104676249957</v>
       </c>
     </row>
     <row r="7">
@@ -2896,10 +2896,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-11.28831754404492</v>
+        <v>-11.28831754404449</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1225669479856784</v>
+        <v>0.1225669479856907</v>
       </c>
     </row>
     <row r="8">
@@ -2909,10 +2909,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1340.210084994934</v>
+        <v>13.40210084994949</v>
       </c>
       <c r="C8" t="n">
-        <v>0.242466465316791</v>
+        <v>0.2424664653167861</v>
       </c>
     </row>
     <row r="9">
@@ -2922,10 +2922,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-907.2767746396025</v>
+        <v>-9.072767746395943</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1336544502225432</v>
+        <v>0.1336544502225469</v>
       </c>
     </row>
     <row r="10">
@@ -2935,10 +2935,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10615.8963024713</v>
+        <v>106.158963024713</v>
       </c>
       <c r="C10" t="n">
-        <v>3.288261773188484e-06</v>
+        <v>3.288261773188502e-06</v>
       </c>
     </row>
     <row r="11">
@@ -2948,10 +2948,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>38.96106800810069</v>
+        <v>38.96106800810077</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01104226396740433</v>
+        <v>0.01104226396740427</v>
       </c>
     </row>
   </sheetData>
@@ -2997,10 +2997,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>362.6740386639776</v>
+        <v>362.6740386633135</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7223930472121763</v>
+        <v>0.7223930472125902</v>
       </c>
     </row>
     <row r="3">
@@ -3010,10 +3010,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-12.3283284594755</v>
+        <v>-12.32832846014227</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8366945141706836</v>
+        <v>0.8366945141699953</v>
       </c>
     </row>
     <row r="4">
@@ -3023,10 +3023,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>328.4489961711546</v>
+        <v>328.4489961712454</v>
       </c>
       <c r="C4" t="n">
-        <v>6.609704893644416e-12</v>
+        <v>6.609704895656789e-12</v>
       </c>
     </row>
     <row r="5">
@@ -3036,10 +3036,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.05226636858856942</v>
+        <v>-5.226636858905581</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1265530782772244</v>
+        <v>0.1265530782676834</v>
       </c>
     </row>
     <row r="6">
@@ -3049,10 +3049,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.974020248191501e-06</v>
+        <v>5.974020215591409</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9008638370715879</v>
+        <v>0.9008638376065987</v>
       </c>
     </row>
     <row r="7">
@@ -3062,10 +3062,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.839228208213731</v>
+        <v>7.839228208213523</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2495449428933913</v>
+        <v>0.249544942893404</v>
       </c>
     </row>
     <row r="8">
@@ -3075,10 +3075,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>539.0444374898871</v>
+        <v>5.390444374898927</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6484963476415889</v>
+        <v>0.6484963476415857</v>
       </c>
     </row>
     <row r="9">
@@ -3088,10 +3088,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-166.1161538810452</v>
+        <v>-1.661161538810489</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7726713706750008</v>
+        <v>0.772671370674996</v>
       </c>
     </row>
     <row r="10">
@@ -3101,10 +3101,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9994.944135615364</v>
+        <v>99.94944135615367</v>
       </c>
       <c r="C10" t="n">
-        <v>1.761987379556e-05</v>
+        <v>1.761987379555977e-05</v>
       </c>
     </row>
     <row r="11">
@@ -3114,10 +3114,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>21.23565678239614</v>
+        <v>21.23565678239623</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1617503644336879</v>
+        <v>0.1617503644336862</v>
       </c>
     </row>
   </sheetData>
@@ -3163,10 +3163,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-303.8225919569684</v>
+        <v>-303.822591995201</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7966287401787422</v>
+        <v>0.7966287401541986</v>
       </c>
     </row>
     <row r="3">
@@ -3176,10 +3176,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>132.5721909503055</v>
+        <v>132.5721909571696</v>
       </c>
       <c r="C3" t="n">
-        <v>0.06313061524934953</v>
+        <v>0.06313061524935398</v>
       </c>
     </row>
     <row r="4">
@@ -3189,10 +3189,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>268.9058532653949</v>
+        <v>268.9058532656777</v>
       </c>
       <c r="C4" t="n">
-        <v>3.715602226200864e-08</v>
+        <v>3.715602225906866e-08</v>
       </c>
     </row>
     <row r="5">
@@ -3202,10 +3202,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.06785571298886051</v>
+        <v>-6.785571299963684</v>
       </c>
       <c r="C5" t="n">
-        <v>0.09838454456808535</v>
+        <v>0.09838454453125585</v>
       </c>
     </row>
     <row r="6">
@@ -3215,10 +3215,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.176097432694623e-05</v>
+        <v>21.76097433443026</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6891161533597399</v>
+        <v>0.6891161532740568</v>
       </c>
     </row>
     <row r="7">
@@ -3228,10 +3228,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1.908168650386482</v>
+        <v>-1.908168650386163</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7792582730586485</v>
+        <v>0.7792582730586831</v>
       </c>
     </row>
     <row r="8">
@@ -3241,10 +3241,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1606.806749597437</v>
+        <v>16.0680674959743</v>
       </c>
       <c r="C8" t="n">
-        <v>0.205601756175779</v>
+        <v>0.2056017561757814</v>
       </c>
     </row>
     <row r="9">
@@ -3254,10 +3254,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>303.2758729772395</v>
+        <v>3.032758729772436</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6886522991157484</v>
+        <v>0.6886522991157443</v>
       </c>
     </row>
     <row r="10">
@@ -3267,10 +3267,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8806.406339789211</v>
+        <v>88.06406339789197</v>
       </c>
       <c r="C10" t="n">
-        <v>0.000248771564514447</v>
+        <v>0.0002487715645144493</v>
       </c>
     </row>
     <row r="11">
@@ -3280,10 +3280,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>49.89905925174374</v>
+        <v>49.89905925174391</v>
       </c>
       <c r="C11" t="n">
-        <v>0.00399999547449853</v>
+        <v>0.003999995474498398</v>
       </c>
     </row>
   </sheetData>
@@ -3329,10 +3329,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1229.360452224618</v>
+        <v>1229.360452234789</v>
       </c>
       <c r="C2" t="n">
-        <v>0.296289881004368</v>
+        <v>0.2962898810001176</v>
       </c>
     </row>
     <row r="3">
@@ -3342,10 +3342,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>114.6917352964313</v>
+        <v>114.6917352900108</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1189759145037654</v>
+        <v>0.1189759145038017</v>
       </c>
     </row>
     <row r="4">
@@ -3355,10 +3355,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>225.4873490434697</v>
+        <v>225.4873490534222</v>
       </c>
       <c r="C4" t="n">
-        <v>9.016990760978596e-05</v>
+        <v>9.016990744547266e-05</v>
       </c>
     </row>
     <row r="5">
@@ -3368,10 +3368,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0582086592399372</v>
+        <v>-5.820865923426846</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1633696541471547</v>
+        <v>0.1633696541762904</v>
       </c>
     </row>
     <row r="6">
@@ -3381,10 +3381,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.07787444824063e-05</v>
+        <v>20.77874449578221</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7333051169868259</v>
+        <v>0.7333051168250151</v>
       </c>
     </row>
     <row r="7">
@@ -3394,10 +3394,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2.771395627668483</v>
+        <v>-2.771395627668266</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7058005707370075</v>
+        <v>0.7058005707370274</v>
       </c>
     </row>
     <row r="8">
@@ -3407,10 +3407,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-100.2979990450258</v>
+        <v>-1.002979990450182</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9361838545344116</v>
+        <v>0.9361838545344165</v>
       </c>
     </row>
     <row r="9">
@@ -3420,10 +3420,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-589.1149375823211</v>
+        <v>-5.891149375823254</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3880671081106439</v>
+        <v>0.3880671081106395</v>
       </c>
     </row>
     <row r="10">
@@ -3433,10 +3433,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11463.05162462399</v>
+        <v>114.6305162462397</v>
       </c>
       <c r="C10" t="n">
-        <v>5.880399839479363e-06</v>
+        <v>5.880399839479473e-06</v>
       </c>
     </row>
     <row r="11">
@@ -3446,10 +3446,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>23.86006707656254</v>
+        <v>23.86006707656265</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1626676690581145</v>
+        <v>0.1626676690581133</v>
       </c>
     </row>
   </sheetData>
@@ -3495,10 +3495,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>807.7660600015301</v>
+        <v>807.7660598780039</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4605233491008721</v>
+        <v>0.4605233491719646</v>
       </c>
     </row>
     <row r="3">
@@ -3508,10 +3508,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>152.891539645269</v>
+        <v>152.8915396655198</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02767412105983112</v>
+        <v>0.02767412105982115</v>
       </c>
     </row>
     <row r="4">
@@ -3521,10 +3521,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>212.590552810285</v>
+        <v>212.5905528102772</v>
       </c>
       <c r="C4" t="n">
-        <v>3.95457739582899e-05</v>
+        <v>3.954577395846577e-05</v>
       </c>
     </row>
     <row r="5">
@@ -3534,10 +3534,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03635110111346339</v>
+        <v>-3.635110111821896</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3424364031527378</v>
+        <v>0.3424364030971466</v>
       </c>
     </row>
     <row r="6">
@@ -3547,10 +3547,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-7.354865062763977e-05</v>
+        <v>-73.54865058462137</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2516698803753388</v>
+        <v>0.2516698806550535</v>
       </c>
     </row>
     <row r="7">
@@ -3560,10 +3560,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1.304267929574891</v>
+        <v>-1.304267929574809</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8427289546997012</v>
+        <v>0.8427289546997105</v>
       </c>
     </row>
     <row r="8">
@@ -3573,10 +3573,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>785.6811524558575</v>
+        <v>7.856811524558744</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5029590965863696</v>
+        <v>0.5029590965863604</v>
       </c>
     </row>
     <row r="9">
@@ -3586,10 +3586,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-594.2404922910539</v>
+        <v>-5.942404922910464</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3436269168027899</v>
+        <v>0.3436269168027954</v>
       </c>
     </row>
     <row r="10">
@@ -3599,10 +3599,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13324.35169110176</v>
+        <v>133.2435169110174</v>
       </c>
       <c r="C10" t="n">
-        <v>6.948811216845937e-08</v>
+        <v>6.948811216846166e-08</v>
       </c>
     </row>
     <row r="11">
@@ -3612,10 +3612,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.28017106105054</v>
+        <v>26.2801710610508</v>
       </c>
       <c r="C11" t="n">
-        <v>0.09791701802967873</v>
+        <v>0.09791701802967585</v>
       </c>
     </row>
   </sheetData>
@@ -3661,10 +3661,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>628.2597777384076</v>
+        <v>628.2597776408875</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5803342730588215</v>
+        <v>0.5803342731184541</v>
       </c>
     </row>
     <row r="3">
@@ -3674,10 +3674,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>114.647023645291</v>
+        <v>114.6470236462988</v>
       </c>
       <c r="C3" t="n">
-        <v>0.08510398969469946</v>
+        <v>0.08510398969482559</v>
       </c>
     </row>
     <row r="4">
@@ -3687,10 +3687,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>280.8679263940669</v>
+        <v>280.8679263978722</v>
       </c>
       <c r="C4" t="n">
-        <v>1.882338321596761e-08</v>
+        <v>1.882338319611049e-08</v>
       </c>
     </row>
     <row r="5">
@@ -3700,10 +3700,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.04138832524365074</v>
+        <v>-4.13883252435941</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2809815255168383</v>
+        <v>0.2809815255175576</v>
       </c>
     </row>
     <row r="6">
@@ -3713,10 +3713,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.568746782851157e-06</v>
+        <v>1.568746779739058</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9767212753109404</v>
+        <v>0.9767212753568804</v>
       </c>
     </row>
     <row r="7">
@@ -3726,10 +3726,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-5.786778583949555</v>
+        <v>-5.786778583949321</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4108917213793372</v>
+        <v>0.4108917213793538</v>
       </c>
     </row>
     <row r="8">
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1167.156217720139</v>
+        <v>11.67156217720167</v>
       </c>
       <c r="C8" t="n">
-        <v>0.341889791214512</v>
+        <v>0.3418897912145034</v>
       </c>
     </row>
     <row r="9">
@@ -3752,10 +3752,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-576.4005289598795</v>
+        <v>-5.764005289598883</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3904221770767442</v>
+        <v>0.3904221770767365</v>
       </c>
     </row>
     <row r="10">
@@ -3765,10 +3765,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8875.275946648695</v>
+        <v>88.75275946648698</v>
       </c>
       <c r="C10" t="n">
-        <v>5.72868047506798e-05</v>
+        <v>5.728680475067892e-05</v>
       </c>
     </row>
     <row r="11">
@@ -3778,10 +3778,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>41.64657051301195</v>
+        <v>41.64657051301214</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01082008536089397</v>
+        <v>0.01082008536089341</v>
       </c>
     </row>
   </sheetData>
@@ -3827,10 +3827,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1241.983675210348</v>
+        <v>1241.983675158878</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2817270509536146</v>
+        <v>0.2817270509770085</v>
       </c>
     </row>
     <row r="3">
@@ -3840,10 +3840,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>61.65905046971108</v>
+        <v>61.65905047194457</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3624769635372498</v>
+        <v>0.3624769635373208</v>
       </c>
     </row>
     <row r="4">
@@ -3853,10 +3853,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>270.1945824947118</v>
+        <v>270.1945824923242</v>
       </c>
       <c r="C4" t="n">
-        <v>2.806453743614187e-08</v>
+        <v>2.806453746757942e-08</v>
       </c>
     </row>
     <row r="5">
@@ -3866,10 +3866,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.06886043515438482</v>
+        <v>-6.886043515435587</v>
       </c>
       <c r="C5" t="n">
-        <v>0.08321658719499904</v>
+        <v>0.08321658719510382</v>
       </c>
     </row>
     <row r="6">
@@ -3879,10 +3879,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.735212350163916e-06</v>
+        <v>4.735212366049907</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9312909169901101</v>
+        <v>0.9312909167610761</v>
       </c>
     </row>
     <row r="7">
@@ -3892,10 +3892,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.479540056755027</v>
+        <v>4.47954005675512</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5436102127202047</v>
+        <v>0.5436102127201962</v>
       </c>
     </row>
     <row r="8">
@@ -3905,10 +3905,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>521.1668027216901</v>
+        <v>5.211668027216831</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6813193500652761</v>
+        <v>0.6813193500652804</v>
       </c>
     </row>
     <row r="9">
@@ -3918,10 +3918,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-101.3534846633925</v>
+        <v>-1.013534846633885</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8746704575350004</v>
+        <v>0.8746704575350054</v>
       </c>
     </row>
     <row r="10">
@@ -3931,10 +3931,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7148.784866137377</v>
+        <v>71.48784866137399</v>
       </c>
       <c r="C10" t="n">
-        <v>0.002273546245998417</v>
+        <v>0.002273546245998364</v>
       </c>
     </row>
     <row r="11">
@@ -3944,10 +3944,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>18.32210975748762</v>
+        <v>18.32210975748753</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2794651632941039</v>
+        <v>0.2794651632941071</v>
       </c>
     </row>
   </sheetData>
@@ -3993,10 +3993,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>982.4539150813916</v>
+        <v>982.4539150757828</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4049283305943483</v>
+        <v>0.4049283305971932</v>
       </c>
     </row>
     <row r="3">
@@ -4006,10 +4006,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>61.12957858133421</v>
+        <v>61.12957858410095</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3583811918827129</v>
+        <v>0.3583811918823846</v>
       </c>
     </row>
     <row r="4">
@@ -4019,10 +4019,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>285.6202769108326</v>
+        <v>285.6202769064026</v>
       </c>
       <c r="C4" t="n">
-        <v>9.142523582557456e-09</v>
+        <v>9.142523603067397e-09</v>
       </c>
     </row>
     <row r="5">
@@ -4032,10 +4032,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.04788010109074523</v>
+        <v>-4.788010109199725</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2490836871015155</v>
+        <v>0.2490836870935969</v>
       </c>
     </row>
     <row r="6">
@@ -4045,10 +4045,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.394355309774779e-05</v>
+        <v>13.94355310307023</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8177329915420691</v>
+        <v>0.8177329914682789</v>
       </c>
     </row>
     <row r="7">
@@ -4058,10 +4058,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-8.764826136443688</v>
+        <v>-8.764826136443574</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2614710981160349</v>
+        <v>0.26147109811604</v>
       </c>
     </row>
     <row r="8">
@@ -4071,10 +4071,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>836.6948477051851</v>
+        <v>8.366948477052089</v>
       </c>
       <c r="C8" t="n">
-        <v>0.514045975689425</v>
+        <v>0.5140459756894152</v>
       </c>
     </row>
     <row r="9">
@@ -4084,10 +4084,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-785.4242684093251</v>
+        <v>-7.854242684093258</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2485480227282049</v>
+        <v>0.2485480227282044</v>
       </c>
     </row>
     <row r="10">
@@ -4097,10 +4097,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9299.158739080403</v>
+        <v>92.99158739080414</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0001266633137724519</v>
+        <v>0.0001266633137724496</v>
       </c>
     </row>
     <row r="11">
@@ -4110,10 +4110,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>45.89436326977467</v>
+        <v>45.8943632697748</v>
       </c>
       <c r="C11" t="n">
-        <v>0.006651217133073844</v>
+        <v>0.006651217133073614</v>
       </c>
     </row>
   </sheetData>
@@ -4159,10 +4159,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>154.7027371839122</v>
+        <v>154.7027370514061</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8790676006306738</v>
+        <v>0.879067600734297</v>
       </c>
     </row>
     <row r="3">
@@ -4172,10 +4172,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>92.74511177702746</v>
+        <v>92.74511177079029</v>
       </c>
       <c r="C3" t="n">
-        <v>0.09768550281463326</v>
+        <v>0.09768550281461527</v>
       </c>
     </row>
     <row r="4">
@@ -4185,10 +4185,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>286.0083567241496</v>
+        <v>286.0083567217902</v>
       </c>
       <c r="C4" t="n">
-        <v>1.862498092061752e-10</v>
+        <v>1.862498093919194e-10</v>
       </c>
     </row>
     <row r="5">
@@ -4198,10 +4198,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03289831544391721</v>
+        <v>-3.289831544741562</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2939130991286916</v>
+        <v>0.293913099087133</v>
       </c>
     </row>
     <row r="6">
@@ -4211,10 +4211,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-7.196359487307113e-06</v>
+        <v>-7.196359455851393</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8711228579982448</v>
+        <v>0.8711228585623563</v>
       </c>
     </row>
     <row r="7">
@@ -4224,10 +4224,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-6.730153753472784</v>
+        <v>-6.730153753472372</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3021358404571957</v>
+        <v>0.302135840457224</v>
       </c>
     </row>
     <row r="8">
@@ -4237,10 +4237,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>358.8961994130168</v>
+        <v>3.588961994129818</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7196194374980873</v>
+        <v>0.7196194374981133</v>
       </c>
     </row>
     <row r="9">
@@ -4250,10 +4250,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-275.7936163562026</v>
+        <v>-2.757936163561915</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6047121179926973</v>
+        <v>0.6047121179927117</v>
       </c>
     </row>
     <row r="10">
@@ -4263,10 +4263,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14827.17947014691</v>
+        <v>148.2717947014689</v>
       </c>
       <c r="C10" t="n">
-        <v>1.524896213674458e-09</v>
+        <v>1.524896213674436e-09</v>
       </c>
     </row>
     <row r="11">
@@ -4276,10 +4276,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>37.6331282378134</v>
+        <v>37.63312823781348</v>
       </c>
       <c r="C11" t="n">
-        <v>0.003643298095638665</v>
+        <v>0.003643298095638563</v>
       </c>
     </row>
   </sheetData>
@@ -4325,10 +4325,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-5.464316825870583</v>
+        <v>-5.46431682227967</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9962807030792457</v>
+        <v>0.9962807030816891</v>
       </c>
     </row>
     <row r="3">
@@ -4338,10 +4338,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>26.26363093953768</v>
+        <v>26.26363094040016</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6908770260641286</v>
+        <v>0.6908770260641248</v>
       </c>
     </row>
     <row r="4">
@@ -4351,10 +4351,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>307.6210544778039</v>
+        <v>307.6210544762515</v>
       </c>
       <c r="C4" t="n">
-        <v>1.776467650431434e-08</v>
+        <v>1.776467653113564e-08</v>
       </c>
     </row>
     <row r="5">
@@ -4364,10 +4364,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01358691225717895</v>
+        <v>-1.358691225800648</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8126939213669121</v>
+        <v>0.8126939213577634</v>
       </c>
     </row>
     <row r="6">
@@ -4377,10 +4377,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.582518383219235e-05</v>
+        <v>-25.82518382605491</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6777100790417383</v>
+        <v>0.677710079106094</v>
       </c>
     </row>
     <row r="7">
@@ -4390,10 +4390,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-5.128311813059515</v>
+        <v>-5.128311813059529</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4497575779613529</v>
+        <v>0.4497575779613507</v>
       </c>
     </row>
     <row r="8">
@@ -4403,10 +4403,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>380.3772590329488</v>
+        <v>3.803772590329352</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7721560225977425</v>
+        <v>0.7721560225977508</v>
       </c>
     </row>
     <row r="9">
@@ -4416,10 +4416,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-300.791973457116</v>
+        <v>-3.007919734571175</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6560616532219654</v>
+        <v>0.6560616532219636</v>
       </c>
     </row>
     <row r="10">
@@ -4429,10 +4429,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14394.52279777318</v>
+        <v>143.9452279777317</v>
       </c>
       <c r="C10" t="n">
-        <v>4.893394415213157e-08</v>
+        <v>4.893394415213317e-08</v>
       </c>
     </row>
     <row r="11">
@@ -4442,10 +4442,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>41.98648546382148</v>
+        <v>41.98648546382155</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01433650865641672</v>
+        <v>0.01433650865641628</v>
       </c>
     </row>
   </sheetData>
@@ -4491,10 +4491,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-314.4271811593953</v>
+        <v>-314.4271812424604</v>
       </c>
       <c r="C2" t="n">
-        <v>0.785502184290511</v>
+        <v>0.7855021842357282</v>
       </c>
     </row>
     <row r="3">
@@ -4504,10 +4504,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>73.77904628074232</v>
+        <v>73.77904628500329</v>
       </c>
       <c r="C3" t="n">
-        <v>0.265397136475127</v>
+        <v>0.2653971364751415</v>
       </c>
     </row>
     <row r="4">
@@ -4517,10 +4517,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>280.6499817395376</v>
+        <v>280.6499817369456</v>
       </c>
       <c r="C4" t="n">
-        <v>1.647627052374945e-07</v>
+        <v>1.647627053953489e-07</v>
       </c>
     </row>
     <row r="5">
@@ -4530,10 +4530,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03567243659912175</v>
+        <v>-3.567243659791369</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3687956227291068</v>
+        <v>0.3687956227428014</v>
       </c>
     </row>
     <row r="6">
@@ -4543,10 +4543,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.868820964319582e-05</v>
+        <v>-28.68820964220797</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6380476757955463</v>
+        <v>0.6380476757967937</v>
       </c>
     </row>
     <row r="7">
@@ -4556,10 +4556,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-3.9519781980806</v>
+        <v>-3.95197819808024</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5436907157398981</v>
+        <v>0.543690715739933</v>
       </c>
     </row>
     <row r="8">
@@ -4569,7 +4569,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1118.851819436437</v>
+        <v>11.18851819436436</v>
       </c>
       <c r="C8" t="n">
         <v>0.3774546363509176</v>
@@ -4582,10 +4582,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-126.0342611051806</v>
+        <v>-1.260342611051923</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8491767010897877</v>
+        <v>0.8491767010897735</v>
       </c>
     </row>
     <row r="10">
@@ -4595,7 +4595,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14039.84958307346</v>
+        <v>140.3984958307346</v>
       </c>
       <c r="C10" t="n">
         <v>1.966831131051492e-07</v>
@@ -4608,10 +4608,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>45.60730980518566</v>
+        <v>45.607309805186</v>
       </c>
       <c r="C11" t="n">
-        <v>0.008047837624927291</v>
+        <v>0.008047837624926847</v>
       </c>
     </row>
   </sheetData>
@@ -4657,10 +4657,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1408.913491557505</v>
+        <v>1408.9134914757</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2144427891528843</v>
+        <v>0.214442789179861</v>
       </c>
     </row>
     <row r="3">
@@ -4670,10 +4670,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>84.94369538778921</v>
+        <v>84.94369538766011</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1617584708915035</v>
+        <v>0.1617584708915431</v>
       </c>
     </row>
     <row r="4">
@@ -4683,10 +4683,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>292.1373751675297</v>
+        <v>292.1373751685018</v>
       </c>
       <c r="C4" t="n">
-        <v>5.193936911324127e-09</v>
+        <v>5.193936909511627e-09</v>
       </c>
     </row>
     <row r="5">
@@ -4696,10 +4696,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.036758593533341</v>
+        <v>-3.675859353552895</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3171400719948511</v>
+        <v>0.3171400719729348</v>
       </c>
     </row>
     <row r="6">
@@ -4709,10 +4709,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-9.003976242584081e-06</v>
+        <v>-9.003976230874798</v>
       </c>
       <c r="C6" t="n">
-        <v>0.880225764696398</v>
+        <v>0.8802257648523625</v>
       </c>
     </row>
     <row r="7">
@@ -4722,10 +4722,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-10.58141923399031</v>
+        <v>-10.58141923399008</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1272047046645318</v>
+        <v>0.1272047046645393</v>
       </c>
     </row>
     <row r="8">
@@ -4735,10 +4735,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>487.0546790440771</v>
+        <v>4.870546790441043</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6799722380237013</v>
+        <v>0.6799722380236858</v>
       </c>
     </row>
     <row r="9">
@@ -4748,10 +4748,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-924.5010294167887</v>
+        <v>-9.245010294167898</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1450775940549102</v>
+        <v>0.1450775940549095</v>
       </c>
     </row>
     <row r="10">
@@ -4761,10 +4761,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7662.76857669738</v>
+        <v>76.62768576697285</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0005662173217659969</v>
+        <v>0.0005662173217660722</v>
       </c>
     </row>
     <row r="11">
@@ -4774,10 +4774,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>43.39137247928149</v>
+        <v>43.39137247928176</v>
       </c>
       <c r="C11" t="n">
-        <v>0.009035131608549197</v>
+        <v>0.009035131608548743</v>
       </c>
     </row>
   </sheetData>
@@ -4823,10 +4823,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>873.8378184885482</v>
+        <v>873.8378184922102</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4292506362315106</v>
+        <v>0.4292506362291346</v>
       </c>
     </row>
     <row r="3">
@@ -4836,10 +4836,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10.17546737217083</v>
+        <v>10.17546737162729</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8916773643495022</v>
+        <v>0.8916773643489846</v>
       </c>
     </row>
     <row r="4">
@@ -4849,10 +4849,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>241.7286959542473</v>
+        <v>241.7286959538025</v>
       </c>
       <c r="C4" t="n">
-        <v>4.475178354172976e-07</v>
+        <v>4.475178358643094e-07</v>
       </c>
     </row>
     <row r="5">
@@ -4862,10 +4862,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.07463775847953452</v>
+        <v>-7.463775847912153</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05980820543018568</v>
+        <v>0.05980820543260672</v>
       </c>
     </row>
     <row r="6">
@@ -4875,10 +4875,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.554064039937635e-06</v>
+        <v>7.554064026785937</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8852818962462263</v>
+        <v>0.8852818964468959</v>
       </c>
     </row>
     <row r="7">
@@ -4888,10 +4888,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16.21494016552289</v>
+        <v>16.21494016552255</v>
       </c>
       <c r="C7" t="n">
-        <v>0.08780051083867345</v>
+        <v>0.08780051083867872</v>
       </c>
     </row>
     <row r="8">
@@ -4901,10 +4901,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21.84822539260722</v>
+        <v>0.2184822539259343</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9856510882296781</v>
+        <v>0.9856510882296872</v>
       </c>
     </row>
     <row r="9">
@@ -4914,10 +4914,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-310.4073864815373</v>
+        <v>-3.10407386481549</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6390564777280744</v>
+        <v>0.6390564777280621</v>
       </c>
     </row>
     <row r="10">
@@ -4927,10 +4927,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6992.230469400439</v>
+        <v>69.92230469400455</v>
       </c>
       <c r="C10" t="n">
-        <v>0.001430278746607968</v>
+        <v>0.001430278746607938</v>
       </c>
     </row>
     <row r="11">
@@ -4940,10 +4940,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>16.41338878141283</v>
+        <v>16.41338878141284</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3429063669163118</v>
+        <v>0.3429063669163107</v>
       </c>
     </row>
   </sheetData>
@@ -4989,10 +4989,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>705.8096623632878</v>
+        <v>705.8096622600074</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5485836371021305</v>
+        <v>0.5485836371621009</v>
       </c>
     </row>
     <row r="3">
@@ -5002,10 +5002,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>94.99332474973076</v>
+        <v>94.99332474346576</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1642957591780452</v>
+        <v>0.1642957591779774</v>
       </c>
     </row>
     <row r="4">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>272.8391834097789</v>
+        <v>272.8391834084151</v>
       </c>
       <c r="C4" t="n">
-        <v>1.395177240092065e-07</v>
+        <v>1.395177240685316e-07</v>
       </c>
     </row>
     <row r="5">
@@ -5028,10 +5028,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03856924015515684</v>
+        <v>-3.856924015134567</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5832922204927395</v>
+        <v>0.583292220525628</v>
       </c>
     </row>
     <row r="6">
@@ -5041,10 +5041,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.553423221820169e-06</v>
+        <v>1.55342316847981</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9840015461176336</v>
+        <v>0.9840015466667356</v>
       </c>
     </row>
     <row r="7">
@@ -5054,10 +5054,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-4.493026622055027</v>
+        <v>-4.493026622054888</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5292396221398133</v>
+        <v>0.5292396221398252</v>
       </c>
     </row>
     <row r="8">
@@ -5067,7 +5067,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>402.6219087190966</v>
+        <v>4.02621908719096</v>
       </c>
       <c r="C8" t="n">
         <v>0.7654468316946499</v>
@@ -5080,10 +5080,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-648.8089312047214</v>
+        <v>-6.488089312047229</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3848963604553182</v>
+        <v>0.3848963604553183</v>
       </c>
     </row>
     <row r="10">
@@ -5093,10 +5093,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10232.44159057922</v>
+        <v>102.3244159057921</v>
       </c>
       <c r="C10" t="n">
-        <v>2.133557161064014e-05</v>
+        <v>2.13355716106403e-05</v>
       </c>
     </row>
     <row r="11">
@@ -5106,10 +5106,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>39.72676068658683</v>
+        <v>39.72676068658687</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01653383102324964</v>
+        <v>0.01653383102324935</v>
       </c>
     </row>
   </sheetData>
@@ -5155,10 +5155,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-89.01827332335779</v>
+        <v>-89.01827328756644</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9388408705423319</v>
+        <v>0.9388408705666813</v>
       </c>
     </row>
     <row r="3">
@@ -5168,10 +5168,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>134.4513456417091</v>
+        <v>134.4513456385664</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04097731203778607</v>
+        <v>0.04097731203780987</v>
       </c>
     </row>
     <row r="4">
@@ -5181,10 +5181,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>258.0501457268446</v>
+        <v>258.0501457145127</v>
       </c>
       <c r="C4" t="n">
-        <v>1.017620067182043e-07</v>
+        <v>1.01762007038906e-07</v>
       </c>
     </row>
     <row r="5">
@@ -5194,10 +5194,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.04094574491476659</v>
+        <v>-4.094574493817468</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2603506069783864</v>
+        <v>0.2603506067433176</v>
       </c>
     </row>
     <row r="6">
@@ -5207,10 +5207,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.693797484406795e-06</v>
+        <v>2.693797526673194</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9568930697348059</v>
+        <v>0.9568930690599137</v>
       </c>
     </row>
     <row r="7">
@@ -5220,10 +5220,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2.207987828961592</v>
+        <v>-2.207987828961656</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7325955575328676</v>
+        <v>0.7325955575328599</v>
       </c>
     </row>
     <row r="8">
@@ -5233,10 +5233,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1246.168814151558</v>
+        <v>12.4616881415152</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3300504353299879</v>
+        <v>0.3300504353300021</v>
       </c>
     </row>
     <row r="9">
@@ -5246,10 +5246,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-99.87978652699348</v>
+        <v>-0.9987978652699923</v>
       </c>
       <c r="C9" t="n">
-        <v>0.872810568197539</v>
+        <v>0.8728105681975318</v>
       </c>
     </row>
     <row r="10">
@@ -5259,10 +5259,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13053.65156071219</v>
+        <v>130.5365156071218</v>
       </c>
       <c r="C10" t="n">
-        <v>1.3536347020441e-07</v>
+        <v>1.353634702044153e-07</v>
       </c>
     </row>
     <row r="11">
@@ -5272,10 +5272,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>33.56125985440418</v>
+        <v>33.56125985440431</v>
       </c>
       <c r="C11" t="n">
-        <v>0.02674249478426373</v>
+        <v>0.02674249478426328</v>
       </c>
     </row>
   </sheetData>
@@ -5321,10 +5321,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2056.542269290213</v>
+        <v>2056.542269297251</v>
       </c>
       <c r="C2" t="n">
-        <v>0.05272727944855012</v>
+        <v>0.05272727944757984</v>
       </c>
     </row>
     <row r="3">
@@ -5334,10 +5334,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>74.08329564829174</v>
+        <v>74.08329565758964</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2224707348695282</v>
+        <v>0.2224707348696081</v>
       </c>
     </row>
     <row r="4">
@@ -5347,10 +5347,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>276.3641460685725</v>
+        <v>276.364146063841</v>
       </c>
       <c r="C4" t="n">
-        <v>5.885236448263752e-09</v>
+        <v>5.885236460167393e-09</v>
       </c>
     </row>
     <row r="5">
@@ -5360,10 +5360,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.04225650095845327</v>
+        <v>-4.225650095766049</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2474751974647615</v>
+        <v>0.2474751974723474</v>
       </c>
     </row>
     <row r="6">
@@ -5373,10 +5373,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.463058843843018e-05</v>
+        <v>-34.63058840655515</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5093942803609151</v>
+        <v>0.5093942807601497</v>
       </c>
     </row>
     <row r="7">
@@ -5386,10 +5386,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-3.425798970732828</v>
+        <v>-3.425798970732842</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6513929012844633</v>
+        <v>0.651392901284462</v>
       </c>
     </row>
     <row r="8">
@@ -5399,10 +5399,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>359.3313438637942</v>
+        <v>3.593313438637978</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7454861743362354</v>
+        <v>0.7454861743362329</v>
       </c>
     </row>
     <row r="9">
@@ -5412,10 +5412,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-528.1922574204714</v>
+        <v>-5.281922574204689</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3674913236803462</v>
+        <v>0.367491323680349</v>
       </c>
     </row>
     <row r="10">
@@ -5425,10 +5425,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7410.345079060307</v>
+        <v>74.10345079060303</v>
       </c>
       <c r="C10" t="n">
-        <v>0.000277385180426331</v>
+        <v>0.0002773851804263319</v>
       </c>
     </row>
     <row r="11">
@@ -5438,10 +5438,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>18.37796179135535</v>
+        <v>18.3779617913556</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2402255082655823</v>
+        <v>0.2402255082655758</v>
       </c>
     </row>
   </sheetData>
@@ -5487,10 +5487,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>128.6453188952983</v>
+        <v>128.6453189200492</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9206138093637943</v>
+        <v>0.9206138093484575</v>
       </c>
     </row>
     <row r="3">
@@ -5500,10 +5500,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>91.20577252778071</v>
+        <v>91.20577253007451</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2288437915230448</v>
+        <v>0.2288437915231887</v>
       </c>
     </row>
     <row r="4">
@@ -5513,10 +5513,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>254.5894738166944</v>
+        <v>254.589473817867</v>
       </c>
       <c r="C4" t="n">
-        <v>6.072566475554526e-06</v>
+        <v>6.072566473644552e-06</v>
       </c>
     </row>
     <row r="5">
@@ -5526,10 +5526,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01413877336106367</v>
+        <v>-1.413877335869913</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8403026753736277</v>
+        <v>0.8403026753986209</v>
       </c>
     </row>
     <row r="6">
@@ -5539,10 +5539,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.390582388894509e-06</v>
+        <v>3.390582339136998</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9596349320886088</v>
+        <v>0.9596349326787612</v>
       </c>
     </row>
     <row r="7">
@@ -5552,10 +5552,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3995355974006642</v>
+        <v>0.3995355974008916</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9588064587869073</v>
+        <v>0.9588064587868836</v>
       </c>
     </row>
     <row r="8">
@@ -5565,10 +5565,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-250.4941193067305</v>
+        <v>-2.504941193067224</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8559622823464247</v>
+        <v>0.8559622823464293</v>
       </c>
     </row>
     <row r="9">
@@ -5578,10 +5578,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-643.0998522458299</v>
+        <v>-6.43099852245831</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3849462890420112</v>
+        <v>0.3849462890420101</v>
       </c>
     </row>
     <row r="10">
@@ -5591,10 +5591,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11540.91205508972</v>
+        <v>115.4091205508971</v>
       </c>
       <c r="C10" t="n">
-        <v>8.130300875515256e-06</v>
+        <v>8.130300875515361e-06</v>
       </c>
     </row>
     <row r="11">
@@ -5604,10 +5604,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>38.36986769355887</v>
+        <v>38.36986769355892</v>
       </c>
       <c r="C11" t="n">
-        <v>0.02773569667962348</v>
+        <v>0.0277356966796229</v>
       </c>
     </row>
   </sheetData>
@@ -5653,10 +5653,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-475.7288252821195</v>
+        <v>-475.728825288847</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6571100900647777</v>
+        <v>0.6571100900599156</v>
       </c>
     </row>
     <row r="3">
@@ -5666,10 +5666,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.63856926595173</v>
+        <v>18.63856926494897</v>
       </c>
       <c r="C3" t="n">
-        <v>0.77198338755357</v>
+        <v>0.7719833875543185</v>
       </c>
     </row>
     <row r="4">
@@ -5679,10 +5679,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>330.708708335227</v>
+        <v>330.7087083359008</v>
       </c>
       <c r="C4" t="n">
-        <v>1.33885694713441e-09</v>
+        <v>1.33885694571512e-09</v>
       </c>
     </row>
     <row r="5">
@@ -5692,10 +5692,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.04324572011146943</v>
+        <v>-4.324572010960322</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2533127268392756</v>
+        <v>0.253312726838351</v>
       </c>
     </row>
     <row r="6">
@@ -5705,10 +5705,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.050959233751068e-05</v>
+        <v>10.50959233706551</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8456326883254083</v>
+        <v>0.8456326883281171</v>
       </c>
     </row>
     <row r="7">
@@ -5718,10 +5718,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-5.166946430464378</v>
+        <v>-5.166946430464179</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4136028715867491</v>
+        <v>0.4136028715867643</v>
       </c>
     </row>
     <row r="8">
@@ -5731,10 +5731,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>894.6233088259955</v>
+        <v>8.946233088259923</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4348229641693392</v>
+        <v>0.4348229641693412</v>
       </c>
     </row>
     <row r="9">
@@ -5744,10 +5744,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-41.77420605334146</v>
+        <v>-0.4177420605334721</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9489392463506162</v>
+        <v>0.9489392463506093</v>
       </c>
     </row>
     <row r="10">
@@ -5757,10 +5757,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13858.86882577542</v>
+        <v>138.5886882577544</v>
       </c>
       <c r="C10" t="n">
-        <v>2.101572250372544e-07</v>
+        <v>2.101572250372533e-07</v>
       </c>
     </row>
     <row r="11">
@@ -5770,10 +5770,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>48.99897537008385</v>
+        <v>48.99897537008399</v>
       </c>
       <c r="C11" t="n">
-        <v>0.00246590931878637</v>
+        <v>0.002465909318786341</v>
       </c>
     </row>
   </sheetData>
@@ -5819,10 +5819,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>483.0664264877043</v>
+        <v>483.0664262871735</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6712731273943467</v>
+        <v>0.671273127526133</v>
       </c>
     </row>
     <row r="3">
@@ -5832,10 +5832,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>118.92855114707</v>
+        <v>118.9285511515315</v>
       </c>
       <c r="C3" t="n">
-        <v>0.06534622706591703</v>
+        <v>0.06534622706600751</v>
       </c>
     </row>
     <row r="4">
@@ -5845,10 +5845,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>246.8283037228092</v>
+        <v>246.8283037214281</v>
       </c>
       <c r="C4" t="n">
-        <v>4.185206061667717e-07</v>
+        <v>4.185206063091939e-07</v>
       </c>
     </row>
     <row r="5">
@@ -5858,10 +5858,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02895568053459935</v>
+        <v>-2.895568054478147</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4541038900307556</v>
+        <v>0.4541038898896401</v>
       </c>
     </row>
     <row r="6">
@@ -5871,10 +5871,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.926047568631017e-05</v>
+        <v>-19.2604756673831</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7166658238105598</v>
+        <v>0.7166658240727799</v>
       </c>
     </row>
     <row r="7">
@@ -5884,10 +5884,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-5.450386519203658</v>
+        <v>-5.450386519203407</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4145137818756722</v>
+        <v>0.4145137818756908</v>
       </c>
     </row>
     <row r="8">
@@ -5897,10 +5897,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>590.9590014739638</v>
+        <v>5.909590014739546</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6242272514301335</v>
+        <v>0.6242272514301409</v>
       </c>
     </row>
     <row r="9">
@@ -5910,10 +5910,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-896.5298362732274</v>
+        <v>-8.96529836273227</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2100275047218875</v>
+        <v>0.2100275047218863</v>
       </c>
     </row>
     <row r="10">
@@ -5923,10 +5923,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11612.39511105467</v>
+        <v>116.1239511105466</v>
       </c>
       <c r="C10" t="n">
-        <v>4.76825195438843e-06</v>
+        <v>4.768251954388554e-06</v>
       </c>
     </row>
     <row r="11">
@@ -5936,10 +5936,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>46.68217479331697</v>
+        <v>46.68217479331732</v>
       </c>
       <c r="C11" t="n">
-        <v>0.00545362567914214</v>
+        <v>0.005453625679141623</v>
       </c>
     </row>
   </sheetData>
@@ -5985,10 +5985,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1857.367079811585</v>
+        <v>1857.367079804291</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1169953546463702</v>
+        <v>0.1169953546480647</v>
       </c>
     </row>
     <row r="3">
@@ -5998,10 +5998,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>48.5438968491533</v>
+        <v>48.54389685021214</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4674652629144882</v>
+        <v>0.4674652629146684</v>
       </c>
     </row>
     <row r="4">
@@ -6011,10 +6011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>245.9087411406068</v>
+        <v>245.9087411381076</v>
       </c>
       <c r="C4" t="n">
-        <v>2.965757875927922e-06</v>
+        <v>2.965757879097885e-06</v>
       </c>
     </row>
     <row r="5">
@@ -6024,10 +6024,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.05622632932874388</v>
+        <v>-5.62263293334591</v>
       </c>
       <c r="C5" t="n">
-        <v>0.149812517611305</v>
+        <v>0.1498125175961249</v>
       </c>
     </row>
     <row r="6">
@@ -6037,10 +6037,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.678337245798905e-05</v>
+        <v>-26.78337245751162</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6396479284121688</v>
+        <v>0.6396479284261951</v>
       </c>
     </row>
     <row r="7">
@@ -6050,10 +6050,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.754235365025334</v>
+        <v>4.754235365025647</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5127557323911341</v>
+        <v>0.5127557323911047</v>
       </c>
     </row>
     <row r="8">
@@ -6063,10 +6063,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-472.9198328592488</v>
+        <v>-4.729198328592496</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7086687055930923</v>
+        <v>0.7086687055930918</v>
       </c>
     </row>
     <row r="9">
@@ -6076,10 +6076,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-594.9289629619103</v>
+        <v>-5.949289629619112</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3494615355965843</v>
+        <v>0.349461535596584</v>
       </c>
     </row>
     <row r="10">
@@ -6089,10 +6089,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9281.579031581439</v>
+        <v>92.81579031581438</v>
       </c>
       <c r="C10" t="n">
-        <v>4.784406792919153e-05</v>
+        <v>4.784406792919123e-05</v>
       </c>
     </row>
     <row r="11">
@@ -6105,7 +6105,7 @@
         <v>9.142034305096743</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6189379342763541</v>
+        <v>0.618937934276354</v>
       </c>
     </row>
   </sheetData>
@@ -6151,10 +6151,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>860.9852669065724</v>
+        <v>860.9852669122347</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4858802031861398</v>
+        <v>0.4858802031831557</v>
       </c>
     </row>
     <row r="3">
@@ -6164,10 +6164,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>101.9781190544311</v>
+        <v>101.9781190568164</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1674256178459796</v>
+        <v>0.1674256178460101</v>
       </c>
     </row>
     <row r="4">
@@ -6177,10 +6177,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>260.6113362834755</v>
+        <v>260.6113362843674</v>
       </c>
       <c r="C4" t="n">
-        <v>1.777012831484315e-07</v>
+        <v>1.777012831014139e-07</v>
       </c>
     </row>
     <row r="5">
@@ -6190,10 +6190,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.06240042770471219</v>
+        <v>-6.240042770438336</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1509739427086772</v>
+        <v>0.1509739427101141</v>
       </c>
     </row>
     <row r="6">
@@ -6203,10 +6203,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.704564732098735e-05</v>
+        <v>-17.04564729425533</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7944183585670097</v>
+        <v>0.7944183588825962</v>
       </c>
     </row>
     <row r="7">
@@ -6216,10 +6216,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2.145186692094592</v>
+        <v>-2.145186692094276</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7773032850951972</v>
+        <v>0.7773032850952284</v>
       </c>
     </row>
     <row r="8">
@@ -6229,10 +6229,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2095.035285508571</v>
+        <v>20.95035285508548</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1743675471689154</v>
+        <v>0.1743675471689194</v>
       </c>
     </row>
     <row r="9">
@@ -6242,10 +6242,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-203.4091627862699</v>
+        <v>-2.034091627862697</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7769113877284058</v>
+        <v>0.7769113877284064</v>
       </c>
     </row>
     <row r="10">
@@ -6255,10 +6255,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9489.994700443376</v>
+        <v>94.89994700443376</v>
       </c>
       <c r="C10" t="n">
-        <v>5.683906315782806e-05</v>
+        <v>5.683906315782882e-05</v>
       </c>
     </row>
     <row r="11">
@@ -6268,10 +6268,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>29.1922123952774</v>
+        <v>29.19221239527751</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1027226470412531</v>
+        <v>0.1027226470412518</v>
       </c>
     </row>
   </sheetData>
@@ -6317,10 +6317,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>566.8985848310249</v>
+        <v>566.898584813991</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6428840932856437</v>
+        <v>0.6428840932959068</v>
       </c>
     </row>
     <row r="3">
@@ -6330,10 +6330,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>108.155276307491</v>
+        <v>108.1552763096349</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1247225807757333</v>
+        <v>0.1247225807758862</v>
       </c>
     </row>
     <row r="4">
@@ -6343,10 +6343,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>265.9650309285333</v>
+        <v>265.9650309307157</v>
       </c>
       <c r="C4" t="n">
-        <v>7.371640316487817e-07</v>
+        <v>7.371640312363211e-07</v>
       </c>
     </row>
     <row r="5">
@@ -6356,10 +6356,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.05469161184926996</v>
+        <v>-5.469161184910416</v>
       </c>
       <c r="C5" t="n">
-        <v>0.190963076751557</v>
+        <v>0.1909630767525601</v>
       </c>
     </row>
     <row r="6">
@@ -6369,10 +6369,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.521419629654217e-05</v>
+        <v>15.21419627391163</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8315394982809645</v>
+        <v>0.8315394985283819</v>
       </c>
     </row>
     <row r="7">
@@ -6382,10 +6382,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-5.225581172229717</v>
+        <v>-5.225581172229695</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4505101975734482</v>
+        <v>0.4505101975734497</v>
       </c>
     </row>
     <row r="8">
@@ -6395,10 +6395,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1034.831788652798</v>
+        <v>10.34831788652801</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4448854316428497</v>
+        <v>0.4448854316428486</v>
       </c>
     </row>
     <row r="9">
@@ -6408,10 +6408,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-443.6582809760507</v>
+        <v>-4.436582809760456</v>
       </c>
       <c r="C9" t="n">
-        <v>0.498812088910775</v>
+        <v>0.4988120889107798</v>
       </c>
     </row>
     <row r="10">
@@ -6421,10 +6421,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10023.49845059993</v>
+        <v>100.2349845059989</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0001084006013010151</v>
+        <v>0.0001084006013010204</v>
       </c>
     </row>
     <row r="11">
@@ -6434,10 +6434,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>40.61710354490553</v>
+        <v>40.61710354490566</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01823844649487897</v>
+        <v>0.01823844649487873</v>
       </c>
     </row>
   </sheetData>
@@ -6483,10 +6483,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1199.96991573739</v>
+        <v>1199.969915669627</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2821226687155387</v>
+        <v>0.2821226687451694</v>
       </c>
     </row>
     <row r="3">
@@ -6496,10 +6496,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>63.07200876148437</v>
+        <v>63.07200876115849</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4225412107377318</v>
+        <v>0.422541210737903</v>
       </c>
     </row>
     <row r="4">
@@ -6509,10 +6509,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>255.8178649436454</v>
+        <v>255.8178649454671</v>
       </c>
       <c r="C4" t="n">
-        <v>1.364622189616398e-07</v>
+        <v>1.364622188367991e-07</v>
       </c>
     </row>
     <row r="5">
@@ -6522,10 +6522,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.04027326890706587</v>
+        <v>-4.027326890961227</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3134368685800599</v>
+        <v>0.3134368685592546</v>
       </c>
     </row>
     <row r="6">
@@ -6535,10 +6535,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.193712922291828e-05</v>
+        <v>-31.93712920957861</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5647163870121672</v>
+        <v>0.5647163871897611</v>
       </c>
     </row>
     <row r="7">
@@ -6548,10 +6548,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.710018468702096</v>
+        <v>4.710018468702152</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5306278598001072</v>
+        <v>0.5306278598001013</v>
       </c>
     </row>
     <row r="8">
@@ -6561,10 +6561,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-63.02773698630153</v>
+        <v>-0.6302773698627604</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9579553328042594</v>
+        <v>0.9579553328042764</v>
       </c>
     </row>
     <row r="9">
@@ -6574,10 +6574,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-383.6432992734162</v>
+        <v>-3.836432992734139</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5713339245339442</v>
+        <v>0.5713339245339464</v>
       </c>
     </row>
     <row r="10">
@@ -6587,10 +6587,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9234.452010349953</v>
+        <v>92.34452010349935</v>
       </c>
       <c r="C10" t="n">
-        <v>4.443651213944569e-05</v>
+        <v>4.443651213944628e-05</v>
       </c>
     </row>
     <row r="11">
@@ -6600,10 +6600,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>19.0091114492982</v>
+        <v>19.00911144929817</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2589008214912564</v>
+        <v>0.2589008214912566</v>
       </c>
     </row>
   </sheetData>
@@ -6649,10 +6649,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>820.1052558990386</v>
+        <v>820.1052559038078</v>
       </c>
       <c r="C2" t="n">
-        <v>0.526341753469094</v>
+        <v>0.526341753466587</v>
       </c>
     </row>
     <row r="3">
@@ -6662,10 +6662,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>76.45425186424215</v>
+        <v>76.45425185903184</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2399179522091567</v>
+        <v>0.239917952209048</v>
       </c>
     </row>
     <row r="4">
@@ -6675,10 +6675,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>271.6157390731581</v>
+        <v>271.6157390723851</v>
       </c>
       <c r="C4" t="n">
-        <v>4.151151881740902e-08</v>
+        <v>4.151151882955115e-08</v>
       </c>
     </row>
     <row r="5">
@@ -6688,10 +6688,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.04647573814779558</v>
+        <v>-4.647573815109336</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2435892625309154</v>
+        <v>0.2435892625062078</v>
       </c>
     </row>
     <row r="6">
@@ -6701,10 +6701,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.779681023887191e-06</v>
+        <v>-3.779681010206588</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9507443904522996</v>
+        <v>0.950744390629964</v>
       </c>
     </row>
     <row r="7">
@@ -6714,10 +6714,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-8.801904087476196</v>
+        <v>-8.801904087476068</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2709655491141322</v>
+        <v>0.2709655491141368</v>
       </c>
     </row>
     <row r="8">
@@ -6727,10 +6727,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>476.8953158731574</v>
+        <v>4.768953158731627</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7524216118608175</v>
+        <v>0.7524216118608146</v>
       </c>
     </row>
     <row r="9">
@@ -6740,10 +6740,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-395.4016658080595</v>
+        <v>-3.954016658080636</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5512936704667775</v>
+        <v>0.5512936704667735</v>
       </c>
     </row>
     <row r="10">
@@ -6753,10 +6753,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9687.269172286793</v>
+        <v>96.87269172286788</v>
       </c>
       <c r="C10" t="n">
-        <v>4.500127709274132e-05</v>
+        <v>4.500127709274173e-05</v>
       </c>
     </row>
     <row r="11">
@@ -6766,10 +6766,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>46.67501073236317</v>
+        <v>46.67501073236318</v>
       </c>
       <c r="C11" t="n">
-        <v>0.00996603104941079</v>
+        <v>0.009966031049410714</v>
       </c>
     </row>
   </sheetData>
@@ -6815,10 +6815,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>388.7883082413036</v>
+        <v>388.7883082323333</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7308611713350992</v>
+        <v>0.7308611713412251</v>
       </c>
     </row>
     <row r="3">
@@ -6828,10 +6828,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>102.9580018667003</v>
+        <v>102.9580018695941</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1463403348204177</v>
+        <v>0.1463403348204671</v>
       </c>
     </row>
     <row r="4">
@@ -6841,10 +6841,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>262.1430549193201</v>
+        <v>262.1430549181167</v>
       </c>
       <c r="C4" t="n">
-        <v>2.062736236726537e-06</v>
+        <v>2.062736237380335e-06</v>
       </c>
     </row>
     <row r="5">
@@ -6854,10 +6854,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.06651121555724854</v>
+        <v>-6.651121554839364</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2928493854273508</v>
+        <v>0.2928493854759027</v>
       </c>
     </row>
     <row r="6">
@@ -6867,10 +6867,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.437691125695916e-05</v>
+        <v>24.37691125288609</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7128958663662339</v>
+        <v>0.7128958664007075</v>
       </c>
     </row>
     <row r="7">
@@ -6880,10 +6880,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.5374130605809242</v>
+        <v>-0.5374130605807181</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9423521459079847</v>
+        <v>0.9423521459080064</v>
       </c>
     </row>
     <row r="8">
@@ -6893,10 +6893,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1226.130594609842</v>
+        <v>12.26130594609832</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3140266834202813</v>
+        <v>0.3140266834202852</v>
       </c>
     </row>
     <row r="9">
@@ -6906,10 +6906,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-334.6241033564976</v>
+        <v>-3.346241033565031</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6396145513185432</v>
+        <v>0.6396145513185368</v>
       </c>
     </row>
     <row r="10">
@@ -6919,10 +6919,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10157.01785118264</v>
+        <v>101.5701785118265</v>
       </c>
       <c r="C10" t="n">
-        <v>2.507564699698285e-05</v>
+        <v>2.507564699698201e-05</v>
       </c>
     </row>
     <row r="11">
@@ -6932,10 +6932,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>34.14027915926307</v>
+        <v>34.14027915926341</v>
       </c>
       <c r="C11" t="n">
-        <v>0.03557283772524837</v>
+        <v>0.03557283772524688</v>
       </c>
     </row>
   </sheetData>
@@ -6981,10 +6981,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>608.2821611276286</v>
+        <v>608.2821611321174</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5700678257923135</v>
+        <v>0.5700678257894571</v>
       </c>
     </row>
     <row r="3">
@@ -6994,10 +6994,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>70.45338962210658</v>
+        <v>70.45338963322573</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2361720661692203</v>
+        <v>0.2361720661691916</v>
       </c>
     </row>
     <row r="4">
@@ -7007,10 +7007,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>289.3449158808579</v>
+        <v>289.3449158755873</v>
       </c>
       <c r="C4" t="n">
-        <v>5.154975858758688e-09</v>
+        <v>5.154975870031436e-09</v>
       </c>
     </row>
     <row r="5">
@@ -7020,10 +7020,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03376134742320909</v>
+        <v>-3.376134742260454</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3539964543731594</v>
+        <v>0.3539964543798134</v>
       </c>
     </row>
     <row r="6">
@@ -7033,10 +7033,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.059846342210033e-05</v>
+        <v>-20.59846343037756</v>
       </c>
       <c r="C6" t="n">
-        <v>0.677409105725709</v>
+        <v>0.6774091056005558</v>
       </c>
     </row>
     <row r="7">
@@ -7046,10 +7046,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-7.220768806287753</v>
+        <v>-7.220768806287509</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2570283239635907</v>
+        <v>0.2570283239636052</v>
       </c>
     </row>
     <row r="8">
@@ -7059,10 +7059,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>431.6710699776372</v>
+        <v>4.316710699776415</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6963250430269983</v>
+        <v>0.6963250430269956</v>
       </c>
     </row>
     <row r="9">
@@ -7072,10 +7072,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-603.3160221758958</v>
+        <v>-6.033160221758919</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3549107810360342</v>
+        <v>0.3549107810360375</v>
       </c>
     </row>
     <row r="10">
@@ -7085,10 +7085,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12723.9986496783</v>
+        <v>127.2399864967831</v>
       </c>
       <c r="C10" t="n">
-        <v>2.122451999444885e-07</v>
+        <v>2.12245199944485e-07</v>
       </c>
     </row>
     <row r="11">
@@ -7098,10 +7098,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>40.82588823269583</v>
+        <v>40.82588823269624</v>
       </c>
       <c r="C11" t="n">
-        <v>0.007911888687581255</v>
+        <v>0.007911888687580698</v>
       </c>
     </row>
   </sheetData>
@@ -7147,10 +7147,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>293.5610041376813</v>
+        <v>293.5610043986444</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8007677834494455</v>
+        <v>0.8007677832726775</v>
       </c>
     </row>
     <row r="3">
@@ -7160,10 +7160,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>122.0531392227803</v>
+        <v>122.0531392220488</v>
       </c>
       <c r="C3" t="n">
-        <v>0.08394705402014754</v>
+        <v>0.08394705402000287</v>
       </c>
     </row>
     <row r="4">
@@ -7173,10 +7173,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>228.532915677032</v>
+        <v>228.5329156665114</v>
       </c>
       <c r="C4" t="n">
-        <v>1.248124242176579e-05</v>
+        <v>1.248124244964224e-05</v>
       </c>
     </row>
     <row r="5">
@@ -7186,10 +7186,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.05137548849880934</v>
+        <v>-5.137548850369125</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2086847325869507</v>
+        <v>0.208684732552905</v>
       </c>
     </row>
     <row r="6">
@@ -7199,10 +7199,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.175868301425815e-05</v>
+        <v>11.75868298369451</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8419240957815995</v>
+        <v>0.8419240961801779</v>
       </c>
     </row>
     <row r="7">
@@ -7212,10 +7212,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1.485789483505187</v>
+        <v>-1.485789483505016</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8346647589798109</v>
+        <v>0.8346647589798286</v>
       </c>
     </row>
     <row r="8">
@@ -7225,10 +7225,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>255.1857003811338</v>
+        <v>2.551857003811609</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8580556731077449</v>
+        <v>0.8580556731077302</v>
       </c>
     </row>
     <row r="9">
@@ -7238,10 +7238,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-246.5552777824214</v>
+        <v>-2.465552777824172</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7075628587127609</v>
+        <v>0.7075628587127656</v>
       </c>
     </row>
     <row r="10">
@@ -7251,10 +7251,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11302.17204331933</v>
+        <v>113.0217204331934</v>
       </c>
       <c r="C10" t="n">
-        <v>3.506732068942171e-06</v>
+        <v>3.506732068942133e-06</v>
       </c>
     </row>
     <row r="11">
@@ -7264,10 +7264,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>39.35423900284851</v>
+        <v>39.35423900284862</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01830820040341793</v>
+        <v>0.01830820040341782</v>
       </c>
     </row>
   </sheetData>
@@ -7313,10 +7313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1017.160643357774</v>
+        <v>1017.160643307914</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3959010774058055</v>
+        <v>0.3959010774303665</v>
       </c>
     </row>
     <row r="3">
@@ -7326,10 +7326,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>109.4962183298878</v>
+        <v>109.4962183308581</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1370637087961547</v>
+        <v>0.1370637087960735</v>
       </c>
     </row>
     <row r="4">
@@ -7339,10 +7339,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>262.8827823634892</v>
+        <v>262.8827823584411</v>
       </c>
       <c r="C4" t="n">
-        <v>2.196510854601182e-06</v>
+        <v>2.196510857334381e-06</v>
       </c>
     </row>
     <row r="5">
@@ -7352,10 +7352,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.05679209389987874</v>
+        <v>-5.679209390181249</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2004065131769694</v>
+        <v>0.2004065131654342</v>
       </c>
     </row>
     <row r="6">
@@ -7365,10 +7365,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.09971148831799e-05</v>
+        <v>10.99711480489299</v>
       </c>
       <c r="C6" t="n">
-        <v>0.861100443794554</v>
+        <v>0.8611004447690965</v>
       </c>
     </row>
     <row r="7">
@@ -7378,10 +7378,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-5.566176649766781</v>
+        <v>-5.56617664976639</v>
       </c>
       <c r="C7" t="n">
-        <v>0.46591819166478</v>
+        <v>0.4659181916648087</v>
       </c>
     </row>
     <row r="8">
@@ -7391,10 +7391,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>550.5996934090017</v>
+        <v>5.505996934089879</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6720890247997091</v>
+        <v>0.6720890247997178</v>
       </c>
     </row>
     <row r="9">
@@ -7404,10 +7404,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-333.3488183022555</v>
+        <v>-3.333488183022517</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6605573943146471</v>
+        <v>0.6605573943146501</v>
       </c>
     </row>
     <row r="10">
@@ -7417,10 +7417,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9289.713135829352</v>
+        <v>92.89713135829336</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0001598750626987733</v>
+        <v>0.0001598750626987754</v>
       </c>
     </row>
     <row r="11">
@@ -7430,7 +7430,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>35.23779760358208</v>
+        <v>35.23779760358212</v>
       </c>
       <c r="C11" t="n">
         <v>0.03721041189988487</v>
@@ -7479,10 +7479,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-220.5446232273616</v>
+        <v>-220.5446231365781</v>
       </c>
       <c r="C2" t="n">
-        <v>0.859869496128982</v>
+        <v>0.8598694961851701</v>
       </c>
     </row>
     <row r="3">
@@ -7492,10 +7492,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>123.3449160286072</v>
+        <v>123.3449160258917</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07693950252611731</v>
+        <v>0.07693950252615968</v>
       </c>
     </row>
     <row r="4">
@@ -7505,10 +7505,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>256.8562575708447</v>
+        <v>256.8562575731341</v>
       </c>
       <c r="C4" t="n">
-        <v>1.022725752970896e-07</v>
+        <v>1.022725752350569e-07</v>
       </c>
     </row>
     <row r="5">
@@ -7518,10 +7518,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03791184715607301</v>
+        <v>-3.791184715889901</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3322217563181753</v>
+        <v>0.3322217562856726</v>
       </c>
     </row>
     <row r="6">
@@ -7531,10 +7531,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.04101756189191e-05</v>
+        <v>-10.41017561574654</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8524470264928772</v>
+        <v>0.8524470265380049</v>
       </c>
     </row>
     <row r="7">
@@ -7544,10 +7544,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-3.412204304459156</v>
+        <v>-3.412204304459003</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6669754957715209</v>
+        <v>0.6669754957715348</v>
       </c>
     </row>
     <row r="8">
@@ -7557,10 +7557,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1892.284556207308</v>
+        <v>18.92284556207304</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1265626857731308</v>
+        <v>0.1265626857731321</v>
       </c>
     </row>
     <row r="9">
@@ -7570,10 +7570,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-366.0511429371686</v>
+        <v>-3.660511429371667</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5519789183291703</v>
+        <v>0.5519789183291725</v>
       </c>
     </row>
     <row r="10">
@@ -7583,10 +7583,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11269.74486178413</v>
+        <v>112.6974486178414</v>
       </c>
       <c r="C10" t="n">
-        <v>1.475487296820031e-06</v>
+        <v>1.475487296820009e-06</v>
       </c>
     </row>
     <row r="11">
@@ -7596,10 +7596,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>49.01756517360731</v>
+        <v>49.01756517360734</v>
       </c>
       <c r="C11" t="n">
-        <v>0.003517760473538771</v>
+        <v>0.003517760473538778</v>
       </c>
     </row>
   </sheetData>
@@ -7645,10 +7645,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1234.71694294643</v>
+        <v>1234.716942895425</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2067075130134749</v>
+        <v>0.206707513028621</v>
       </c>
     </row>
     <row r="3">
@@ -7658,10 +7658,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>34.67827679984446</v>
+        <v>34.67827680146892</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5122438373244476</v>
+        <v>0.5122438373242768</v>
       </c>
     </row>
     <row r="4">
@@ -7671,10 +7671,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>294.3127049462898</v>
+        <v>294.312704948769</v>
       </c>
       <c r="C4" t="n">
-        <v>1.256358030267222e-10</v>
+        <v>1.256358027525797e-10</v>
       </c>
     </row>
     <row r="5">
@@ -7684,10 +7684,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01702356856766402</v>
+        <v>-1.70235685649434</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7327065164604516</v>
+        <v>0.7327065164945502</v>
       </c>
     </row>
     <row r="6">
@@ -7697,10 +7697,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.983114845446155e-05</v>
+        <v>-39.83114844263085</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4358590372141261</v>
+        <v>0.435859037348709</v>
       </c>
     </row>
     <row r="7">
@@ -7710,10 +7710,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.062763124496222</v>
+        <v>1.062763124495909</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8568474431659285</v>
+        <v>0.8568474431659702</v>
       </c>
     </row>
     <row r="8">
@@ -7723,10 +7723,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-178.9699383061527</v>
+        <v>-1.789699383061514</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8606845859622905</v>
+        <v>0.8606845859622918</v>
       </c>
     </row>
     <row r="9">
@@ -7736,10 +7736,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-899.8291984333127</v>
+        <v>-8.998291984333214</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1358684469561994</v>
+        <v>0.1358684469561962</v>
       </c>
     </row>
     <row r="10">
@@ -7749,10 +7749,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10285.86534006246</v>
+        <v>102.8586534006246</v>
       </c>
       <c r="C10" t="n">
-        <v>7.506338840101666e-06</v>
+        <v>7.506338840101513e-06</v>
       </c>
     </row>
     <row r="11">
@@ -7762,10 +7762,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>23.2542811702095</v>
+        <v>23.25428117020932</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1269377271119271</v>
+        <v>0.1269377271119293</v>
       </c>
     </row>
   </sheetData>
@@ -7811,10 +7811,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19.42015142177479</v>
+        <v>19.42015125840317</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9862012006120241</v>
+        <v>0.986201200728182</v>
       </c>
     </row>
     <row r="3">
@@ -7824,10 +7824,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>132.4553744008011</v>
+        <v>132.455374402036</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04439519513152748</v>
+        <v>0.04439519513151841</v>
       </c>
     </row>
     <row r="4">
@@ -7837,10 +7837,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>269.9889934435172</v>
+        <v>269.9889934513439</v>
       </c>
       <c r="C4" t="n">
-        <v>3.29519977870475e-08</v>
+        <v>3.295199771982024e-08</v>
       </c>
     </row>
     <row r="5">
@@ -7850,10 +7850,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.05182484414392383</v>
+        <v>-5.18248441430249</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2027808182508436</v>
+        <v>0.2027808182570181</v>
       </c>
     </row>
     <row r="6">
@@ -7863,10 +7863,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.770351722737079e-05</v>
+        <v>-17.70351721469757</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7704714207592342</v>
+        <v>0.7704714209253181</v>
       </c>
     </row>
     <row r="7">
@@ -7876,10 +7876,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-3.983933975172917</v>
+        <v>-3.983933975172743</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5386287997418309</v>
+        <v>0.5386287997418462</v>
       </c>
     </row>
     <row r="8">
@@ -7889,7 +7889,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2423.9310277155</v>
+        <v>24.23931027715499</v>
       </c>
       <c r="C8" t="n">
         <v>0.07009889994369312</v>
@@ -7902,10 +7902,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>99.37815345727336</v>
+        <v>0.993781534572709</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8860806156819224</v>
+        <v>0.8860806156819252</v>
       </c>
     </row>
     <row r="10">
@@ -7915,10 +7915,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9932.274400343005</v>
+        <v>99.32274400343007</v>
       </c>
       <c r="C10" t="n">
-        <v>2.12714046239342e-05</v>
+        <v>2.127140462393396e-05</v>
       </c>
     </row>
     <row r="11">
@@ -7928,10 +7928,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>42.21229548562336</v>
+        <v>42.21229548562358</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01013250259751103</v>
+        <v>0.01013250259751057</v>
       </c>
     </row>
   </sheetData>
@@ -7977,10 +7977,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>845.4319786982205</v>
+        <v>845.4319786147098</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4678422403054955</v>
+        <v>0.4678422403550393</v>
       </c>
     </row>
     <row r="3">
@@ -7990,10 +7990,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>45.48864430279169</v>
+        <v>45.48864430363278</v>
       </c>
       <c r="C3" t="n">
-        <v>0.515787888450904</v>
+        <v>0.5157878884507789</v>
       </c>
     </row>
     <row r="4">
@@ -8003,10 +8003,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>302.7134743617725</v>
+        <v>302.7134743624624</v>
       </c>
       <c r="C4" t="n">
-        <v>5.082418727653463e-09</v>
+        <v>5.082418725437882e-09</v>
       </c>
     </row>
     <row r="5">
@@ -8016,10 +8016,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0369830962886751</v>
+        <v>-3.698309628653195</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3692734905952747</v>
+        <v>0.3692734906135295</v>
       </c>
     </row>
     <row r="6">
@@ -8029,10 +8029,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.523181196072494e-05</v>
+        <v>-25.23181197477629</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6879407801668764</v>
+        <v>0.6879407800011266</v>
       </c>
     </row>
     <row r="7">
@@ -8042,10 +8042,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-5.576518838941144</v>
+        <v>-5.576518838941173</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4165537245257058</v>
+        <v>0.4165537245257044</v>
       </c>
     </row>
     <row r="8">
@@ -8055,10 +8055,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1066.3529286046</v>
+        <v>10.66352928604606</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4010170759282204</v>
+        <v>0.4010170759282174</v>
       </c>
     </row>
     <row r="9">
@@ -8068,10 +8068,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-416.7371714921455</v>
+        <v>-4.167371714921522</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5542995230165995</v>
+        <v>0.5542995230165935</v>
       </c>
     </row>
     <row r="10">
@@ -8081,7 +8081,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9715.663477935195</v>
+        <v>97.15663477935195</v>
       </c>
       <c r="C10" t="n">
         <v>6.05716563585167e-05</v>
@@ -8094,10 +8094,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>36.20163485727352</v>
+        <v>36.20163485727377</v>
       </c>
       <c r="C11" t="n">
-        <v>0.03220361476209229</v>
+        <v>0.03220361476209067</v>
       </c>
     </row>
   </sheetData>
@@ -8143,10 +8143,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>327.2787638251057</v>
+        <v>327.278763795458</v>
       </c>
       <c r="C2" t="n">
-        <v>0.782766409385618</v>
+        <v>0.7827664094049338</v>
       </c>
     </row>
     <row r="3">
@@ -8156,10 +8156,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>88.9426402816259</v>
+        <v>88.94264028431542</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1778885422589513</v>
+        <v>0.1778885422589321</v>
       </c>
     </row>
     <row r="4">
@@ -8169,10 +8169,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>291.6543328631894</v>
+        <v>291.654332861068</v>
       </c>
       <c r="C4" t="n">
-        <v>1.461223329733375e-08</v>
+        <v>1.461223330792535e-08</v>
       </c>
     </row>
     <row r="5">
@@ -8182,10 +8182,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03020801276700508</v>
+        <v>-3.020801277196497</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6460358462689346</v>
+        <v>0.646035846220008</v>
       </c>
     </row>
     <row r="6">
@@ -8195,10 +8195,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.003795201525445e-06</v>
+        <v>9.00379518732052</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9002082772937102</v>
+        <v>0.9002082774526046</v>
       </c>
     </row>
     <row r="7">
@@ -8208,10 +8208,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-5.958113566167057</v>
+        <v>-5.958113566166887</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3991609191722</v>
+        <v>0.3991609191722114</v>
       </c>
     </row>
     <row r="8">
@@ -8221,10 +8221,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>981.8228508360053</v>
+        <v>9.818228508360164</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4421631392593605</v>
+        <v>0.4421631392593566</v>
       </c>
     </row>
     <row r="9">
@@ -8234,10 +8234,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-486.8527067025407</v>
+        <v>-4.868527067025475</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4929387509916373</v>
+        <v>0.4929387509916312</v>
       </c>
     </row>
     <row r="10">
@@ -8247,10 +8247,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11004.76646873387</v>
+        <v>110.0476646873386</v>
       </c>
       <c r="C10" t="n">
-        <v>1.219043393228711e-05</v>
+        <v>1.219043393228725e-05</v>
       </c>
     </row>
     <row r="11">
@@ -8260,10 +8260,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>41.44982095084878</v>
+        <v>41.44982095084917</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0104195390256903</v>
+        <v>0.0104195390256897</v>
       </c>
     </row>
   </sheetData>
@@ -8309,10 +8309,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-334.5919047324787</v>
+        <v>-334.5919046573617</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7708243409693424</v>
+        <v>0.7708243410178102</v>
       </c>
     </row>
     <row r="3">
@@ -8322,10 +8322,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>123.1801613779116</v>
+        <v>123.1801613781682</v>
       </c>
       <c r="C3" t="n">
-        <v>0.06583628057707268</v>
+        <v>0.06583628057718251</v>
       </c>
     </row>
     <row r="4">
@@ -8335,10 +8335,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>256.8044521027128</v>
+        <v>256.8044521067046</v>
       </c>
       <c r="C4" t="n">
-        <v>1.723472694807222e-07</v>
+        <v>1.723472692885196e-07</v>
       </c>
     </row>
     <row r="5">
@@ -8348,10 +8348,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.07043192644677804</v>
+        <v>-7.04319264493211</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05869138195393654</v>
+        <v>0.0586913819484974</v>
       </c>
     </row>
     <row r="6">
@@ -8361,10 +8361,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.700477452179255e-06</v>
+        <v>3.700477481358263</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9429393775972048</v>
+        <v>0.942939377149181</v>
       </c>
     </row>
     <row r="7">
@@ -8374,10 +8374,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-3.255576316455961</v>
+        <v>-3.255576316455812</v>
       </c>
       <c r="C7" t="n">
-        <v>0.658637262397221</v>
+        <v>0.6586372623972347</v>
       </c>
     </row>
     <row r="8">
@@ -8387,10 +8387,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>679.1977322415356</v>
+        <v>6.791977322415374</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5240747352110759</v>
+        <v>0.5240747352110746</v>
       </c>
     </row>
     <row r="9">
@@ -8400,10 +8400,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>471.5970590480227</v>
+        <v>4.715970590480373</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4924646273839778</v>
+        <v>0.492464627383965</v>
       </c>
     </row>
     <row r="10">
@@ -8413,10 +8413,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13170.22301049449</v>
+        <v>131.7022301049453</v>
       </c>
       <c r="C10" t="n">
-        <v>1.596363663179438e-07</v>
+        <v>1.596363663179394e-07</v>
       </c>
     </row>
     <row r="11">
@@ -8426,10 +8426,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>45.33125261378405</v>
+        <v>45.33125261378399</v>
       </c>
       <c r="C11" t="n">
-        <v>0.00473961705694044</v>
+        <v>0.004739617056940534</v>
       </c>
     </row>
   </sheetData>
@@ -8475,10 +8475,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>998.1908725129078</v>
+        <v>998.1908724618734</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3560488307592535</v>
+        <v>0.3560488307872772</v>
       </c>
     </row>
     <row r="3">
@@ -8488,10 +8488,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>73.27196412143435</v>
+        <v>73.27196412687661</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2459381381418565</v>
+        <v>0.2459381381418912</v>
       </c>
     </row>
     <row r="4">
@@ -8501,10 +8501,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>256.971977010811</v>
+        <v>256.9719770091818</v>
       </c>
       <c r="C4" t="n">
-        <v>1.086187143149662e-07</v>
+        <v>1.08618714379488e-07</v>
       </c>
     </row>
     <row r="5">
@@ -8514,10 +8514,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.06524498969543807</v>
+        <v>-6.524498969214906</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1012533500024756</v>
+        <v>0.1012533500153034</v>
       </c>
     </row>
     <row r="6">
@@ -8527,10 +8527,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.792765707144662e-06</v>
+        <v>-1.792765694256687</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9743733682816925</v>
+        <v>0.9743733684665771</v>
       </c>
     </row>
     <row r="7">
@@ -8540,10 +8540,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.806811424749531</v>
+        <v>7.806811424749771</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2963968280896448</v>
+        <v>0.2963968280896287</v>
       </c>
     </row>
     <row r="8">
@@ -8553,10 +8553,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1234.098660039682</v>
+        <v>12.34098660039676</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3453207870926134</v>
+        <v>0.345320787092615</v>
       </c>
     </row>
     <row r="9">
@@ -8566,10 +8566,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-379.958989060754</v>
+        <v>-3.799589890607564</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5503124491359681</v>
+        <v>0.5503124491359659</v>
       </c>
     </row>
     <row r="10">
@@ -8579,10 +8579,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8077.241568705591</v>
+        <v>80.77241568705576</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0003580060216605336</v>
+        <v>0.0003580060216605414</v>
       </c>
     </row>
     <row r="11">
@@ -8592,10 +8592,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>16.68972280699228</v>
+        <v>16.6897228069922</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2988324976363699</v>
+        <v>0.2988324976363721</v>
       </c>
     </row>
   </sheetData>
@@ -8641,10 +8641,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1617.358279844933</v>
+        <v>1617.35827978168</v>
       </c>
       <c r="C2" t="n">
-        <v>0.177747599364057</v>
+        <v>0.1777475993809515</v>
       </c>
     </row>
     <row r="3">
@@ -8654,10 +8654,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>89.7603644021995</v>
+        <v>89.76036439675617</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1817302756166869</v>
+        <v>0.1817302756168034</v>
       </c>
     </row>
     <row r="4">
@@ -8667,10 +8667,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>269.3109510278717</v>
+        <v>269.3109510280792</v>
       </c>
       <c r="C4" t="n">
-        <v>8.162524322315042e-08</v>
+        <v>8.162524321738821e-08</v>
       </c>
     </row>
     <row r="5">
@@ -8680,10 +8680,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03548703532611597</v>
+        <v>-3.548703532174642</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3753123573245694</v>
+        <v>0.3753123573727873</v>
       </c>
     </row>
     <row r="6">
@@ -8693,10 +8693,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.280242657046656e-05</v>
+        <v>-32.80242659153973</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5993174565869256</v>
+        <v>0.5993174563531949</v>
       </c>
     </row>
     <row r="7">
@@ -8706,10 +8706,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-7.624953407263614</v>
+        <v>-7.624953407263753</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2681066492336092</v>
+        <v>0.2681066492335996</v>
       </c>
     </row>
     <row r="8">
@@ -8719,10 +8719,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-30.00321781009393</v>
+        <v>-0.3000321781009294</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9825479722115511</v>
+        <v>0.9825479722115518</v>
       </c>
     </row>
     <row r="9">
@@ -8732,10 +8732,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-768.8712578545814</v>
+        <v>-7.688712578546024</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2433511480892879</v>
+        <v>0.2433511480892745</v>
       </c>
     </row>
     <row r="10">
@@ -8745,10 +8745,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10178.15560850267</v>
+        <v>101.7815560850264</v>
       </c>
       <c r="C10" t="n">
-        <v>1.206285299949645e-05</v>
+        <v>1.206285299949714e-05</v>
       </c>
     </row>
     <row r="11">
@@ -8758,10 +8758,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>28.79808498033378</v>
+        <v>28.79808498033409</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0961062223003117</v>
+        <v>0.09610622230030708</v>
       </c>
     </row>
   </sheetData>
